--- a/Excel Sheets/meta analysis data.xlsx
+++ b/Excel Sheets/meta analysis data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\GitHub\meta-analysis\Excel Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD663EE0-9AA8-45CA-8E48-5553A9AEAD72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C09CE6F-1557-4B54-A212-5467096A733C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{9EC5192A-F6BA-4C5C-823C-2BAF9610B730}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{9EC5192A-F6BA-4C5C-823C-2BAF9610B730}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -776,9 +776,6 @@
     <t>p-value</t>
   </si>
   <si>
-    <t>r2</t>
-  </si>
-  <si>
     <t>n1</t>
   </si>
   <si>
@@ -803,12 +800,6 @@
     <t>sd2</t>
   </si>
   <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
     <t>Canis lupus familiaris</t>
   </si>
   <si>
@@ -858,6 +849,15 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>var1</t>
+  </si>
+  <si>
+    <t>var2</t>
   </si>
 </sst>
 </file>
@@ -1228,7 +1228,7 @@
   <dimension ref="A1:AE230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F178" sqref="F178"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1302,37 +1302,37 @@
         <v>246</v>
       </c>
       <c r="U1" t="s">
+        <v>272</v>
+      </c>
+      <c r="V1" t="s">
         <v>247</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>248</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y1" t="s">
         <v>249</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>250</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>251</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>252</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD1" t="s">
         <v>253</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>254</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>255</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:31" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.8">
@@ -1346,46 +1346,37 @@
         <v>228</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>266</v>
       </c>
       <c r="O2" s="3">
         <v>99</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>5.03</v>
-      </c>
-      <c r="R2" s="3">
-        <v>1</v>
-      </c>
-      <c r="T2" s="3">
-        <v>0.03</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="16" x14ac:dyDescent="0.8">
@@ -2780,43 +2771,43 @@
         <v>2020</v>
       </c>
       <c r="C176" t="s">
+        <v>265</v>
+      </c>
+      <c r="D176" t="s">
+        <v>266</v>
+      </c>
+      <c r="E176" t="s">
+        <v>267</v>
+      </c>
+      <c r="G176" t="s">
         <v>268</v>
       </c>
-      <c r="D176" t="s">
+      <c r="H176" t="s">
+        <v>258</v>
+      </c>
+      <c r="I176" t="s">
         <v>269</v>
       </c>
-      <c r="E176" t="s">
+      <c r="J176" t="s">
+        <v>259</v>
+      </c>
+      <c r="K176" t="s">
+        <v>260</v>
+      </c>
+      <c r="L176" t="s">
+        <v>261</v>
+      </c>
+      <c r="M176" t="s">
+        <v>262</v>
+      </c>
+      <c r="N176" t="s">
         <v>270</v>
-      </c>
-      <c r="G176" t="s">
-        <v>271</v>
-      </c>
-      <c r="H176" t="s">
-        <v>261</v>
-      </c>
-      <c r="I176" t="s">
-        <v>272</v>
-      </c>
-      <c r="J176" t="s">
-        <v>262</v>
-      </c>
-      <c r="K176" t="s">
-        <v>263</v>
-      </c>
-      <c r="L176" t="s">
-        <v>264</v>
-      </c>
-      <c r="M176" t="s">
-        <v>265</v>
-      </c>
-      <c r="N176" t="s">
-        <v>273</v>
       </c>
       <c r="O176">
         <v>45</v>
       </c>
       <c r="P176" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Q176">
         <v>6.45</v>

--- a/Excel Sheets/meta analysis data.xlsx
+++ b/Excel Sheets/meta analysis data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\GitHub\meta-analysis\Excel Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C09CE6F-1557-4B54-A212-5467096A733C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DC9B7C-F32A-45ED-B13E-44E970AA3D09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{9EC5192A-F6BA-4C5C-823C-2BAF9610B730}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{9EC5192A-F6BA-4C5C-823C-2BAF9610B730}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="283">
   <si>
     <t>Authors</t>
   </si>
@@ -858,6 +858,30 @@
   </si>
   <si>
     <t>var2</t>
+  </si>
+  <si>
+    <t>Garcia 2003</t>
+  </si>
+  <si>
+    <t>Crothers and Cummings 2015</t>
+  </si>
+  <si>
+    <t>Oophaga pumilio</t>
+  </si>
+  <si>
+    <t>light red</t>
+  </si>
+  <si>
+    <t>males</t>
+  </si>
+  <si>
+    <t>bright red</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>call latency (sec)</t>
   </si>
 </sst>
 </file>
@@ -879,7 +903,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -889,6 +913,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,12 +935,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1228,16 +1260,21 @@
   <dimension ref="A1:AE230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="1" max="1" width="14.36328125" customWidth="1"/>
     <col min="2" max="2" width="15.31640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.04296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.04296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.8">
@@ -1747,7 +1784,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="49" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
@@ -1755,7 +1792,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="50" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
@@ -1763,7 +1800,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="51" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
@@ -1771,7 +1808,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="52" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
@@ -1779,15 +1816,60 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="53" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B53" s="1">
         <v>2015</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+      <c r="C53" t="s">
+        <v>276</v>
+      </c>
+      <c r="D53" t="s">
+        <v>277</v>
+      </c>
+      <c r="E53" t="s">
+        <v>278</v>
+      </c>
+      <c r="G53" t="s">
+        <v>280</v>
+      </c>
+      <c r="H53" t="s">
+        <v>258</v>
+      </c>
+      <c r="J53" t="s">
+        <v>259</v>
+      </c>
+      <c r="K53" t="s">
+        <v>279</v>
+      </c>
+      <c r="L53" t="s">
+        <v>281</v>
+      </c>
+      <c r="M53" t="s">
+        <v>262</v>
+      </c>
+      <c r="N53" t="s">
+        <v>282</v>
+      </c>
+      <c r="O53">
+        <v>21</v>
+      </c>
+      <c r="P53" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q53">
+        <v>4.26</v>
+      </c>
+      <c r="R53">
+        <v>1</v>
+      </c>
+      <c r="T53">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
@@ -1795,7 +1877,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="55" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
@@ -1803,7 +1885,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="56" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
@@ -1811,7 +1893,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="57" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
@@ -1819,7 +1901,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="58" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
@@ -1827,7 +1909,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="59" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
@@ -1835,7 +1917,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="60" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
@@ -1843,7 +1925,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="61" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
@@ -1851,7 +1933,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="62" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
@@ -1859,7 +1941,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="63" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
@@ -1867,7 +1949,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="64" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
@@ -2003,15 +2085,18 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A81" s="1" t="s">
+    <row r="81" spans="1:3" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A81" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="5">
         <v>2003</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+      <c r="C81" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="16" x14ac:dyDescent="0.8">
       <c r="A82" s="1" t="s">
         <v>82</v>
       </c>
@@ -2019,7 +2104,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="83" spans="1:3" ht="16" x14ac:dyDescent="0.8">
       <c r="A83" s="1" t="s">
         <v>83</v>
       </c>
@@ -2027,7 +2112,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="84" spans="1:3" ht="16" x14ac:dyDescent="0.8">
       <c r="A84" s="1" t="s">
         <v>84</v>
       </c>
@@ -2035,7 +2120,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="85" spans="1:3" ht="16" x14ac:dyDescent="0.8">
       <c r="A85" s="1" t="s">
         <v>85</v>
       </c>
@@ -2043,7 +2128,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="86" spans="1:3" ht="16" x14ac:dyDescent="0.8">
       <c r="A86" s="1" t="s">
         <v>86</v>
       </c>
@@ -2051,7 +2136,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="87" spans="1:3" ht="16" x14ac:dyDescent="0.8">
       <c r="A87" s="1" t="s">
         <v>87</v>
       </c>
@@ -2059,7 +2144,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="88" spans="1:3" ht="16" x14ac:dyDescent="0.8">
       <c r="A88" s="1" t="s">
         <v>88</v>
       </c>
@@ -2067,7 +2152,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="89" spans="1:3" ht="16" x14ac:dyDescent="0.8">
       <c r="A89" s="1" t="s">
         <v>89</v>
       </c>
@@ -2075,7 +2160,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="90" spans="1:3" ht="16" x14ac:dyDescent="0.8">
       <c r="A90" s="1" t="s">
         <v>90</v>
       </c>
@@ -2083,7 +2168,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="91" spans="1:3" ht="16" x14ac:dyDescent="0.8">
       <c r="A91" s="1" t="s">
         <v>91</v>
       </c>
@@ -2091,7 +2176,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="92" spans="1:3" ht="16" x14ac:dyDescent="0.8">
       <c r="A92" s="1" t="s">
         <v>92</v>
       </c>
@@ -2099,7 +2184,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="93" spans="1:3" ht="16" x14ac:dyDescent="0.8">
       <c r="A93" s="1" t="s">
         <v>93</v>
       </c>
@@ -2107,7 +2192,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="94" spans="1:3" ht="16" x14ac:dyDescent="0.8">
       <c r="A94" s="1" t="s">
         <v>94</v>
       </c>
@@ -2115,7 +2200,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="95" spans="1:3" ht="16" x14ac:dyDescent="0.8">
       <c r="A95" s="1" t="s">
         <v>95</v>
       </c>
@@ -2123,7 +2208,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="96" spans="1:3" ht="16" x14ac:dyDescent="0.8">
       <c r="A96" s="1" t="s">
         <v>96</v>
       </c>

--- a/Excel Sheets/meta analysis data.xlsx
+++ b/Excel Sheets/meta analysis data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\GitHub\meta-analysis\Excel Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DC9B7C-F32A-45ED-B13E-44E970AA3D09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2A3F3F-60D8-4BC7-80B2-8BBD10D3EBE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{9EC5192A-F6BA-4C5C-823C-2BAF9610B730}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="295">
   <si>
     <t>Authors</t>
   </si>
@@ -882,6 +882,42 @@
   </si>
   <si>
     <t>call latency (sec)</t>
+  </si>
+  <si>
+    <t>Yewers et al 2016</t>
+  </si>
+  <si>
+    <t>Ctenophorus decresii</t>
+  </si>
+  <si>
+    <t>grey</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>throat</t>
+  </si>
+  <si>
+    <t>Carpodacus mexicanus</t>
+  </si>
+  <si>
+    <t>chest</t>
+  </si>
+  <si>
+    <t>non-breeding</t>
+  </si>
+  <si>
+    <t>encounters won</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>McGraw et al 2007</t>
   </si>
 </sst>
 </file>
@@ -1260,8 +1296,8 @@
   <dimension ref="A1:AE230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1269,7 +1305,8 @@
     <col min="1" max="1" width="14.36328125" customWidth="1"/>
     <col min="2" max="2" width="15.31640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.04296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.04296875" bestFit="1" customWidth="1"/>
@@ -2472,7 +2509,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="129" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A129" s="1" t="s">
         <v>129</v>
       </c>
@@ -2480,7 +2517,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="130" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A130" s="1" t="s">
         <v>130</v>
       </c>
@@ -2488,7 +2525,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="131" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A131" s="1" t="s">
         <v>130</v>
       </c>
@@ -2496,7 +2533,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="132" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A132" s="1" t="s">
         <v>131</v>
       </c>
@@ -2504,7 +2541,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="133" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A133" s="1" t="s">
         <v>132</v>
       </c>
@@ -2512,7 +2549,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="134" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A134" s="1" t="s">
         <v>133</v>
       </c>
@@ -2520,7 +2557,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="135" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A135" s="1" t="s">
         <v>134</v>
       </c>
@@ -2528,7 +2565,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="136" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A136" s="1" t="s">
         <v>135</v>
       </c>
@@ -2536,7 +2573,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="137" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A137" s="1" t="s">
         <v>136</v>
       </c>
@@ -2544,7 +2581,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="138" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A138" s="1" t="s">
         <v>137</v>
       </c>
@@ -2552,7 +2589,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="139" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A139" s="1" t="s">
         <v>138</v>
       </c>
@@ -2560,7 +2597,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="140" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A140" s="1" t="s">
         <v>139</v>
       </c>
@@ -2568,15 +2605,60 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="141" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A141" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B141" s="1">
         <v>2007</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+      <c r="C141" t="s">
+        <v>294</v>
+      </c>
+      <c r="D141" t="s">
+        <v>289</v>
+      </c>
+      <c r="E141" t="s">
+        <v>278</v>
+      </c>
+      <c r="G141" t="s">
+        <v>280</v>
+      </c>
+      <c r="H141" t="s">
+        <v>290</v>
+      </c>
+      <c r="I141" t="s">
+        <v>269</v>
+      </c>
+      <c r="J141" t="s">
+        <v>259</v>
+      </c>
+      <c r="K141" t="s">
+        <v>279</v>
+      </c>
+      <c r="L141" t="s">
+        <v>261</v>
+      </c>
+      <c r="M141" t="s">
+        <v>291</v>
+      </c>
+      <c r="N141" t="s">
+        <v>292</v>
+      </c>
+      <c r="O141">
+        <v>16</v>
+      </c>
+      <c r="P141" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q141">
+        <v>-1.72</v>
+      </c>
+      <c r="T141">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A142" s="1" t="s">
         <v>141</v>
       </c>
@@ -2584,7 +2666,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="143" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A143" s="1" t="s">
         <v>142</v>
       </c>
@@ -2592,7 +2674,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="144" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A144" s="1" t="s">
         <v>143</v>
       </c>
@@ -3294,15 +3376,69 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="225" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A225" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B225" s="1">
         <v>2016</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+      <c r="C225" t="s">
+        <v>283</v>
+      </c>
+      <c r="D225" t="s">
+        <v>284</v>
+      </c>
+      <c r="E225" t="s">
+        <v>285</v>
+      </c>
+      <c r="F225" t="s">
+        <v>286</v>
+      </c>
+      <c r="G225" t="s">
+        <v>287</v>
+      </c>
+      <c r="H225" t="s">
+        <v>288</v>
+      </c>
+      <c r="I225" t="s">
+        <v>269</v>
+      </c>
+      <c r="J225" t="s">
+        <v>259</v>
+      </c>
+      <c r="K225" t="s">
+        <v>279</v>
+      </c>
+      <c r="L225" t="s">
+        <v>281</v>
+      </c>
+      <c r="M225" t="s">
+        <v>262</v>
+      </c>
+      <c r="N225" t="s">
+        <v>263</v>
+      </c>
+      <c r="O225">
+        <v>34</v>
+      </c>
+      <c r="P225" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q225">
+        <v>2.94</v>
+      </c>
+      <c r="R225">
+        <v>3</v>
+      </c>
+      <c r="S225">
+        <v>28.5</v>
+      </c>
+      <c r="T225">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="226" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A226" s="1" t="s">
         <v>223</v>
       </c>
@@ -3310,7 +3446,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="227" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A227" s="1" t="s">
         <v>224</v>
       </c>
@@ -3318,7 +3454,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="228" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A228" s="1" t="s">
         <v>225</v>
       </c>
@@ -3326,7 +3462,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="229" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A229" s="1" t="s">
         <v>226</v>
       </c>
@@ -3334,7 +3470,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="230" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A230" s="1" t="s">
         <v>227</v>
       </c>

--- a/Excel Sheets/meta analysis data.xlsx
+++ b/Excel Sheets/meta analysis data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\GitHub\meta-analysis\Excel Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2A3F3F-60D8-4BC7-80B2-8BBD10D3EBE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E217C47-D711-46E3-80BB-5CC504D6C92C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{9EC5192A-F6BA-4C5C-823C-2BAF9610B730}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="314">
   <si>
     <t>Authors</t>
   </si>
@@ -918,13 +918,70 @@
   </si>
   <si>
     <t>McGraw et al 2007</t>
+  </si>
+  <si>
+    <t>Zonotrichia albicollis</t>
+  </si>
+  <si>
+    <t>tan</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>songs per 10 min</t>
+  </si>
+  <si>
+    <t>trills per 10 min</t>
+  </si>
+  <si>
+    <t>chips per 10 min</t>
+  </si>
+  <si>
+    <t>flights per 10 min</t>
+  </si>
+  <si>
+    <t>time in 5 m (min)</t>
+  </si>
+  <si>
+    <t>time in 2 m (min)</t>
+  </si>
+  <si>
+    <t>latency (min)</t>
+  </si>
+  <si>
+    <t>closest approach (m)</t>
+  </si>
+  <si>
+    <t>Zinzow-Kramer et al 2015 - 1</t>
+  </si>
+  <si>
+    <t>Zinzow-Kramer et al 2015 - 2</t>
+  </si>
+  <si>
+    <t>Zinzow-Kramer et al 2015 - 3</t>
+  </si>
+  <si>
+    <t>Zinzow-Kramer et al 2015 - 4</t>
+  </si>
+  <si>
+    <t>Zinzow-Kramer et al 2015 - 5</t>
+  </si>
+  <si>
+    <t>Zinzow-Kramer et al 2015 - 6</t>
+  </si>
+  <si>
+    <t>Zinzow-Kramer et al 2015 - 7</t>
+  </si>
+  <si>
+    <t>Zinzow-Kramer et al 2015 - 8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -934,6 +991,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1293,23 +1356,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A66D8A-A6D2-47D1-BD63-6DA0AC2C195D}">
-  <dimension ref="A1:AE230"/>
+  <dimension ref="A1:AE237"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A141" sqref="A141"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="F237" sqref="F237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="14.36328125" customWidth="1"/>
     <col min="2" max="2" width="15.31640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.04296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.04296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.58984375" customWidth="1"/>
     <col min="15" max="15" width="10.953125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -3376,7 +3440,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="225" spans="1:20" ht="16" x14ac:dyDescent="0.8">
+    <row r="225" spans="1:31" ht="16" x14ac:dyDescent="0.8">
       <c r="A225" s="1" t="s">
         <v>222</v>
       </c>
@@ -3438,7 +3502,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="226" spans="1:20" ht="16" x14ac:dyDescent="0.8">
+    <row r="226" spans="1:31" ht="16" x14ac:dyDescent="0.8">
       <c r="A226" s="1" t="s">
         <v>223</v>
       </c>
@@ -3446,7 +3510,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="227" spans="1:20" ht="16" x14ac:dyDescent="0.8">
+    <row r="227" spans="1:31" ht="16" x14ac:dyDescent="0.8">
       <c r="A227" s="1" t="s">
         <v>224</v>
       </c>
@@ -3454,7 +3518,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="16" x14ac:dyDescent="0.8">
+    <row r="228" spans="1:31" ht="16" x14ac:dyDescent="0.8">
       <c r="A228" s="1" t="s">
         <v>225</v>
       </c>
@@ -3462,7 +3526,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="229" spans="1:20" ht="16" x14ac:dyDescent="0.8">
+    <row r="229" spans="1:31" ht="16" x14ac:dyDescent="0.8">
       <c r="A229" s="1" t="s">
         <v>226</v>
       </c>
@@ -3470,15 +3534,472 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="230" spans="1:20" ht="16" x14ac:dyDescent="0.8">
+    <row r="230" spans="1:31" ht="16" x14ac:dyDescent="0.8">
       <c r="A230" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B230" s="1">
         <v>2015</v>
       </c>
+      <c r="C230" t="s">
+        <v>306</v>
+      </c>
+      <c r="D230" t="s">
+        <v>295</v>
+      </c>
+      <c r="E230" t="s">
+        <v>267</v>
+      </c>
+      <c r="G230" t="s">
+        <v>296</v>
+      </c>
+      <c r="H230" t="s">
+        <v>297</v>
+      </c>
+      <c r="J230" t="s">
+        <v>259</v>
+      </c>
+      <c r="K230" t="s">
+        <v>279</v>
+      </c>
+      <c r="L230" t="s">
+        <v>281</v>
+      </c>
+      <c r="M230" t="s">
+        <v>262</v>
+      </c>
+      <c r="N230" t="s">
+        <v>298</v>
+      </c>
+      <c r="V230">
+        <v>10</v>
+      </c>
+      <c r="W230">
+        <v>23.515999999999998</v>
+      </c>
+      <c r="Z230">
+        <f>39.858/(1.35*1.5)</f>
+        <v>19.682962962962957</v>
+      </c>
+      <c r="AA230">
+        <v>9</v>
+      </c>
+      <c r="AB230">
+        <v>1.7330000000000001</v>
+      </c>
+      <c r="AE230">
+        <f>14.356/(1.5*1.35)</f>
+        <v>7.0893827160493812</v>
+      </c>
+    </row>
+    <row r="231" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="A231" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B231" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C231" t="s">
+        <v>307</v>
+      </c>
+      <c r="D231" t="s">
+        <v>295</v>
+      </c>
+      <c r="E231" t="s">
+        <v>267</v>
+      </c>
+      <c r="G231" t="s">
+        <v>296</v>
+      </c>
+      <c r="H231" t="s">
+        <v>297</v>
+      </c>
+      <c r="J231" t="s">
+        <v>259</v>
+      </c>
+      <c r="K231" t="s">
+        <v>279</v>
+      </c>
+      <c r="L231" t="s">
+        <v>281</v>
+      </c>
+      <c r="M231" t="s">
+        <v>262</v>
+      </c>
+      <c r="N231" t="s">
+        <v>299</v>
+      </c>
+      <c r="V231">
+        <v>10</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <f>0.5/(1.35*1.5)</f>
+        <v>0.24691358024691354</v>
+      </c>
+      <c r="AA231">
+        <v>9</v>
+      </c>
+      <c r="AB231">
+        <v>0</v>
+      </c>
+      <c r="AE231">
+        <f>1/(1.5*1.35)</f>
+        <v>0.49382716049382708</v>
+      </c>
+    </row>
+    <row r="232" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="A232" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B232" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C232" t="s">
+        <v>308</v>
+      </c>
+      <c r="D232" t="s">
+        <v>295</v>
+      </c>
+      <c r="E232" t="s">
+        <v>267</v>
+      </c>
+      <c r="G232" t="s">
+        <v>296</v>
+      </c>
+      <c r="H232" t="s">
+        <v>297</v>
+      </c>
+      <c r="J232" t="s">
+        <v>259</v>
+      </c>
+      <c r="K232" t="s">
+        <v>279</v>
+      </c>
+      <c r="L232" t="s">
+        <v>281</v>
+      </c>
+      <c r="M232" t="s">
+        <v>262</v>
+      </c>
+      <c r="N232" t="s">
+        <v>300</v>
+      </c>
+      <c r="V232">
+        <v>10</v>
+      </c>
+      <c r="W232">
+        <v>20.846</v>
+      </c>
+      <c r="Z232">
+        <f>83.81/(1.35*1.5)</f>
+        <v>41.38765432098765</v>
+      </c>
+      <c r="AA232">
+        <v>9</v>
+      </c>
+      <c r="AB232">
+        <v>16.172000000000001</v>
+      </c>
+      <c r="AE232">
+        <f>39.139/(1.5*1.35)</f>
+        <v>19.3279012345679</v>
+      </c>
+    </row>
+    <row r="233" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="A233" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B233" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C233" t="s">
+        <v>309</v>
+      </c>
+      <c r="D233" t="s">
+        <v>295</v>
+      </c>
+      <c r="E233" t="s">
+        <v>267</v>
+      </c>
+      <c r="G233" t="s">
+        <v>296</v>
+      </c>
+      <c r="H233" t="s">
+        <v>297</v>
+      </c>
+      <c r="J233" t="s">
+        <v>259</v>
+      </c>
+      <c r="K233" t="s">
+        <v>279</v>
+      </c>
+      <c r="L233" t="s">
+        <v>281</v>
+      </c>
+      <c r="M233" t="s">
+        <v>262</v>
+      </c>
+      <c r="N233" t="s">
+        <v>301</v>
+      </c>
+      <c r="V233">
+        <v>10</v>
+      </c>
+      <c r="W233">
+        <v>7.5650000000000004</v>
+      </c>
+      <c r="Z233">
+        <f>18.414/(1.35*1.5)</f>
+        <v>9.0933333333333319</v>
+      </c>
+      <c r="AA233">
+        <v>9</v>
+      </c>
+      <c r="AB233">
+        <v>11.342000000000001</v>
+      </c>
+      <c r="AE233">
+        <f>23.17/(1.5*1.35)</f>
+        <v>11.441975308641974</v>
+      </c>
+    </row>
+    <row r="234" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="A234" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B234" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C234" t="s">
+        <v>310</v>
+      </c>
+      <c r="D234" t="s">
+        <v>295</v>
+      </c>
+      <c r="E234" t="s">
+        <v>267</v>
+      </c>
+      <c r="G234" t="s">
+        <v>296</v>
+      </c>
+      <c r="H234" t="s">
+        <v>297</v>
+      </c>
+      <c r="J234" t="s">
+        <v>259</v>
+      </c>
+      <c r="K234" t="s">
+        <v>279</v>
+      </c>
+      <c r="L234" t="s">
+        <v>281</v>
+      </c>
+      <c r="M234" t="s">
+        <v>262</v>
+      </c>
+      <c r="N234" t="s">
+        <v>302</v>
+      </c>
+      <c r="V234">
+        <v>10</v>
+      </c>
+      <c r="W234">
+        <v>10.154</v>
+      </c>
+      <c r="Z234">
+        <f>0.615/(1.35*1.5)</f>
+        <v>0.30370370370370364</v>
+      </c>
+      <c r="AA234">
+        <v>9</v>
+      </c>
+      <c r="AB234">
+        <v>10.154999999999999</v>
+      </c>
+      <c r="AE234">
+        <f>1.692/(1.5*1.35)</f>
+        <v>0.83555555555555538</v>
+      </c>
+    </row>
+    <row r="235" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="A235" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B235" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C235" t="s">
+        <v>311</v>
+      </c>
+      <c r="D235" t="s">
+        <v>295</v>
+      </c>
+      <c r="E235" t="s">
+        <v>267</v>
+      </c>
+      <c r="G235" t="s">
+        <v>296</v>
+      </c>
+      <c r="H235" t="s">
+        <v>297</v>
+      </c>
+      <c r="J235" t="s">
+        <v>259</v>
+      </c>
+      <c r="K235" t="s">
+        <v>279</v>
+      </c>
+      <c r="L235" t="s">
+        <v>281</v>
+      </c>
+      <c r="M235" t="s">
+        <v>262</v>
+      </c>
+      <c r="N235" t="s">
+        <v>303</v>
+      </c>
+      <c r="V235">
+        <v>10</v>
+      </c>
+      <c r="W235">
+        <v>7.1680000000000001</v>
+      </c>
+      <c r="Z235">
+        <f>8.924/(1.35*1.5)</f>
+        <v>4.4069135802469122</v>
+      </c>
+      <c r="AA235">
+        <v>9</v>
+      </c>
+      <c r="AB235">
+        <v>6.0469999999999997</v>
+      </c>
+      <c r="AE235">
+        <f>8.144/(1.5*1.35)</f>
+        <v>4.0217283950617277</v>
+      </c>
+    </row>
+    <row r="236" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="A236" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B236" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C236" t="s">
+        <v>312</v>
+      </c>
+      <c r="D236" t="s">
+        <v>295</v>
+      </c>
+      <c r="E236" t="s">
+        <v>267</v>
+      </c>
+      <c r="G236" t="s">
+        <v>296</v>
+      </c>
+      <c r="H236" t="s">
+        <v>297</v>
+      </c>
+      <c r="J236" t="s">
+        <v>259</v>
+      </c>
+      <c r="K236" t="s">
+        <v>279</v>
+      </c>
+      <c r="L236" t="s">
+        <v>281</v>
+      </c>
+      <c r="M236" t="s">
+        <v>262</v>
+      </c>
+      <c r="N236" t="s">
+        <v>304</v>
+      </c>
+      <c r="V236">
+        <v>10</v>
+      </c>
+      <c r="W236">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="Z236">
+        <f>1.318/(1.35*1.5)</f>
+        <v>0.65086419753086411</v>
+      </c>
+      <c r="AA236">
+        <v>9</v>
+      </c>
+      <c r="AB236">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="AE236">
+        <f>2.194/(1.5*1.35)</f>
+        <v>1.0834567901234566</v>
+      </c>
+    </row>
+    <row r="237" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="A237" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B237" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C237" t="s">
+        <v>313</v>
+      </c>
+      <c r="D237" t="s">
+        <v>295</v>
+      </c>
+      <c r="E237" t="s">
+        <v>267</v>
+      </c>
+      <c r="G237" t="s">
+        <v>296</v>
+      </c>
+      <c r="H237" t="s">
+        <v>297</v>
+      </c>
+      <c r="J237" t="s">
+        <v>259</v>
+      </c>
+      <c r="K237" t="s">
+        <v>279</v>
+      </c>
+      <c r="L237" t="s">
+        <v>281</v>
+      </c>
+      <c r="M237" t="s">
+        <v>262</v>
+      </c>
+      <c r="N237" t="s">
+        <v>305</v>
+      </c>
+      <c r="V237">
+        <v>10</v>
+      </c>
+      <c r="W237">
+        <v>0.247</v>
+      </c>
+      <c r="Z237">
+        <f>0.431/(1.35*1.5)</f>
+        <v>0.21283950617283948</v>
+      </c>
+      <c r="AA237">
+        <v>9</v>
+      </c>
+      <c r="AB237">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="AE237">
+        <f>1.277/(1.5*1.35)</f>
+        <v>0.63061728395061711</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel Sheets/meta analysis data.xlsx
+++ b/Excel Sheets/meta analysis data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\GitHub\meta-analysis\Excel Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E217C47-D711-46E3-80BB-5CC504D6C92C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1D1EA1-34AD-43AA-83D6-D09FC1842D20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{9EC5192A-F6BA-4C5C-823C-2BAF9610B730}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="370">
   <si>
     <t>Authors</t>
   </si>
@@ -975,6 +975,174 @@
   </si>
   <si>
     <t>Zinzow-Kramer et al 2015 - 8</t>
+  </si>
+  <si>
+    <t>melanocortin</t>
+  </si>
+  <si>
+    <t>Young et al 2017</t>
+  </si>
+  <si>
+    <t>Neochmia phaeton</t>
+  </si>
+  <si>
+    <t>Young et al 2016 - 1</t>
+  </si>
+  <si>
+    <t>Young et al 2016 - 2</t>
+  </si>
+  <si>
+    <t>less black</t>
+  </si>
+  <si>
+    <t>more black</t>
+  </si>
+  <si>
+    <t>less red</t>
+  </si>
+  <si>
+    <t>more red</t>
+  </si>
+  <si>
+    <t>wins</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Gasterosteus aculeatus</t>
+  </si>
+  <si>
+    <t>breeding</t>
+  </si>
+  <si>
+    <t>females</t>
+  </si>
+  <si>
+    <t>bite rate</t>
+  </si>
+  <si>
+    <t>Yong et al 2018 - 1</t>
+  </si>
+  <si>
+    <t>Yong et al 2018 - 2</t>
+  </si>
+  <si>
+    <t>spine</t>
+  </si>
+  <si>
+    <t>no red</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>Yong et al 2015 - 1</t>
+  </si>
+  <si>
+    <t>Yong et al 2015 - 2</t>
+  </si>
+  <si>
+    <t>Yong et al 2015 - 3</t>
+  </si>
+  <si>
+    <t>lunge</t>
+  </si>
+  <si>
+    <t>chase</t>
+  </si>
+  <si>
+    <t>&gt;0.05</t>
+  </si>
+  <si>
+    <t>Yewers et al 2017</t>
+  </si>
+  <si>
+    <t>Yasukawa et al 2009b</t>
+  </si>
+  <si>
+    <t>Agelaius phoeniceus</t>
+  </si>
+  <si>
+    <t>Yasukawa et al 2009a</t>
+  </si>
+  <si>
+    <t>Yang et al 2019</t>
+  </si>
+  <si>
+    <t>Yang et al 2018</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>Yang et al 2001</t>
+  </si>
+  <si>
+    <t>Anolis carolinensis</t>
+  </si>
+  <si>
+    <t>Williams et al 2012</t>
+  </si>
+  <si>
+    <t>Erythrura gouldiae</t>
+  </si>
+  <si>
+    <t>Wilhelmy et al 2016</t>
+  </si>
+  <si>
+    <t>Wilczynski et al 2015</t>
+  </si>
+  <si>
+    <t>Whiting et al 2006</t>
+  </si>
+  <si>
+    <t>Felius catus</t>
+  </si>
+  <si>
+    <t>Platysaurus broadleyi</t>
+  </si>
+  <si>
+    <t>dull UV</t>
+  </si>
+  <si>
+    <t>bright UV</t>
+  </si>
+  <si>
+    <t>fighting ability</t>
+  </si>
+  <si>
+    <t>standardized coefficient</t>
+  </si>
+  <si>
+    <t>Whiting 1999</t>
+  </si>
+  <si>
+    <t>foreleg</t>
+  </si>
+  <si>
+    <t>Weiss and Dubin 2018</t>
+  </si>
+  <si>
+    <t>Sceloporus virgatus</t>
+  </si>
+  <si>
+    <t>Watz et al 2015</t>
+  </si>
+  <si>
+    <t>Salmo trutta</t>
+  </si>
+  <si>
+    <t>Warner and Schultz 1992</t>
+  </si>
+  <si>
+    <t>Thalassoma bifasciatum</t>
+  </si>
+  <si>
+    <t>dull</t>
+  </si>
+  <si>
+    <t>bright</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1170,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1021,6 +1189,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1034,7 +1214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1042,6 +1222,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1356,12 +1540,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A66D8A-A6D2-47D1-BD63-6DA0AC2C195D}">
-  <dimension ref="A1:AE237"/>
+  <dimension ref="A1:AG241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F237" sqref="F237"/>
+      <selection pane="bottomLeft" activeCell="B200" sqref="B200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1369,9 +1553,9 @@
     <col min="1" max="1" width="14.36328125" customWidth="1"/>
     <col min="2" max="2" width="15.31640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.6796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.04296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.31640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.58984375" customWidth="1"/>
     <col min="15" max="15" width="10.953125" bestFit="1" customWidth="1"/>
@@ -3312,7 +3496,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="209" spans="1:33" ht="16" x14ac:dyDescent="0.8">
       <c r="A209" s="1" t="s">
         <v>206</v>
       </c>
@@ -3320,7 +3504,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="210" spans="1:33" ht="16" x14ac:dyDescent="0.8">
       <c r="A210" s="1" t="s">
         <v>207</v>
       </c>
@@ -3328,116 +3512,329 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A211" s="1" t="s">
+    <row r="211" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A211" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="B211" s="1">
+      <c r="B211" s="7">
         <v>1992</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A212" s="1" t="s">
+      <c r="C211" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D211" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="E211" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="G211" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="212" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A212" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B212" s="1">
+      <c r="B212" s="7">
         <v>2015</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A213" s="1" t="s">
+      <c r="C212" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="D212" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="213" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A213" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="B213" s="1">
+      <c r="B213" s="7">
         <v>2018</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A214" s="1" t="s">
+      <c r="C213" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="D213" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="214" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A214" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B214" s="1">
+      <c r="B214" s="7">
         <v>1999</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+      <c r="C214" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="D214" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="H214" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="J214" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="K214" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="L214" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="M214" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="N214" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="215" spans="1:33" ht="16" x14ac:dyDescent="0.8">
       <c r="A215" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B215" s="1">
         <v>2006</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A216" s="1" t="s">
+      <c r="C215" t="s">
+        <v>353</v>
+      </c>
+      <c r="D215" t="s">
+        <v>355</v>
+      </c>
+      <c r="E215" t="s">
+        <v>356</v>
+      </c>
+      <c r="G215" t="s">
+        <v>357</v>
+      </c>
+      <c r="H215" t="s">
+        <v>288</v>
+      </c>
+      <c r="J215" t="s">
+        <v>259</v>
+      </c>
+      <c r="K215" t="s">
+        <v>279</v>
+      </c>
+      <c r="L215" t="s">
+        <v>281</v>
+      </c>
+      <c r="M215" t="s">
+        <v>262</v>
+      </c>
+      <c r="N215" t="s">
+        <v>358</v>
+      </c>
+      <c r="O215">
+        <v>72</v>
+      </c>
+      <c r="P215" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q215">
+        <v>0.34</v>
+      </c>
+      <c r="T215">
+        <v>2E-3</v>
+      </c>
+      <c r="Y215">
+        <v>0.11</v>
+      </c>
+      <c r="AF215">
+        <v>0.8</v>
+      </c>
+      <c r="AG215" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="216" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A216" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B216" s="1">
+      <c r="B216" s="7">
         <v>2015</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A217" s="4" t="s">
+      <c r="C216" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D216" s="8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="217" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A217" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B217" s="1">
+      <c r="B217" s="7">
         <v>2016</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+      <c r="C217" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="D217" s="8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="218" spans="1:33" ht="16" x14ac:dyDescent="0.8">
       <c r="A218" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B218" s="1">
         <v>2012</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A219" s="1" t="s">
+      <c r="C218" t="s">
+        <v>349</v>
+      </c>
+      <c r="D218" t="s">
+        <v>350</v>
+      </c>
+      <c r="E218" t="s">
+        <v>333</v>
+      </c>
+      <c r="G218" t="s">
+        <v>256</v>
+      </c>
+      <c r="H218" t="s">
+        <v>297</v>
+      </c>
+      <c r="I218" t="s">
+        <v>269</v>
+      </c>
+      <c r="J218" t="s">
+        <v>259</v>
+      </c>
+      <c r="K218" t="s">
+        <v>260</v>
+      </c>
+      <c r="L218" t="s">
+        <v>261</v>
+      </c>
+      <c r="M218" t="s">
+        <v>262</v>
+      </c>
+      <c r="N218" t="s">
+        <v>263</v>
+      </c>
+      <c r="O218">
+        <v>40</v>
+      </c>
+      <c r="V218">
+        <v>20</v>
+      </c>
+      <c r="W218">
+        <v>2.1030000000000002</v>
+      </c>
+      <c r="Y218">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="AA218">
+        <v>20</v>
+      </c>
+      <c r="AB218">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="AD218">
+        <v>0.222</v>
+      </c>
+    </row>
+    <row r="219" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A219" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="B219" s="1">
+      <c r="B219" s="7">
         <v>2001</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A220" s="1" t="s">
+      <c r="C219" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D219" s="8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="220" spans="1:33" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A220" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="B220" s="1">
+      <c r="B220" s="9">
         <v>2018</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A221" s="1" t="s">
+      <c r="C220" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="D220" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="E220" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="G220" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="H220" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="J220" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="221" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A221" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="B221" s="1">
+      <c r="B221" s="7">
         <v>2019</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A222" s="1" t="s">
+      <c r="C221" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="D221" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="222" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A222" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="B222" s="1">
+      <c r="B222" s="7">
         <v>2009</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A223" s="1" t="s">
+      <c r="C222" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D222" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="223" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A223" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="B223" s="1">
+      <c r="B223" s="7">
         <v>2009</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A224" s="1" t="s">
+      <c r="C223" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="D223" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="224" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A224" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="B224" s="1">
+      <c r="B224" s="7">
         <v>2017</v>
+      </c>
+      <c r="C224" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="D224" s="8" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="225" spans="1:31" ht="16" x14ac:dyDescent="0.8">
@@ -3509,110 +3906,309 @@
       <c r="B226" s="1">
         <v>2015</v>
       </c>
+      <c r="C226" t="s">
+        <v>334</v>
+      </c>
+      <c r="D226" t="s">
+        <v>325</v>
+      </c>
+      <c r="E226" t="s">
+        <v>332</v>
+      </c>
+      <c r="G226" t="s">
+        <v>333</v>
+      </c>
+      <c r="H226" t="s">
+        <v>288</v>
+      </c>
+      <c r="I226" t="s">
+        <v>269</v>
+      </c>
+      <c r="J226" t="s">
+        <v>259</v>
+      </c>
+      <c r="K226" t="s">
+        <v>327</v>
+      </c>
+      <c r="L226" t="s">
+        <v>261</v>
+      </c>
+      <c r="M226" t="s">
+        <v>326</v>
+      </c>
+      <c r="N226" t="s">
+        <v>328</v>
+      </c>
+      <c r="P226" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q226">
+        <v>0.25</v>
+      </c>
+      <c r="R226">
+        <v>1</v>
+      </c>
+      <c r="S226">
+        <v>39</v>
+      </c>
+      <c r="T226" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="227" spans="1:31" ht="16" x14ac:dyDescent="0.8">
       <c r="A227" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B227" s="1">
-        <v>2018</v>
+        <v>2015</v>
+      </c>
+      <c r="C227" t="s">
+        <v>335</v>
+      </c>
+      <c r="D227" t="s">
+        <v>325</v>
+      </c>
+      <c r="E227" t="s">
+        <v>332</v>
+      </c>
+      <c r="G227" t="s">
+        <v>333</v>
+      </c>
+      <c r="H227" t="s">
+        <v>288</v>
+      </c>
+      <c r="I227" t="s">
+        <v>269</v>
+      </c>
+      <c r="J227" t="s">
+        <v>259</v>
+      </c>
+      <c r="K227" t="s">
+        <v>327</v>
+      </c>
+      <c r="L227" t="s">
+        <v>261</v>
+      </c>
+      <c r="M227" t="s">
+        <v>326</v>
+      </c>
+      <c r="N227" t="s">
+        <v>337</v>
+      </c>
+      <c r="P227" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q227">
+        <v>1.46</v>
+      </c>
+      <c r="R227">
+        <v>1</v>
+      </c>
+      <c r="S227">
+        <v>39</v>
+      </c>
+      <c r="T227" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="228" spans="1:31" ht="16" x14ac:dyDescent="0.8">
       <c r="A228" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B228" s="1">
-        <v>2016</v>
+        <v>2015</v>
+      </c>
+      <c r="C228" t="s">
+        <v>336</v>
+      </c>
+      <c r="D228" t="s">
+        <v>325</v>
+      </c>
+      <c r="E228" t="s">
+        <v>332</v>
+      </c>
+      <c r="G228" t="s">
+        <v>333</v>
+      </c>
+      <c r="H228" t="s">
+        <v>288</v>
+      </c>
+      <c r="I228" t="s">
+        <v>269</v>
+      </c>
+      <c r="J228" t="s">
+        <v>259</v>
+      </c>
+      <c r="K228" t="s">
+        <v>327</v>
+      </c>
+      <c r="L228" t="s">
+        <v>261</v>
+      </c>
+      <c r="M228" t="s">
+        <v>326</v>
+      </c>
+      <c r="N228" t="s">
+        <v>338</v>
+      </c>
+      <c r="P228" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q228">
+        <v>0.02</v>
+      </c>
+      <c r="R228">
+        <v>1</v>
+      </c>
+      <c r="S228">
+        <v>39</v>
+      </c>
+      <c r="T228" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="229" spans="1:31" ht="16" x14ac:dyDescent="0.8">
       <c r="A229" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B229" s="1">
-        <v>2017</v>
+        <v>2018</v>
+      </c>
+      <c r="C229" t="s">
+        <v>329</v>
+      </c>
+      <c r="D229" t="s">
+        <v>325</v>
+      </c>
+      <c r="E229" t="s">
+        <v>321</v>
+      </c>
+      <c r="G229" t="s">
+        <v>322</v>
+      </c>
+      <c r="H229" t="s">
+        <v>288</v>
+      </c>
+      <c r="I229" t="s">
+        <v>269</v>
+      </c>
+      <c r="J229" t="s">
+        <v>259</v>
+      </c>
+      <c r="K229" t="s">
+        <v>327</v>
+      </c>
+      <c r="L229" t="s">
+        <v>261</v>
+      </c>
+      <c r="M229" t="s">
+        <v>326</v>
+      </c>
+      <c r="N229" t="s">
+        <v>328</v>
+      </c>
+      <c r="O229">
+        <v>43</v>
+      </c>
+      <c r="P229" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q229">
+        <v>0.127</v>
+      </c>
+      <c r="R229">
+        <v>1</v>
+      </c>
+      <c r="S229">
+        <v>38</v>
+      </c>
+      <c r="T229">
+        <v>0.127</v>
       </c>
     </row>
     <row r="230" spans="1:31" ht="16" x14ac:dyDescent="0.8">
       <c r="A230" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B230" s="1">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="C230" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="D230" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="E230" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="G230" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="H230" t="s">
-        <v>297</v>
+        <v>331</v>
+      </c>
+      <c r="I230" t="s">
+        <v>269</v>
       </c>
       <c r="J230" t="s">
         <v>259</v>
       </c>
       <c r="K230" t="s">
-        <v>279</v>
+        <v>327</v>
       </c>
       <c r="L230" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="M230" t="s">
-        <v>262</v>
+        <v>326</v>
       </c>
       <c r="N230" t="s">
-        <v>298</v>
-      </c>
-      <c r="V230">
-        <v>10</v>
-      </c>
-      <c r="W230">
-        <v>23.515999999999998</v>
-      </c>
-      <c r="Z230">
-        <f>39.858/(1.35*1.5)</f>
-        <v>19.682962962962957</v>
-      </c>
-      <c r="AA230">
-        <v>9</v>
-      </c>
-      <c r="AB230">
-        <v>1.7330000000000001</v>
-      </c>
-      <c r="AE230">
-        <f>14.356/(1.5*1.35)</f>
-        <v>7.0893827160493812</v>
+        <v>328</v>
+      </c>
+      <c r="O230">
+        <v>43</v>
+      </c>
+      <c r="P230" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q230">
+        <v>3.9E-2</v>
+      </c>
+      <c r="R230">
+        <v>1</v>
+      </c>
+      <c r="S230">
+        <v>38</v>
+      </c>
+      <c r="T230">
+        <v>0.84</v>
       </c>
     </row>
     <row r="231" spans="1:31" ht="16" x14ac:dyDescent="0.8">
       <c r="A231" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B231" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C231" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="D231" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="E231" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="G231" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="H231" t="s">
-        <v>297</v>
+        <v>258</v>
+      </c>
+      <c r="I231" t="s">
+        <v>269</v>
       </c>
       <c r="J231" t="s">
         <v>259</v>
@@ -3621,56 +4217,51 @@
         <v>279</v>
       </c>
       <c r="L231" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="M231" t="s">
         <v>262</v>
       </c>
       <c r="N231" t="s">
-        <v>299</v>
-      </c>
-      <c r="V231">
-        <v>10</v>
-      </c>
-      <c r="W231">
-        <v>0</v>
-      </c>
-      <c r="Z231">
-        <f>0.5/(1.35*1.5)</f>
-        <v>0.24691358024691354</v>
-      </c>
-      <c r="AA231">
-        <v>9</v>
-      </c>
-      <c r="AB231">
-        <v>0</v>
-      </c>
-      <c r="AE231">
-        <f>1/(1.5*1.35)</f>
-        <v>0.49382716049382708</v>
+        <v>323</v>
+      </c>
+      <c r="O231">
+        <v>44</v>
+      </c>
+      <c r="P231" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q231">
+        <v>82.51</v>
+      </c>
+      <c r="Y231">
+        <v>35.15</v>
       </c>
     </row>
     <row r="232" spans="1:31" ht="16" x14ac:dyDescent="0.8">
       <c r="A232" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B232" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C232" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="D232" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="E232" t="s">
-        <v>267</v>
+        <v>319</v>
       </c>
       <c r="G232" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="H232" t="s">
-        <v>297</v>
+        <v>290</v>
+      </c>
+      <c r="I232" t="s">
+        <v>314</v>
       </c>
       <c r="J232" t="s">
         <v>259</v>
@@ -3679,91 +4270,39 @@
         <v>279</v>
       </c>
       <c r="L232" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="M232" t="s">
         <v>262</v>
       </c>
       <c r="N232" t="s">
-        <v>300</v>
-      </c>
-      <c r="V232">
-        <v>10</v>
-      </c>
-      <c r="W232">
-        <v>20.846</v>
-      </c>
-      <c r="Z232">
-        <f>83.81/(1.35*1.5)</f>
-        <v>41.38765432098765</v>
-      </c>
-      <c r="AA232">
-        <v>9</v>
-      </c>
-      <c r="AB232">
-        <v>16.172000000000001</v>
-      </c>
-      <c r="AE232">
-        <f>39.139/(1.5*1.35)</f>
-        <v>19.3279012345679</v>
-      </c>
-    </row>
-    <row r="233" spans="1:31" ht="16" x14ac:dyDescent="0.8">
-      <c r="A233" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B233" s="1">
-        <v>2015</v>
-      </c>
-      <c r="C233" t="s">
-        <v>309</v>
-      </c>
-      <c r="D233" t="s">
-        <v>295</v>
-      </c>
-      <c r="E233" t="s">
-        <v>267</v>
-      </c>
-      <c r="G233" t="s">
-        <v>296</v>
-      </c>
-      <c r="H233" t="s">
-        <v>297</v>
-      </c>
-      <c r="J233" t="s">
-        <v>259</v>
-      </c>
-      <c r="K233" t="s">
-        <v>279</v>
-      </c>
-      <c r="L233" t="s">
-        <v>281</v>
-      </c>
-      <c r="M233" t="s">
-        <v>262</v>
-      </c>
-      <c r="N233" t="s">
-        <v>301</v>
-      </c>
-      <c r="V233">
-        <v>10</v>
-      </c>
-      <c r="W233">
-        <v>7.5650000000000004</v>
-      </c>
-      <c r="Z233">
-        <f>18.414/(1.35*1.5)</f>
-        <v>9.0933333333333319</v>
-      </c>
-      <c r="AA233">
-        <v>9</v>
-      </c>
-      <c r="AB233">
-        <v>11.342000000000001</v>
-      </c>
-      <c r="AE233">
-        <f>23.17/(1.5*1.35)</f>
-        <v>11.441975308641974</v>
+        <v>323</v>
+      </c>
+      <c r="O232">
+        <v>44</v>
+      </c>
+      <c r="P232" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q232">
+        <v>-35.130000000000003</v>
+      </c>
+      <c r="Y232">
+        <v>16.28</v>
+      </c>
+    </row>
+    <row r="233" spans="1:31" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A233" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B233" s="7">
+        <v>2017</v>
+      </c>
+      <c r="C233" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="D233" s="8" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="234" spans="1:31" ht="16" x14ac:dyDescent="0.8">
@@ -3774,7 +4313,7 @@
         <v>2015</v>
       </c>
       <c r="C234" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D234" t="s">
         <v>295</v>
@@ -3788,6 +4327,9 @@
       <c r="H234" t="s">
         <v>297</v>
       </c>
+      <c r="I234" t="s">
+        <v>314</v>
+      </c>
       <c r="J234" t="s">
         <v>259</v>
       </c>
@@ -3801,27 +4343,27 @@
         <v>262</v>
       </c>
       <c r="N234" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="V234">
         <v>10</v>
       </c>
       <c r="W234">
-        <v>10.154</v>
+        <v>23.515999999999998</v>
       </c>
       <c r="Z234">
-        <f>0.615/(1.35*1.5)</f>
-        <v>0.30370370370370364</v>
+        <f>39.858/(1.35*1.5)</f>
+        <v>19.682962962962957</v>
       </c>
       <c r="AA234">
         <v>9</v>
       </c>
       <c r="AB234">
-        <v>10.154999999999999</v>
+        <v>1.7330000000000001</v>
       </c>
       <c r="AE234">
-        <f>1.692/(1.5*1.35)</f>
-        <v>0.83555555555555538</v>
+        <f>14.356/(1.5*1.35)</f>
+        <v>7.0893827160493812</v>
       </c>
     </row>
     <row r="235" spans="1:31" ht="16" x14ac:dyDescent="0.8">
@@ -3832,7 +4374,7 @@
         <v>2015</v>
       </c>
       <c r="C235" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D235" t="s">
         <v>295</v>
@@ -3846,6 +4388,9 @@
       <c r="H235" t="s">
         <v>297</v>
       </c>
+      <c r="I235" t="s">
+        <v>314</v>
+      </c>
       <c r="J235" t="s">
         <v>259</v>
       </c>
@@ -3859,27 +4404,27 @@
         <v>262</v>
       </c>
       <c r="N235" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="V235">
         <v>10</v>
       </c>
       <c r="W235">
-        <v>7.1680000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z235">
-        <f>8.924/(1.35*1.5)</f>
-        <v>4.4069135802469122</v>
+        <f>0.5/(1.35*1.5)</f>
+        <v>0.24691358024691354</v>
       </c>
       <c r="AA235">
         <v>9</v>
       </c>
       <c r="AB235">
-        <v>6.0469999999999997</v>
+        <v>0</v>
       </c>
       <c r="AE235">
-        <f>8.144/(1.5*1.35)</f>
-        <v>4.0217283950617277</v>
+        <f>1/(1.5*1.35)</f>
+        <v>0.49382716049382708</v>
       </c>
     </row>
     <row r="236" spans="1:31" ht="16" x14ac:dyDescent="0.8">
@@ -3890,7 +4435,7 @@
         <v>2015</v>
       </c>
       <c r="C236" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D236" t="s">
         <v>295</v>
@@ -3904,6 +4449,9 @@
       <c r="H236" t="s">
         <v>297</v>
       </c>
+      <c r="I236" t="s">
+        <v>314</v>
+      </c>
       <c r="J236" t="s">
         <v>259</v>
       </c>
@@ -3917,27 +4465,27 @@
         <v>262</v>
       </c>
       <c r="N236" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="V236">
         <v>10</v>
       </c>
       <c r="W236">
-        <v>0.78200000000000003</v>
+        <v>20.846</v>
       </c>
       <c r="Z236">
-        <f>1.318/(1.35*1.5)</f>
-        <v>0.65086419753086411</v>
+        <f>83.81/(1.35*1.5)</f>
+        <v>41.38765432098765</v>
       </c>
       <c r="AA236">
         <v>9</v>
       </c>
       <c r="AB236">
-        <v>0.97699999999999998</v>
+        <v>16.172000000000001</v>
       </c>
       <c r="AE236">
-        <f>2.194/(1.5*1.35)</f>
-        <v>1.0834567901234566</v>
+        <f>39.139/(1.5*1.35)</f>
+        <v>19.3279012345679</v>
       </c>
     </row>
     <row r="237" spans="1:31" ht="16" x14ac:dyDescent="0.8">
@@ -3948,7 +4496,7 @@
         <v>2015</v>
       </c>
       <c r="C237" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D237" t="s">
         <v>295</v>
@@ -3962,6 +4510,9 @@
       <c r="H237" t="s">
         <v>297</v>
       </c>
+      <c r="I237" t="s">
+        <v>314</v>
+      </c>
       <c r="J237" t="s">
         <v>259</v>
       </c>
@@ -3975,25 +4526,269 @@
         <v>262</v>
       </c>
       <c r="N237" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="V237">
         <v>10</v>
       </c>
       <c r="W237">
+        <v>7.5650000000000004</v>
+      </c>
+      <c r="Z237">
+        <f>18.414/(1.35*1.5)</f>
+        <v>9.0933333333333319</v>
+      </c>
+      <c r="AA237">
+        <v>9</v>
+      </c>
+      <c r="AB237">
+        <v>11.342000000000001</v>
+      </c>
+      <c r="AE237">
+        <f>23.17/(1.5*1.35)</f>
+        <v>11.441975308641974</v>
+      </c>
+    </row>
+    <row r="238" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="A238" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B238" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C238" t="s">
+        <v>310</v>
+      </c>
+      <c r="D238" t="s">
+        <v>295</v>
+      </c>
+      <c r="E238" t="s">
+        <v>267</v>
+      </c>
+      <c r="G238" t="s">
+        <v>296</v>
+      </c>
+      <c r="H238" t="s">
+        <v>297</v>
+      </c>
+      <c r="I238" t="s">
+        <v>314</v>
+      </c>
+      <c r="J238" t="s">
+        <v>259</v>
+      </c>
+      <c r="K238" t="s">
+        <v>279</v>
+      </c>
+      <c r="L238" t="s">
+        <v>281</v>
+      </c>
+      <c r="M238" t="s">
+        <v>262</v>
+      </c>
+      <c r="N238" t="s">
+        <v>302</v>
+      </c>
+      <c r="V238">
+        <v>10</v>
+      </c>
+      <c r="W238">
+        <v>10.154</v>
+      </c>
+      <c r="Z238">
+        <f>0.615/(1.35*1.5)</f>
+        <v>0.30370370370370364</v>
+      </c>
+      <c r="AA238">
+        <v>9</v>
+      </c>
+      <c r="AB238">
+        <v>10.154999999999999</v>
+      </c>
+      <c r="AE238">
+        <f>1.692/(1.5*1.35)</f>
+        <v>0.83555555555555538</v>
+      </c>
+    </row>
+    <row r="239" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="A239" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B239" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C239" t="s">
+        <v>311</v>
+      </c>
+      <c r="D239" t="s">
+        <v>295</v>
+      </c>
+      <c r="E239" t="s">
+        <v>267</v>
+      </c>
+      <c r="G239" t="s">
+        <v>296</v>
+      </c>
+      <c r="H239" t="s">
+        <v>297</v>
+      </c>
+      <c r="I239" t="s">
+        <v>314</v>
+      </c>
+      <c r="J239" t="s">
+        <v>259</v>
+      </c>
+      <c r="K239" t="s">
+        <v>279</v>
+      </c>
+      <c r="L239" t="s">
+        <v>281</v>
+      </c>
+      <c r="M239" t="s">
+        <v>262</v>
+      </c>
+      <c r="N239" t="s">
+        <v>303</v>
+      </c>
+      <c r="V239">
+        <v>10</v>
+      </c>
+      <c r="W239">
+        <v>7.1680000000000001</v>
+      </c>
+      <c r="Z239">
+        <f>8.924/(1.35*1.5)</f>
+        <v>4.4069135802469122</v>
+      </c>
+      <c r="AA239">
+        <v>9</v>
+      </c>
+      <c r="AB239">
+        <v>6.0469999999999997</v>
+      </c>
+      <c r="AE239">
+        <f>8.144/(1.5*1.35)</f>
+        <v>4.0217283950617277</v>
+      </c>
+    </row>
+    <row r="240" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="A240" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B240" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C240" t="s">
+        <v>312</v>
+      </c>
+      <c r="D240" t="s">
+        <v>295</v>
+      </c>
+      <c r="E240" t="s">
+        <v>267</v>
+      </c>
+      <c r="G240" t="s">
+        <v>296</v>
+      </c>
+      <c r="H240" t="s">
+        <v>297</v>
+      </c>
+      <c r="I240" t="s">
+        <v>314</v>
+      </c>
+      <c r="J240" t="s">
+        <v>259</v>
+      </c>
+      <c r="K240" t="s">
+        <v>279</v>
+      </c>
+      <c r="L240" t="s">
+        <v>281</v>
+      </c>
+      <c r="M240" t="s">
+        <v>262</v>
+      </c>
+      <c r="N240" t="s">
+        <v>304</v>
+      </c>
+      <c r="V240">
+        <v>10</v>
+      </c>
+      <c r="W240">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="Z240">
+        <f>1.318/(1.35*1.5)</f>
+        <v>0.65086419753086411</v>
+      </c>
+      <c r="AA240">
+        <v>9</v>
+      </c>
+      <c r="AB240">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="AE240">
+        <f>2.194/(1.5*1.35)</f>
+        <v>1.0834567901234566</v>
+      </c>
+    </row>
+    <row r="241" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="A241" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B241" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C241" t="s">
+        <v>313</v>
+      </c>
+      <c r="D241" t="s">
+        <v>295</v>
+      </c>
+      <c r="E241" t="s">
+        <v>267</v>
+      </c>
+      <c r="G241" t="s">
+        <v>296</v>
+      </c>
+      <c r="H241" t="s">
+        <v>297</v>
+      </c>
+      <c r="I241" t="s">
+        <v>314</v>
+      </c>
+      <c r="J241" t="s">
+        <v>259</v>
+      </c>
+      <c r="K241" t="s">
+        <v>279</v>
+      </c>
+      <c r="L241" t="s">
+        <v>281</v>
+      </c>
+      <c r="M241" t="s">
+        <v>262</v>
+      </c>
+      <c r="N241" t="s">
+        <v>305</v>
+      </c>
+      <c r="V241">
+        <v>10</v>
+      </c>
+      <c r="W241">
         <v>0.247</v>
       </c>
-      <c r="Z237">
+      <c r="Z241">
         <f>0.431/(1.35*1.5)</f>
         <v>0.21283950617283948</v>
       </c>
-      <c r="AA237">
+      <c r="AA241">
         <v>9</v>
       </c>
-      <c r="AB237">
+      <c r="AB241">
         <v>0.35399999999999998</v>
       </c>
-      <c r="AE237">
+      <c r="AE241">
         <f>1.277/(1.5*1.35)</f>
         <v>0.63061728395061711</v>
       </c>

--- a/Excel Sheets/meta analysis data.xlsx
+++ b/Excel Sheets/meta analysis data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\GitHub\meta-analysis\Excel Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1D1EA1-34AD-43AA-83D6-D09FC1842D20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4D6CE8-5718-4251-A8F5-05EC08B13A5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{9EC5192A-F6BA-4C5C-823C-2BAF9610B730}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="442">
   <si>
     <t>Authors</t>
   </si>
@@ -1143,6 +1143,222 @@
   </si>
   <si>
     <t>bright</t>
+  </si>
+  <si>
+    <t>Walter et al 2009</t>
+  </si>
+  <si>
+    <t>Telmatherina antoniae</t>
+  </si>
+  <si>
+    <t>mixed</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>Vos 1994</t>
+  </si>
+  <si>
+    <t>Taeniopygia guttata</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>Volpato et al 2003</t>
+  </si>
+  <si>
+    <t>Oreochromis niloticus</t>
+  </si>
+  <si>
+    <t>eye</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>Lacerta vivipara</t>
+  </si>
+  <si>
+    <t>ventral</t>
+  </si>
+  <si>
+    <t>scratching time</t>
+  </si>
+  <si>
+    <t>Vercken and Clobert 2008 - 1</t>
+  </si>
+  <si>
+    <t>Vercken and Clobert 2008 - 2</t>
+  </si>
+  <si>
+    <t>bite attempts</t>
+  </si>
+  <si>
+    <t>Vercken and Clobert 2008 - 3</t>
+  </si>
+  <si>
+    <t>flee attempts</t>
+  </si>
+  <si>
+    <t>Vedder et al 2010</t>
+  </si>
+  <si>
+    <t>Cyanistes caeruleus</t>
+  </si>
+  <si>
+    <t>UV reduced</t>
+  </si>
+  <si>
+    <t>UV enhanced</t>
+  </si>
+  <si>
+    <t>VanderWerf and Freed 2003</t>
+  </si>
+  <si>
+    <t>Chasiempis sandwichensis</t>
+  </si>
+  <si>
+    <t>van der Sluijs et al 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pundamilia </t>
+  </si>
+  <si>
+    <t>Turner et al 2003</t>
+  </si>
+  <si>
+    <t>Actinia equina</t>
+  </si>
+  <si>
+    <t>Trnka and Grim 2013</t>
+  </si>
+  <si>
+    <t>Cuculus canorus</t>
+  </si>
+  <si>
+    <t>rufus</t>
+  </si>
+  <si>
+    <t>Titone et al 2018</t>
+  </si>
+  <si>
+    <t>Podarcis siculus</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>Stephenson and Ramirez-Bautista 2012</t>
+  </si>
+  <si>
+    <t>Sceloporus minor</t>
+  </si>
+  <si>
+    <t>dorsal</t>
+  </si>
+  <si>
+    <t>Tinghitella et al 2018 - 1</t>
+  </si>
+  <si>
+    <t>Tinghitella et al 2018 - 2</t>
+  </si>
+  <si>
+    <t>approach, bite, chase</t>
+  </si>
+  <si>
+    <t>Tinghitella et al 2015 - 1</t>
+  </si>
+  <si>
+    <t>Tinghitella et al 2015 - 2</t>
+  </si>
+  <si>
+    <t>number of behaviors</t>
+  </si>
+  <si>
+    <t>Theis et al 2012</t>
+  </si>
+  <si>
+    <t>Astatotilapia burtoni</t>
+  </si>
+  <si>
+    <t>Taylor and Lattanzio 2016</t>
+  </si>
+  <si>
+    <t>Urosaurus ornatus</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>Suter and Huntingford 2002</t>
+  </si>
+  <si>
+    <t>Salmo salar</t>
+  </si>
+  <si>
+    <t>juveniles</t>
+  </si>
+  <si>
+    <t>pale</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>number of acts</t>
+  </si>
+  <si>
+    <t>lab reared</t>
+  </si>
+  <si>
+    <t>Sundberg 1995</t>
+  </si>
+  <si>
+    <t>Emberiza citrinella</t>
+  </si>
+  <si>
+    <t>drab</t>
+  </si>
+  <si>
+    <t>Stutchbury 1992</t>
+  </si>
+  <si>
+    <t>Progne subis</t>
+  </si>
+  <si>
+    <t>Stuczka et al 2016</t>
+  </si>
+  <si>
+    <t>Plethodon cinereus</t>
+  </si>
+  <si>
+    <t>Stuart-Fox and Johnston 2005</t>
+  </si>
+  <si>
+    <t>Stein and Uy 2006</t>
+  </si>
+  <si>
+    <t>Manacus</t>
+  </si>
+  <si>
+    <t>attack rate</t>
+  </si>
+  <si>
+    <t>Stapley 2006</t>
+  </si>
+  <si>
+    <t>Pseudemoia entrecasteauxii</t>
+  </si>
+  <si>
+    <t>interactions</t>
   </si>
 </sst>
 </file>
@@ -1540,22 +1756,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A66D8A-A6D2-47D1-BD63-6DA0AC2C195D}">
-  <dimension ref="A1:AG241"/>
+  <dimension ref="A1:AG245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B200" sqref="B200"/>
+      <selection pane="bottomLeft" activeCell="A189" sqref="A189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="14.36328125" customWidth="1"/>
     <col min="2" max="2" width="15.31640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.31640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.953125" customWidth="1"/>
+    <col min="4" max="4" width="25.40625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.04296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.58984375" customWidth="1"/>
     <col min="15" max="15" width="10.953125" bestFit="1" customWidth="1"/>
@@ -3240,7 +3458,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="177" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A177" s="1" t="s">
         <v>175</v>
       </c>
@@ -3248,7 +3466,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="178" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A178" s="1" t="s">
         <v>176</v>
       </c>
@@ -3256,7 +3474,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="179" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A179" s="4" t="s">
         <v>177</v>
       </c>
@@ -3264,7 +3482,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="180" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A180" s="1" t="s">
         <v>178</v>
       </c>
@@ -3272,7 +3490,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="181" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A181" s="1" t="s">
         <v>179</v>
       </c>
@@ -3280,7 +3498,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="182" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A182" s="1" t="s">
         <v>180</v>
       </c>
@@ -3288,7 +3506,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="183" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A183" s="1" t="s">
         <v>180</v>
       </c>
@@ -3296,7 +3514,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="184" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A184" s="1" t="s">
         <v>181</v>
       </c>
@@ -3304,7 +3522,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="185" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A185" s="1" t="s">
         <v>182</v>
       </c>
@@ -3312,7 +3530,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="186" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A186" s="1" t="s">
         <v>183</v>
       </c>
@@ -3320,7 +3538,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="187" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A187" s="1" t="s">
         <v>184</v>
       </c>
@@ -3328,7 +3546,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="188" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A188" s="1" t="s">
         <v>185</v>
       </c>
@@ -3336,755 +3554,1319 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="189" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A189" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B189" s="1">
         <v>2006</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A190" s="1" t="s">
+      <c r="C189" t="s">
+        <v>439</v>
+      </c>
+      <c r="D189" t="s">
+        <v>440</v>
+      </c>
+      <c r="E189" t="s">
+        <v>267</v>
+      </c>
+      <c r="G189" t="s">
+        <v>287</v>
+      </c>
+      <c r="H189" t="s">
+        <v>383</v>
+      </c>
+      <c r="J189" t="s">
+        <v>259</v>
+      </c>
+      <c r="K189" t="s">
+        <v>279</v>
+      </c>
+      <c r="L189" t="s">
+        <v>261</v>
+      </c>
+      <c r="M189" t="s">
+        <v>262</v>
+      </c>
+      <c r="N189" t="s">
+        <v>441</v>
+      </c>
+      <c r="P189" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q189">
+        <v>22.46</v>
+      </c>
+      <c r="R189">
+        <v>1</v>
+      </c>
+      <c r="S189">
+        <v>31</v>
+      </c>
+      <c r="T189">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A190" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B190" s="1">
+      <c r="B190" s="7">
         <v>2006</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A191" s="1" t="s">
+      <c r="C190" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="D190" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E190" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="G190" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="H190" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="J190" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="K190" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="L190" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="M190" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="N190" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="P190" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q190" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="R190" s="8">
+        <v>1</v>
+      </c>
+      <c r="S190" s="8">
+        <v>28</v>
+      </c>
+      <c r="T190" s="8">
+        <v>0.96899999999999997</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A191" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B191" s="1">
+      <c r="B191" s="7">
         <v>2012</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A192" s="1" t="s">
+      <c r="C191" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="H191" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A192" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B192" s="1">
+      <c r="B192" s="7">
         <v>2005</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A193" s="1" t="s">
+      <c r="C192" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="193" spans="1:31" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A193" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B193" s="1">
+      <c r="B193" s="7">
         <v>2016</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A194" s="1" t="s">
+      <c r="C193" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="194" spans="1:31" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A194" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="B194" s="1">
+      <c r="B194" s="7">
         <v>1992</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+      <c r="C194" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="D194" s="8" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="195" spans="1:31" ht="16" x14ac:dyDescent="0.8">
       <c r="A195" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B195" s="1">
         <v>1995</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+      <c r="C195" t="s">
+        <v>428</v>
+      </c>
+      <c r="D195" t="s">
+        <v>429</v>
+      </c>
+      <c r="E195" t="s">
+        <v>430</v>
+      </c>
+      <c r="G195" t="s">
+        <v>286</v>
+      </c>
+      <c r="H195" t="s">
+        <v>258</v>
+      </c>
+      <c r="J195" t="s">
+        <v>260</v>
+      </c>
+      <c r="K195" t="s">
+        <v>279</v>
+      </c>
+      <c r="L195" t="s">
+        <v>261</v>
+      </c>
+      <c r="M195" t="s">
+        <v>262</v>
+      </c>
+      <c r="N195" t="s">
+        <v>426</v>
+      </c>
+      <c r="P195" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q195">
+        <v>60.9</v>
+      </c>
+      <c r="R195">
+        <v>1</v>
+      </c>
+      <c r="S195">
+        <v>56</v>
+      </c>
+      <c r="T195">
+        <v>1E-3</v>
+      </c>
+      <c r="U195">
+        <v>-0.59</v>
+      </c>
+      <c r="V195">
+        <v>14</v>
+      </c>
+      <c r="W195">
+        <v>2.14</v>
+      </c>
+      <c r="Z195">
+        <v>3.1</v>
+      </c>
+      <c r="AA195">
+        <v>12</v>
+      </c>
+      <c r="AB195">
+        <v>7.5</v>
+      </c>
+      <c r="AE195">
+        <v>6.45</v>
+      </c>
+    </row>
+    <row r="196" spans="1:31" ht="16" x14ac:dyDescent="0.8">
       <c r="A196" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B196" s="1">
         <v>2002</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+      <c r="C196" t="s">
+        <v>420</v>
+      </c>
+      <c r="D196" t="s">
+        <v>421</v>
+      </c>
+      <c r="E196" t="s">
+        <v>423</v>
+      </c>
+      <c r="G196" t="s">
+        <v>381</v>
+      </c>
+      <c r="H196" t="s">
+        <v>379</v>
+      </c>
+      <c r="J196" t="s">
+        <v>422</v>
+      </c>
+      <c r="K196" t="s">
+        <v>260</v>
+      </c>
+      <c r="L196" t="s">
+        <v>427</v>
+      </c>
+      <c r="M196" t="s">
+        <v>424</v>
+      </c>
+      <c r="N196" t="s">
+        <v>426</v>
+      </c>
+      <c r="O196">
+        <v>7</v>
+      </c>
+      <c r="P196" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q196">
+        <v>-2.4500000000000002</v>
+      </c>
+      <c r="T196">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="197" spans="1:31" ht="16" x14ac:dyDescent="0.8">
       <c r="A197" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B197" s="1">
         <v>2016</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A198" s="1" t="s">
+      <c r="C197" t="s">
+        <v>417</v>
+      </c>
+      <c r="D197" t="s">
+        <v>418</v>
+      </c>
+      <c r="E197" t="s">
+        <v>286</v>
+      </c>
+      <c r="G197" t="s">
+        <v>346</v>
+      </c>
+      <c r="H197" t="s">
+        <v>288</v>
+      </c>
+      <c r="J197" t="s">
+        <v>259</v>
+      </c>
+      <c r="K197" t="s">
+        <v>279</v>
+      </c>
+      <c r="L197" t="s">
+        <v>261</v>
+      </c>
+      <c r="M197" t="s">
+        <v>262</v>
+      </c>
+      <c r="N197" t="s">
+        <v>263</v>
+      </c>
+      <c r="O197">
+        <v>76</v>
+      </c>
+      <c r="P197" t="s">
+        <v>419</v>
+      </c>
+      <c r="V197">
+        <v>41</v>
+      </c>
+      <c r="W197">
+        <v>3.6</v>
+      </c>
+      <c r="Y197">
+        <v>0.4</v>
+      </c>
+      <c r="AA197">
+        <v>35</v>
+      </c>
+      <c r="AB197">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AD197">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:31" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A198" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B198" s="1">
+      <c r="B198" s="7">
         <v>2012</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+      <c r="C198" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="199" spans="1:31" ht="16" x14ac:dyDescent="0.8">
       <c r="A199" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B199" s="1">
         <v>2018</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+      <c r="C199" t="s">
+        <v>409</v>
+      </c>
+      <c r="D199" t="s">
+        <v>325</v>
+      </c>
+      <c r="E199" t="s">
+        <v>333</v>
+      </c>
+      <c r="G199" t="s">
+        <v>256</v>
+      </c>
+      <c r="H199" t="s">
+        <v>258</v>
+      </c>
+      <c r="J199" t="s">
+        <v>259</v>
+      </c>
+      <c r="K199" t="s">
+        <v>279</v>
+      </c>
+      <c r="L199" t="s">
+        <v>261</v>
+      </c>
+      <c r="M199" t="s">
+        <v>262</v>
+      </c>
+      <c r="N199" t="s">
+        <v>411</v>
+      </c>
+      <c r="P199" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q199">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="R199">
+        <v>2</v>
+      </c>
+      <c r="T199">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="200" spans="1:31" ht="16" x14ac:dyDescent="0.8">
       <c r="A200" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B200" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C200" t="s">
+        <v>410</v>
+      </c>
+      <c r="D200" t="s">
+        <v>325</v>
+      </c>
+      <c r="E200" t="s">
+        <v>333</v>
+      </c>
+      <c r="G200" t="s">
+        <v>256</v>
+      </c>
+      <c r="H200" t="s">
+        <v>258</v>
+      </c>
+      <c r="J200" t="s">
+        <v>259</v>
+      </c>
+      <c r="K200" t="s">
+        <v>279</v>
+      </c>
+      <c r="L200" t="s">
+        <v>261</v>
+      </c>
+      <c r="M200" t="s">
+        <v>262</v>
+      </c>
+      <c r="N200" t="s">
+        <v>323</v>
+      </c>
+      <c r="P200" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q200">
+        <v>0.46</v>
+      </c>
+      <c r="R200">
+        <v>1</v>
+      </c>
+      <c r="T200">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="A201" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B200" s="1">
+      <c r="B201" s="1">
         <v>2015</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A201" s="1" t="s">
+      <c r="C201" t="s">
+        <v>412</v>
+      </c>
+      <c r="D201" t="s">
+        <v>325</v>
+      </c>
+      <c r="E201" t="s">
+        <v>333</v>
+      </c>
+      <c r="G201" t="s">
+        <v>256</v>
+      </c>
+      <c r="H201" t="s">
+        <v>258</v>
+      </c>
+      <c r="J201" t="s">
+        <v>259</v>
+      </c>
+      <c r="K201" t="s">
+        <v>279</v>
+      </c>
+      <c r="L201" t="s">
+        <v>261</v>
+      </c>
+      <c r="M201" t="s">
+        <v>262</v>
+      </c>
+      <c r="N201" t="s">
+        <v>414</v>
+      </c>
+      <c r="P201" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q201">
+        <v>25.55</v>
+      </c>
+      <c r="R201">
+        <v>1</v>
+      </c>
+      <c r="S201">
+        <v>9.6</v>
+      </c>
+      <c r="T201">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="A202" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B202" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C202" t="s">
+        <v>413</v>
+      </c>
+      <c r="D202" t="s">
+        <v>325</v>
+      </c>
+      <c r="E202" t="s">
+        <v>333</v>
+      </c>
+      <c r="G202" t="s">
+        <v>256</v>
+      </c>
+      <c r="H202" t="s">
+        <v>258</v>
+      </c>
+      <c r="J202" t="s">
+        <v>259</v>
+      </c>
+      <c r="K202" t="s">
+        <v>327</v>
+      </c>
+      <c r="L202" t="s">
+        <v>261</v>
+      </c>
+      <c r="M202" t="s">
+        <v>262</v>
+      </c>
+      <c r="N202" t="s">
+        <v>414</v>
+      </c>
+      <c r="P202" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q202">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="R202">
+        <v>1</v>
+      </c>
+      <c r="S202">
+        <v>4.8</v>
+      </c>
+      <c r="T202">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="A203" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B201" s="1">
+      <c r="B203" s="1">
         <v>2018</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A202" s="1" t="s">
+      <c r="C203" t="s">
+        <v>403</v>
+      </c>
+      <c r="D203" t="s">
+        <v>404</v>
+      </c>
+      <c r="E203" t="s">
+        <v>267</v>
+      </c>
+      <c r="G203" t="s">
+        <v>405</v>
+      </c>
+      <c r="H203" t="s">
+        <v>383</v>
+      </c>
+      <c r="J203" t="s">
+        <v>259</v>
+      </c>
+      <c r="K203" t="s">
+        <v>279</v>
+      </c>
+      <c r="L203" t="s">
+        <v>261</v>
+      </c>
+      <c r="M203" t="s">
+        <v>262</v>
+      </c>
+      <c r="N203" t="s">
+        <v>263</v>
+      </c>
+      <c r="P203" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q203">
+        <v>0.317</v>
+      </c>
+      <c r="R203">
+        <v>1</v>
+      </c>
+      <c r="S203">
+        <v>29</v>
+      </c>
+      <c r="T203">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="204" spans="1:31" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A204" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="B202" s="1">
+      <c r="B204" s="7">
         <v>2013</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A203" s="1" t="s">
+      <c r="C204" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="D204" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="E204" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="G204" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="H204" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="K204" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="205" spans="1:31" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A205" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B203" s="1">
+      <c r="B205" s="7">
         <v>2003</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A204" s="1" t="s">
+      <c r="C205" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D205" s="8" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="206" spans="1:31" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A206" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B204" s="1">
+      <c r="B206" s="7">
         <v>2013</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A205" s="1" t="s">
+      <c r="C206" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="D206" s="8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="207" spans="1:31" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A207" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="B205" s="1">
+      <c r="B207" s="7">
         <v>2003</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A206" s="1" t="s">
+      <c r="C207" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D207" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="208" spans="1:31" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A208" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B206" s="1">
+      <c r="B208" s="7">
         <v>2010</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A207" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B207" s="1">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A208" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B208" s="1">
-        <v>2003</v>
+      <c r="C208" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="D208" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="E208" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="G208" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="H208" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="L208" s="8" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="209" spans="1:33" ht="16" x14ac:dyDescent="0.8">
       <c r="A209" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B209" s="1">
-        <v>1994</v>
+        <v>2008</v>
+      </c>
+      <c r="C209" t="s">
+        <v>385</v>
+      </c>
+      <c r="D209" t="s">
+        <v>382</v>
+      </c>
+      <c r="E209" t="s">
+        <v>287</v>
+      </c>
+      <c r="F209" t="s">
+        <v>372</v>
+      </c>
+      <c r="G209" t="s">
+        <v>286</v>
+      </c>
+      <c r="H209" t="s">
+        <v>383</v>
+      </c>
+      <c r="J209" t="s">
+        <v>259</v>
+      </c>
+      <c r="K209" t="s">
+        <v>327</v>
+      </c>
+      <c r="L209" t="s">
+        <v>261</v>
+      </c>
+      <c r="M209" t="s">
+        <v>262</v>
+      </c>
+      <c r="N209" t="s">
+        <v>384</v>
+      </c>
+      <c r="O209">
+        <v>238</v>
+      </c>
+      <c r="P209" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q209">
+        <v>0.16</v>
+      </c>
+      <c r="R209">
+        <v>1</v>
+      </c>
+      <c r="S209">
+        <v>233</v>
+      </c>
+      <c r="T209">
+        <v>0.68</v>
       </c>
     </row>
     <row r="210" spans="1:33" ht="16" x14ac:dyDescent="0.8">
       <c r="A210" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B210" s="1">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="211" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
-      <c r="A211" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B211" s="7">
-        <v>1992</v>
-      </c>
-      <c r="C211" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="D211" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="E211" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="G211" s="8" t="s">
-        <v>369</v>
+        <v>2008</v>
+      </c>
+      <c r="C210" t="s">
+        <v>386</v>
+      </c>
+      <c r="D210" t="s">
+        <v>382</v>
+      </c>
+      <c r="E210" t="s">
+        <v>287</v>
+      </c>
+      <c r="F210" t="s">
+        <v>372</v>
+      </c>
+      <c r="G210" t="s">
+        <v>286</v>
+      </c>
+      <c r="H210" t="s">
+        <v>383</v>
+      </c>
+      <c r="J210" t="s">
+        <v>259</v>
+      </c>
+      <c r="K210" t="s">
+        <v>327</v>
+      </c>
+      <c r="L210" t="s">
+        <v>261</v>
+      </c>
+      <c r="M210" t="s">
+        <v>262</v>
+      </c>
+      <c r="N210" t="s">
+        <v>387</v>
+      </c>
+      <c r="O210">
+        <v>238</v>
+      </c>
+      <c r="P210" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q210">
+        <v>3.95</v>
+      </c>
+      <c r="R210">
+        <v>2</v>
+      </c>
+      <c r="T210">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:33" ht="16" x14ac:dyDescent="0.8">
+      <c r="A211" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B211" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C211" t="s">
+        <v>388</v>
+      </c>
+      <c r="D211" t="s">
+        <v>382</v>
+      </c>
+      <c r="E211" t="s">
+        <v>287</v>
+      </c>
+      <c r="F211" t="s">
+        <v>372</v>
+      </c>
+      <c r="G211" t="s">
+        <v>286</v>
+      </c>
+      <c r="H211" t="s">
+        <v>383</v>
+      </c>
+      <c r="J211" t="s">
+        <v>259</v>
+      </c>
+      <c r="K211" t="s">
+        <v>327</v>
+      </c>
+      <c r="L211" t="s">
+        <v>261</v>
+      </c>
+      <c r="M211" t="s">
+        <v>262</v>
+      </c>
+      <c r="N211" t="s">
+        <v>389</v>
+      </c>
+      <c r="O211">
+        <v>231</v>
+      </c>
+      <c r="P211" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q211">
+        <v>16.18</v>
+      </c>
+      <c r="R211">
+        <v>1</v>
+      </c>
+      <c r="T211">
+        <v>1E-4</v>
       </c>
     </row>
     <row r="212" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
       <c r="A212" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B212" s="7">
-        <v>2015</v>
+        <v>2003</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>365</v>
+        <v>378</v>
+      </c>
+      <c r="E212" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="G212" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="H212" s="8" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="213" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
       <c r="A213" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B213" s="7">
-        <v>2018</v>
+        <v>1994</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>363</v>
+        <v>375</v>
+      </c>
+      <c r="E213" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="G213" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="H213" s="8" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="214" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
       <c r="A214" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B214" s="7">
-        <v>1999</v>
+        <v>2009</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>355</v>
+        <v>371</v>
+      </c>
+      <c r="E214" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F214" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="G214" s="8" t="s">
+        <v>286</v>
       </c>
       <c r="H214" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="J214" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="K214" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="L214" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="M214" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="N214" s="8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="215" spans="1:33" ht="16" x14ac:dyDescent="0.8">
-      <c r="A215" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B215" s="1">
-        <v>2006</v>
-      </c>
-      <c r="C215" t="s">
-        <v>353</v>
-      </c>
-      <c r="D215" t="s">
-        <v>355</v>
-      </c>
-      <c r="E215" t="s">
-        <v>356</v>
-      </c>
-      <c r="G215" t="s">
-        <v>357</v>
-      </c>
-      <c r="H215" t="s">
-        <v>288</v>
-      </c>
-      <c r="J215" t="s">
-        <v>259</v>
-      </c>
-      <c r="K215" t="s">
-        <v>279</v>
-      </c>
-      <c r="L215" t="s">
-        <v>281</v>
-      </c>
-      <c r="M215" t="s">
-        <v>262</v>
-      </c>
-      <c r="N215" t="s">
-        <v>358</v>
-      </c>
-      <c r="O215">
-        <v>72</v>
-      </c>
-      <c r="P215" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q215">
-        <v>0.34</v>
-      </c>
-      <c r="T215">
-        <v>2E-3</v>
-      </c>
-      <c r="Y215">
-        <v>0.11</v>
-      </c>
-      <c r="AF215">
-        <v>0.8</v>
-      </c>
-      <c r="AG215" t="s">
-        <v>359</v>
+        <v>258</v>
+      </c>
+      <c r="I214" s="8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="215" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A215" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B215" s="7">
+        <v>1992</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D215" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="E215" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="G215" s="8" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="216" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
       <c r="A216" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B216" s="7">
         <v>2015</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
     </row>
     <row r="217" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
       <c r="A217" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B217" s="7">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="D217" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="218" spans="1:33" ht="16" x14ac:dyDescent="0.8">
-      <c r="A218" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B218" s="1">
-        <v>2012</v>
-      </c>
-      <c r="C218" t="s">
-        <v>349</v>
-      </c>
-      <c r="D218" t="s">
-        <v>350</v>
-      </c>
-      <c r="E218" t="s">
-        <v>333</v>
-      </c>
-      <c r="G218" t="s">
-        <v>256</v>
-      </c>
-      <c r="H218" t="s">
-        <v>297</v>
-      </c>
-      <c r="I218" t="s">
-        <v>269</v>
-      </c>
-      <c r="J218" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="218" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A218" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B218" s="7">
+        <v>1999</v>
+      </c>
+      <c r="C218" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="D218" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="H218" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="J218" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="K218" t="s">
-        <v>260</v>
-      </c>
-      <c r="L218" t="s">
-        <v>261</v>
-      </c>
-      <c r="M218" t="s">
+      <c r="K218" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="L218" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="M218" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="N218" t="s">
+      <c r="N218" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="O218">
-        <v>40</v>
-      </c>
-      <c r="V218">
-        <v>20</v>
-      </c>
-      <c r="W218">
-        <v>2.1030000000000002</v>
-      </c>
-      <c r="Y218">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="AA218">
-        <v>20</v>
-      </c>
-      <c r="AB218">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="AD218">
-        <v>0.222</v>
-      </c>
-    </row>
-    <row r="219" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
-      <c r="A219" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="B219" s="7">
-        <v>2001</v>
-      </c>
-      <c r="C219" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="D219" s="8" t="s">
+    </row>
+    <row r="219" spans="1:33" ht="16" x14ac:dyDescent="0.8">
+      <c r="A219" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B219" s="1">
+        <v>2006</v>
+      </c>
+      <c r="C219" t="s">
+        <v>353</v>
+      </c>
+      <c r="D219" t="s">
+        <v>355</v>
+      </c>
+      <c r="E219" t="s">
+        <v>356</v>
+      </c>
+      <c r="G219" t="s">
+        <v>357</v>
+      </c>
+      <c r="H219" t="s">
+        <v>288</v>
+      </c>
+      <c r="J219" t="s">
+        <v>259</v>
+      </c>
+      <c r="K219" t="s">
+        <v>279</v>
+      </c>
+      <c r="L219" t="s">
+        <v>281</v>
+      </c>
+      <c r="M219" t="s">
+        <v>262</v>
+      </c>
+      <c r="N219" t="s">
+        <v>358</v>
+      </c>
+      <c r="O219">
+        <v>72</v>
+      </c>
+      <c r="P219" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q219">
+        <v>0.34</v>
+      </c>
+      <c r="T219">
+        <v>2E-3</v>
+      </c>
+      <c r="Y219">
+        <v>0.11</v>
+      </c>
+      <c r="AF219">
+        <v>0.8</v>
+      </c>
+      <c r="AG219" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="220" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A220" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B220" s="7">
+        <v>2015</v>
+      </c>
+      <c r="C220" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D220" s="8" t="s">
         <v>348</v>
-      </c>
-    </row>
-    <row r="220" spans="1:33" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.8">
-      <c r="A220" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="B220" s="9">
-        <v>2018</v>
-      </c>
-      <c r="C220" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="D220" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="E220" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="G220" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="H220" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="J220" s="10" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="221" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
       <c r="A221" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B221" s="7">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="222" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
-      <c r="A222" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="B222" s="7">
-        <v>2009</v>
-      </c>
-      <c r="C222" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="D222" s="8" t="s">
-        <v>342</v>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="222" spans="1:33" ht="16" x14ac:dyDescent="0.8">
+      <c r="A222" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B222" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C222" t="s">
+        <v>349</v>
+      </c>
+      <c r="D222" t="s">
+        <v>350</v>
+      </c>
+      <c r="E222" t="s">
+        <v>333</v>
+      </c>
+      <c r="G222" t="s">
+        <v>256</v>
+      </c>
+      <c r="H222" t="s">
+        <v>297</v>
+      </c>
+      <c r="I222" t="s">
+        <v>269</v>
+      </c>
+      <c r="J222" t="s">
+        <v>259</v>
+      </c>
+      <c r="K222" t="s">
+        <v>260</v>
+      </c>
+      <c r="L222" t="s">
+        <v>261</v>
+      </c>
+      <c r="M222" t="s">
+        <v>262</v>
+      </c>
+      <c r="N222" t="s">
+        <v>263</v>
+      </c>
+      <c r="O222">
+        <v>40</v>
+      </c>
+      <c r="P222" t="s">
+        <v>419</v>
+      </c>
+      <c r="V222">
+        <v>20</v>
+      </c>
+      <c r="W222">
+        <v>2.1030000000000002</v>
+      </c>
+      <c r="Y222">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="AA222">
+        <v>20</v>
+      </c>
+      <c r="AB222">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="AD222">
+        <v>0.222</v>
       </c>
     </row>
     <row r="223" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
       <c r="A223" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B223" s="7">
+        <v>2001</v>
+      </c>
+      <c r="C223" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D223" s="8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="224" spans="1:33" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A224" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B224" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C224" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="D224" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="E224" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="G224" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="H224" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="J224" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="225" spans="1:31" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A225" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B225" s="7">
+        <v>2019</v>
+      </c>
+      <c r="C225" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="D225" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="226" spans="1:31" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A226" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B226" s="7">
+        <v>2009</v>
+      </c>
+      <c r="C226" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D226" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="227" spans="1:31" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A227" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="B223" s="7">
+      <c r="B227" s="7">
         <v>2009</v>
       </c>
-      <c r="C223" s="8" t="s">
+      <c r="C227" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="D223" s="8" t="s">
+      <c r="D227" s="8" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="224" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
-      <c r="A224" s="7" t="s">
+    <row r="228" spans="1:31" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A228" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="B224" s="7">
+      <c r="B228" s="7">
         <v>2017</v>
       </c>
-      <c r="C224" s="8" t="s">
+      <c r="C228" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="D224" s="8" t="s">
+      <c r="D228" s="8" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="225" spans="1:31" ht="16" x14ac:dyDescent="0.8">
-      <c r="A225" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B225" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C225" t="s">
-        <v>283</v>
-      </c>
-      <c r="D225" t="s">
-        <v>284</v>
-      </c>
-      <c r="E225" t="s">
-        <v>285</v>
-      </c>
-      <c r="F225" t="s">
-        <v>286</v>
-      </c>
-      <c r="G225" t="s">
-        <v>287</v>
-      </c>
-      <c r="H225" t="s">
-        <v>288</v>
-      </c>
-      <c r="I225" t="s">
-        <v>269</v>
-      </c>
-      <c r="J225" t="s">
-        <v>259</v>
-      </c>
-      <c r="K225" t="s">
-        <v>279</v>
-      </c>
-      <c r="L225" t="s">
-        <v>281</v>
-      </c>
-      <c r="M225" t="s">
-        <v>262</v>
-      </c>
-      <c r="N225" t="s">
-        <v>263</v>
-      </c>
-      <c r="O225">
-        <v>34</v>
-      </c>
-      <c r="P225" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q225">
-        <v>2.94</v>
-      </c>
-      <c r="R225">
-        <v>3</v>
-      </c>
-      <c r="S225">
-        <v>28.5</v>
-      </c>
-      <c r="T225">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="226" spans="1:31" ht="16" x14ac:dyDescent="0.8">
-      <c r="A226" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B226" s="1">
-        <v>2015</v>
-      </c>
-      <c r="C226" t="s">
-        <v>334</v>
-      </c>
-      <c r="D226" t="s">
-        <v>325</v>
-      </c>
-      <c r="E226" t="s">
-        <v>332</v>
-      </c>
-      <c r="G226" t="s">
-        <v>333</v>
-      </c>
-      <c r="H226" t="s">
-        <v>288</v>
-      </c>
-      <c r="I226" t="s">
-        <v>269</v>
-      </c>
-      <c r="J226" t="s">
-        <v>259</v>
-      </c>
-      <c r="K226" t="s">
-        <v>327</v>
-      </c>
-      <c r="L226" t="s">
-        <v>261</v>
-      </c>
-      <c r="M226" t="s">
-        <v>326</v>
-      </c>
-      <c r="N226" t="s">
-        <v>328</v>
-      </c>
-      <c r="P226" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q226">
-        <v>0.25</v>
-      </c>
-      <c r="R226">
-        <v>1</v>
-      </c>
-      <c r="S226">
-        <v>39</v>
-      </c>
-      <c r="T226" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="227" spans="1:31" ht="16" x14ac:dyDescent="0.8">
-      <c r="A227" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B227" s="1">
-        <v>2015</v>
-      </c>
-      <c r="C227" t="s">
-        <v>335</v>
-      </c>
-      <c r="D227" t="s">
-        <v>325</v>
-      </c>
-      <c r="E227" t="s">
-        <v>332</v>
-      </c>
-      <c r="G227" t="s">
-        <v>333</v>
-      </c>
-      <c r="H227" t="s">
-        <v>288</v>
-      </c>
-      <c r="I227" t="s">
-        <v>269</v>
-      </c>
-      <c r="J227" t="s">
-        <v>259</v>
-      </c>
-      <c r="K227" t="s">
-        <v>327</v>
-      </c>
-      <c r="L227" t="s">
-        <v>261</v>
-      </c>
-      <c r="M227" t="s">
-        <v>326</v>
-      </c>
-      <c r="N227" t="s">
-        <v>337</v>
-      </c>
-      <c r="P227" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q227">
-        <v>1.46</v>
-      </c>
-      <c r="R227">
-        <v>1</v>
-      </c>
-      <c r="S227">
-        <v>39</v>
-      </c>
-      <c r="T227" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="228" spans="1:31" ht="16" x14ac:dyDescent="0.8">
-      <c r="A228" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B228" s="1">
-        <v>2015</v>
-      </c>
-      <c r="C228" t="s">
-        <v>336</v>
-      </c>
-      <c r="D228" t="s">
-        <v>325</v>
-      </c>
-      <c r="E228" t="s">
-        <v>332</v>
-      </c>
-      <c r="G228" t="s">
-        <v>333</v>
-      </c>
-      <c r="H228" t="s">
-        <v>288</v>
-      </c>
-      <c r="I228" t="s">
-        <v>269</v>
-      </c>
-      <c r="J228" t="s">
-        <v>259</v>
-      </c>
-      <c r="K228" t="s">
-        <v>327</v>
-      </c>
-      <c r="L228" t="s">
-        <v>261</v>
-      </c>
-      <c r="M228" t="s">
-        <v>326</v>
-      </c>
-      <c r="N228" t="s">
-        <v>338</v>
-      </c>
-      <c r="P228" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q228">
-        <v>0.02</v>
-      </c>
-      <c r="R228">
-        <v>1</v>
-      </c>
-      <c r="S228">
-        <v>39</v>
-      </c>
-      <c r="T228" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="229" spans="1:31" ht="16" x14ac:dyDescent="0.8">
       <c r="A229" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B229" s="1">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C229" t="s">
-        <v>329</v>
+        <v>283</v>
       </c>
       <c r="D229" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="E229" t="s">
-        <v>321</v>
+        <v>285</v>
+      </c>
+      <c r="F229" t="s">
+        <v>286</v>
       </c>
       <c r="G229" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="H229" t="s">
         <v>288</v>
@@ -4096,57 +4878,57 @@
         <v>259</v>
       </c>
       <c r="K229" t="s">
-        <v>327</v>
+        <v>279</v>
       </c>
       <c r="L229" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="M229" t="s">
-        <v>326</v>
+        <v>262</v>
       </c>
       <c r="N229" t="s">
-        <v>328</v>
+        <v>263</v>
       </c>
       <c r="O229">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="P229" t="s">
         <v>271</v>
       </c>
       <c r="Q229">
-        <v>0.127</v>
+        <v>2.94</v>
       </c>
       <c r="R229">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S229">
-        <v>38</v>
+        <v>28.5</v>
       </c>
       <c r="T229">
-        <v>0.127</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="230" spans="1:31" ht="16" x14ac:dyDescent="0.8">
       <c r="A230" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B230" s="1">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="C230" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D230" t="s">
         <v>325</v>
       </c>
       <c r="E230" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="G230" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="H230" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="I230" t="s">
         <v>269</v>
@@ -4166,46 +4948,43 @@
       <c r="N230" t="s">
         <v>328</v>
       </c>
-      <c r="O230">
-        <v>43</v>
-      </c>
       <c r="P230" t="s">
         <v>271</v>
       </c>
       <c r="Q230">
-        <v>3.9E-2</v>
+        <v>0.25</v>
       </c>
       <c r="R230">
         <v>1</v>
       </c>
       <c r="S230">
-        <v>38</v>
-      </c>
-      <c r="T230">
-        <v>0.84</v>
+        <v>39</v>
+      </c>
+      <c r="T230" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="231" spans="1:31" ht="16" x14ac:dyDescent="0.8">
       <c r="A231" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B231" s="1">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C231" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="D231" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="E231" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="G231" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="H231" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="I231" t="s">
         <v>269</v>
@@ -4214,182 +4993,231 @@
         <v>259</v>
       </c>
       <c r="K231" t="s">
-        <v>279</v>
+        <v>327</v>
       </c>
       <c r="L231" t="s">
         <v>261</v>
       </c>
       <c r="M231" t="s">
-        <v>262</v>
+        <v>326</v>
       </c>
       <c r="N231" t="s">
-        <v>323</v>
-      </c>
-      <c r="O231">
-        <v>44</v>
+        <v>337</v>
       </c>
       <c r="P231" t="s">
-        <v>324</v>
+        <v>271</v>
       </c>
       <c r="Q231">
-        <v>82.51</v>
-      </c>
-      <c r="Y231">
-        <v>35.15</v>
+        <v>1.46</v>
+      </c>
+      <c r="R231">
+        <v>1</v>
+      </c>
+      <c r="S231">
+        <v>39</v>
+      </c>
+      <c r="T231" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="232" spans="1:31" ht="16" x14ac:dyDescent="0.8">
       <c r="A232" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B232" s="1">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C232" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="D232" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="E232" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="G232" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="H232" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I232" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="J232" t="s">
         <v>259</v>
       </c>
       <c r="K232" t="s">
-        <v>279</v>
+        <v>327</v>
       </c>
       <c r="L232" t="s">
         <v>261</v>
       </c>
       <c r="M232" t="s">
-        <v>262</v>
+        <v>326</v>
       </c>
       <c r="N232" t="s">
-        <v>323</v>
-      </c>
-      <c r="O232">
-        <v>44</v>
+        <v>338</v>
       </c>
       <c r="P232" t="s">
-        <v>324</v>
+        <v>271</v>
       </c>
       <c r="Q232">
-        <v>-35.130000000000003</v>
-      </c>
-      <c r="Y232">
-        <v>16.28</v>
-      </c>
-    </row>
-    <row r="233" spans="1:31" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
-      <c r="A233" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="B233" s="7">
-        <v>2017</v>
-      </c>
-      <c r="C233" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="D233" s="8" t="s">
-        <v>316</v>
+        <v>0.02</v>
+      </c>
+      <c r="R232">
+        <v>1</v>
+      </c>
+      <c r="S232">
+        <v>39</v>
+      </c>
+      <c r="T232" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="233" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="A233" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B233" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C233" t="s">
+        <v>329</v>
+      </c>
+      <c r="D233" t="s">
+        <v>325</v>
+      </c>
+      <c r="E233" t="s">
+        <v>321</v>
+      </c>
+      <c r="G233" t="s">
+        <v>322</v>
+      </c>
+      <c r="H233" t="s">
+        <v>288</v>
+      </c>
+      <c r="I233" t="s">
+        <v>269</v>
+      </c>
+      <c r="J233" t="s">
+        <v>259</v>
+      </c>
+      <c r="K233" t="s">
+        <v>327</v>
+      </c>
+      <c r="L233" t="s">
+        <v>261</v>
+      </c>
+      <c r="M233" t="s">
+        <v>326</v>
+      </c>
+      <c r="N233" t="s">
+        <v>328</v>
+      </c>
+      <c r="O233">
+        <v>43</v>
+      </c>
+      <c r="P233" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q233">
+        <v>0.127</v>
+      </c>
+      <c r="R233">
+        <v>1</v>
+      </c>
+      <c r="S233">
+        <v>38</v>
+      </c>
+      <c r="T233">
+        <v>0.127</v>
       </c>
     </row>
     <row r="234" spans="1:31" ht="16" x14ac:dyDescent="0.8">
       <c r="A234" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B234" s="1">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="C234" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="D234" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="E234" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="G234" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="H234" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="I234" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="J234" t="s">
         <v>259</v>
       </c>
       <c r="K234" t="s">
-        <v>279</v>
+        <v>327</v>
       </c>
       <c r="L234" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="M234" t="s">
-        <v>262</v>
+        <v>326</v>
       </c>
       <c r="N234" t="s">
-        <v>298</v>
-      </c>
-      <c r="V234">
-        <v>10</v>
-      </c>
-      <c r="W234">
-        <v>23.515999999999998</v>
-      </c>
-      <c r="Z234">
-        <f>39.858/(1.35*1.5)</f>
-        <v>19.682962962962957</v>
-      </c>
-      <c r="AA234">
-        <v>9</v>
-      </c>
-      <c r="AB234">
-        <v>1.7330000000000001</v>
-      </c>
-      <c r="AE234">
-        <f>14.356/(1.5*1.35)</f>
-        <v>7.0893827160493812</v>
+        <v>328</v>
+      </c>
+      <c r="O234">
+        <v>43</v>
+      </c>
+      <c r="P234" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q234">
+        <v>3.9E-2</v>
+      </c>
+      <c r="R234">
+        <v>1</v>
+      </c>
+      <c r="S234">
+        <v>38</v>
+      </c>
+      <c r="T234">
+        <v>0.84</v>
       </c>
     </row>
     <row r="235" spans="1:31" ht="16" x14ac:dyDescent="0.8">
       <c r="A235" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B235" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C235" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="D235" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="E235" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="G235" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="H235" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="I235" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="J235" t="s">
         <v>259</v>
@@ -4398,56 +5226,48 @@
         <v>279</v>
       </c>
       <c r="L235" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="M235" t="s">
         <v>262</v>
       </c>
       <c r="N235" t="s">
-        <v>299</v>
-      </c>
-      <c r="V235">
-        <v>10</v>
-      </c>
-      <c r="W235">
-        <v>0</v>
-      </c>
-      <c r="Z235">
-        <f>0.5/(1.35*1.5)</f>
-        <v>0.24691358024691354</v>
-      </c>
-      <c r="AA235">
-        <v>9</v>
-      </c>
-      <c r="AB235">
-        <v>0</v>
-      </c>
-      <c r="AE235">
-        <f>1/(1.5*1.35)</f>
-        <v>0.49382716049382708</v>
+        <v>323</v>
+      </c>
+      <c r="O235">
+        <v>44</v>
+      </c>
+      <c r="P235" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q235">
+        <v>82.51</v>
+      </c>
+      <c r="Y235">
+        <v>35.15</v>
       </c>
     </row>
     <row r="236" spans="1:31" ht="16" x14ac:dyDescent="0.8">
       <c r="A236" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B236" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C236" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="D236" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="E236" t="s">
-        <v>267</v>
+        <v>319</v>
       </c>
       <c r="G236" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="H236" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="I236" t="s">
         <v>314</v>
@@ -4459,94 +5279,39 @@
         <v>279</v>
       </c>
       <c r="L236" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="M236" t="s">
         <v>262</v>
       </c>
       <c r="N236" t="s">
-        <v>300</v>
-      </c>
-      <c r="V236">
-        <v>10</v>
-      </c>
-      <c r="W236">
-        <v>20.846</v>
-      </c>
-      <c r="Z236">
-        <f>83.81/(1.35*1.5)</f>
-        <v>41.38765432098765</v>
-      </c>
-      <c r="AA236">
-        <v>9</v>
-      </c>
-      <c r="AB236">
-        <v>16.172000000000001</v>
-      </c>
-      <c r="AE236">
-        <f>39.139/(1.5*1.35)</f>
-        <v>19.3279012345679</v>
-      </c>
-    </row>
-    <row r="237" spans="1:31" ht="16" x14ac:dyDescent="0.8">
-      <c r="A237" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B237" s="1">
-        <v>2015</v>
-      </c>
-      <c r="C237" t="s">
-        <v>309</v>
-      </c>
-      <c r="D237" t="s">
-        <v>295</v>
-      </c>
-      <c r="E237" t="s">
-        <v>267</v>
-      </c>
-      <c r="G237" t="s">
-        <v>296</v>
-      </c>
-      <c r="H237" t="s">
-        <v>297</v>
-      </c>
-      <c r="I237" t="s">
-        <v>314</v>
-      </c>
-      <c r="J237" t="s">
-        <v>259</v>
-      </c>
-      <c r="K237" t="s">
-        <v>279</v>
-      </c>
-      <c r="L237" t="s">
-        <v>281</v>
-      </c>
-      <c r="M237" t="s">
-        <v>262</v>
-      </c>
-      <c r="N237" t="s">
-        <v>301</v>
-      </c>
-      <c r="V237">
-        <v>10</v>
-      </c>
-      <c r="W237">
-        <v>7.5650000000000004</v>
-      </c>
-      <c r="Z237">
-        <f>18.414/(1.35*1.5)</f>
-        <v>9.0933333333333319</v>
-      </c>
-      <c r="AA237">
-        <v>9</v>
-      </c>
-      <c r="AB237">
-        <v>11.342000000000001</v>
-      </c>
-      <c r="AE237">
-        <f>23.17/(1.5*1.35)</f>
-        <v>11.441975308641974</v>
+        <v>323</v>
+      </c>
+      <c r="O236">
+        <v>44</v>
+      </c>
+      <c r="P236" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q236">
+        <v>-35.130000000000003</v>
+      </c>
+      <c r="Y236">
+        <v>16.28</v>
+      </c>
+    </row>
+    <row r="237" spans="1:31" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A237" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B237" s="7">
+        <v>2017</v>
+      </c>
+      <c r="C237" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="D237" s="8" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="238" spans="1:31" ht="16" x14ac:dyDescent="0.8">
@@ -4557,7 +5322,7 @@
         <v>2015</v>
       </c>
       <c r="C238" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D238" t="s">
         <v>295</v>
@@ -4587,27 +5352,30 @@
         <v>262</v>
       </c>
       <c r="N238" t="s">
-        <v>302</v>
+        <v>298</v>
+      </c>
+      <c r="P238" t="s">
+        <v>419</v>
       </c>
       <c r="V238">
         <v>10</v>
       </c>
       <c r="W238">
-        <v>10.154</v>
+        <v>23.515999999999998</v>
       </c>
       <c r="Z238">
-        <f>0.615/(1.35*1.5)</f>
-        <v>0.30370370370370364</v>
+        <f>39.858/(1.35*1.5)</f>
+        <v>19.682962962962957</v>
       </c>
       <c r="AA238">
         <v>9</v>
       </c>
       <c r="AB238">
-        <v>10.154999999999999</v>
+        <v>1.7330000000000001</v>
       </c>
       <c r="AE238">
-        <f>1.692/(1.5*1.35)</f>
-        <v>0.83555555555555538</v>
+        <f>14.356/(1.5*1.35)</f>
+        <v>7.0893827160493812</v>
       </c>
     </row>
     <row r="239" spans="1:31" ht="16" x14ac:dyDescent="0.8">
@@ -4618,7 +5386,7 @@
         <v>2015</v>
       </c>
       <c r="C239" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D239" t="s">
         <v>295</v>
@@ -4648,27 +5416,30 @@
         <v>262</v>
       </c>
       <c r="N239" t="s">
-        <v>303</v>
+        <v>299</v>
+      </c>
+      <c r="P239" t="s">
+        <v>419</v>
       </c>
       <c r="V239">
         <v>10</v>
       </c>
       <c r="W239">
-        <v>7.1680000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z239">
-        <f>8.924/(1.35*1.5)</f>
-        <v>4.4069135802469122</v>
+        <f>0.5/(1.35*1.5)</f>
+        <v>0.24691358024691354</v>
       </c>
       <c r="AA239">
         <v>9</v>
       </c>
       <c r="AB239">
-        <v>6.0469999999999997</v>
+        <v>0</v>
       </c>
       <c r="AE239">
-        <f>8.144/(1.5*1.35)</f>
-        <v>4.0217283950617277</v>
+        <f>1/(1.5*1.35)</f>
+        <v>0.49382716049382708</v>
       </c>
     </row>
     <row r="240" spans="1:31" ht="16" x14ac:dyDescent="0.8">
@@ -4679,7 +5450,7 @@
         <v>2015</v>
       </c>
       <c r="C240" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D240" t="s">
         <v>295</v>
@@ -4709,27 +5480,30 @@
         <v>262</v>
       </c>
       <c r="N240" t="s">
-        <v>304</v>
+        <v>300</v>
+      </c>
+      <c r="P240" t="s">
+        <v>419</v>
       </c>
       <c r="V240">
         <v>10</v>
       </c>
       <c r="W240">
-        <v>0.78200000000000003</v>
+        <v>20.846</v>
       </c>
       <c r="Z240">
-        <f>1.318/(1.35*1.5)</f>
-        <v>0.65086419753086411</v>
+        <f>83.81/(1.35*1.5)</f>
+        <v>41.38765432098765</v>
       </c>
       <c r="AA240">
         <v>9</v>
       </c>
       <c r="AB240">
-        <v>0.97699999999999998</v>
+        <v>16.172000000000001</v>
       </c>
       <c r="AE240">
-        <f>2.194/(1.5*1.35)</f>
-        <v>1.0834567901234566</v>
+        <f>39.139/(1.5*1.35)</f>
+        <v>19.3279012345679</v>
       </c>
     </row>
     <row r="241" spans="1:31" ht="16" x14ac:dyDescent="0.8">
@@ -4740,7 +5514,7 @@
         <v>2015</v>
       </c>
       <c r="C241" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D241" t="s">
         <v>295</v>
@@ -4770,25 +5544,284 @@
         <v>262</v>
       </c>
       <c r="N241" t="s">
-        <v>305</v>
+        <v>301</v>
+      </c>
+      <c r="P241" t="s">
+        <v>419</v>
       </c>
       <c r="V241">
         <v>10</v>
       </c>
       <c r="W241">
+        <v>7.5650000000000004</v>
+      </c>
+      <c r="Z241">
+        <f>18.414/(1.35*1.5)</f>
+        <v>9.0933333333333319</v>
+      </c>
+      <c r="AA241">
+        <v>9</v>
+      </c>
+      <c r="AB241">
+        <v>11.342000000000001</v>
+      </c>
+      <c r="AE241">
+        <f>23.17/(1.5*1.35)</f>
+        <v>11.441975308641974</v>
+      </c>
+    </row>
+    <row r="242" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="A242" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B242" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C242" t="s">
+        <v>310</v>
+      </c>
+      <c r="D242" t="s">
+        <v>295</v>
+      </c>
+      <c r="E242" t="s">
+        <v>267</v>
+      </c>
+      <c r="G242" t="s">
+        <v>296</v>
+      </c>
+      <c r="H242" t="s">
+        <v>297</v>
+      </c>
+      <c r="I242" t="s">
+        <v>314</v>
+      </c>
+      <c r="J242" t="s">
+        <v>259</v>
+      </c>
+      <c r="K242" t="s">
+        <v>279</v>
+      </c>
+      <c r="L242" t="s">
+        <v>281</v>
+      </c>
+      <c r="M242" t="s">
+        <v>262</v>
+      </c>
+      <c r="N242" t="s">
+        <v>302</v>
+      </c>
+      <c r="P242" t="s">
+        <v>419</v>
+      </c>
+      <c r="V242">
+        <v>10</v>
+      </c>
+      <c r="W242">
+        <v>10.154</v>
+      </c>
+      <c r="Z242">
+        <f>0.615/(1.35*1.5)</f>
+        <v>0.30370370370370364</v>
+      </c>
+      <c r="AA242">
+        <v>9</v>
+      </c>
+      <c r="AB242">
+        <v>10.154999999999999</v>
+      </c>
+      <c r="AE242">
+        <f>1.692/(1.5*1.35)</f>
+        <v>0.83555555555555538</v>
+      </c>
+    </row>
+    <row r="243" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="A243" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B243" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C243" t="s">
+        <v>311</v>
+      </c>
+      <c r="D243" t="s">
+        <v>295</v>
+      </c>
+      <c r="E243" t="s">
+        <v>267</v>
+      </c>
+      <c r="G243" t="s">
+        <v>296</v>
+      </c>
+      <c r="H243" t="s">
+        <v>297</v>
+      </c>
+      <c r="I243" t="s">
+        <v>314</v>
+      </c>
+      <c r="J243" t="s">
+        <v>259</v>
+      </c>
+      <c r="K243" t="s">
+        <v>279</v>
+      </c>
+      <c r="L243" t="s">
+        <v>281</v>
+      </c>
+      <c r="M243" t="s">
+        <v>262</v>
+      </c>
+      <c r="N243" t="s">
+        <v>303</v>
+      </c>
+      <c r="P243" t="s">
+        <v>419</v>
+      </c>
+      <c r="V243">
+        <v>10</v>
+      </c>
+      <c r="W243">
+        <v>7.1680000000000001</v>
+      </c>
+      <c r="Z243">
+        <f>8.924/(1.35*1.5)</f>
+        <v>4.4069135802469122</v>
+      </c>
+      <c r="AA243">
+        <v>9</v>
+      </c>
+      <c r="AB243">
+        <v>6.0469999999999997</v>
+      </c>
+      <c r="AE243">
+        <f>8.144/(1.5*1.35)</f>
+        <v>4.0217283950617277</v>
+      </c>
+    </row>
+    <row r="244" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="A244" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B244" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C244" t="s">
+        <v>312</v>
+      </c>
+      <c r="D244" t="s">
+        <v>295</v>
+      </c>
+      <c r="E244" t="s">
+        <v>267</v>
+      </c>
+      <c r="G244" t="s">
+        <v>296</v>
+      </c>
+      <c r="H244" t="s">
+        <v>297</v>
+      </c>
+      <c r="I244" t="s">
+        <v>314</v>
+      </c>
+      <c r="J244" t="s">
+        <v>259</v>
+      </c>
+      <c r="K244" t="s">
+        <v>279</v>
+      </c>
+      <c r="L244" t="s">
+        <v>281</v>
+      </c>
+      <c r="M244" t="s">
+        <v>262</v>
+      </c>
+      <c r="N244" t="s">
+        <v>304</v>
+      </c>
+      <c r="P244" t="s">
+        <v>419</v>
+      </c>
+      <c r="V244">
+        <v>10</v>
+      </c>
+      <c r="W244">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="Z244">
+        <f>1.318/(1.35*1.5)</f>
+        <v>0.65086419753086411</v>
+      </c>
+      <c r="AA244">
+        <v>9</v>
+      </c>
+      <c r="AB244">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="AE244">
+        <f>2.194/(1.5*1.35)</f>
+        <v>1.0834567901234566</v>
+      </c>
+    </row>
+    <row r="245" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="A245" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B245" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C245" t="s">
+        <v>313</v>
+      </c>
+      <c r="D245" t="s">
+        <v>295</v>
+      </c>
+      <c r="E245" t="s">
+        <v>267</v>
+      </c>
+      <c r="G245" t="s">
+        <v>296</v>
+      </c>
+      <c r="H245" t="s">
+        <v>297</v>
+      </c>
+      <c r="I245" t="s">
+        <v>314</v>
+      </c>
+      <c r="J245" t="s">
+        <v>259</v>
+      </c>
+      <c r="K245" t="s">
+        <v>279</v>
+      </c>
+      <c r="L245" t="s">
+        <v>281</v>
+      </c>
+      <c r="M245" t="s">
+        <v>262</v>
+      </c>
+      <c r="N245" t="s">
+        <v>305</v>
+      </c>
+      <c r="P245" t="s">
+        <v>419</v>
+      </c>
+      <c r="V245">
+        <v>10</v>
+      </c>
+      <c r="W245">
         <v>0.247</v>
       </c>
-      <c r="Z241">
+      <c r="Z245">
         <f>0.431/(1.35*1.5)</f>
         <v>0.21283950617283948</v>
       </c>
-      <c r="AA241">
+      <c r="AA245">
         <v>9</v>
       </c>
-      <c r="AB241">
+      <c r="AB245">
         <v>0.35399999999999998</v>
       </c>
-      <c r="AE241">
+      <c r="AE245">
         <f>1.277/(1.5*1.35)</f>
         <v>0.63061728395061711</v>
       </c>
@@ -4796,5 +5829,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel Sheets/meta analysis data.xlsx
+++ b/Excel Sheets/meta analysis data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\GitHub\meta-analysis\Excel Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4D6CE8-5718-4251-A8F5-05EC08B13A5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29AB2AF-53D4-466F-AA55-5BFA3560B501}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{9EC5192A-F6BA-4C5C-823C-2BAF9610B730}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="445">
   <si>
     <t>Authors</t>
   </si>
@@ -1359,6 +1359,15 @@
   </si>
   <si>
     <t>interactions</t>
+  </si>
+  <si>
+    <t>Reiter et al 2014</t>
+  </si>
+  <si>
+    <t>striped red</t>
+  </si>
+  <si>
+    <t>unstriped black</t>
   </si>
 </sst>
 </file>
@@ -1759,9 +1768,9 @@
   <dimension ref="A1:AG245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A189" sqref="A189"/>
+      <selection pane="bottomLeft" activeCell="S170" sqref="S170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -3355,6 +3364,45 @@
       <c r="B170" s="1">
         <v>2014</v>
       </c>
+      <c r="C170" t="s">
+        <v>442</v>
+      </c>
+      <c r="D170" t="s">
+        <v>434</v>
+      </c>
+      <c r="E170" t="s">
+        <v>444</v>
+      </c>
+      <c r="G170" t="s">
+        <v>443</v>
+      </c>
+      <c r="H170" t="s">
+        <v>408</v>
+      </c>
+      <c r="L170" t="s">
+        <v>261</v>
+      </c>
+      <c r="M170" t="s">
+        <v>262</v>
+      </c>
+      <c r="N170" t="s">
+        <v>270</v>
+      </c>
+      <c r="O170">
+        <v>60</v>
+      </c>
+      <c r="P170" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q170">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="R170">
+        <v>29</v>
+      </c>
+      <c r="T170">
+        <v>1.2E-2</v>
+      </c>
     </row>
     <row r="171" spans="1:21" ht="16" x14ac:dyDescent="0.8">
       <c r="A171" s="1" t="s">
@@ -3719,77 +3767,77 @@
         <v>432</v>
       </c>
     </row>
-    <row r="195" spans="1:31" ht="16" x14ac:dyDescent="0.8">
-      <c r="A195" s="1" t="s">
+    <row r="195" spans="1:31" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A195" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B195" s="1">
+      <c r="B195" s="7">
         <v>1995</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C195" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D195" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="E195" t="s">
+      <c r="E195" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="G195" t="s">
+      <c r="G195" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="H195" t="s">
+      <c r="H195" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="J195" t="s">
+      <c r="J195" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="K195" t="s">
+      <c r="K195" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="L195" t="s">
+      <c r="L195" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="M195" t="s">
+      <c r="M195" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="N195" t="s">
+      <c r="N195" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="P195" t="s">
+      <c r="P195" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="Q195">
+      <c r="Q195" s="8">
         <v>60.9</v>
       </c>
-      <c r="R195">
+      <c r="R195" s="8">
         <v>1</v>
       </c>
-      <c r="S195">
+      <c r="S195" s="8">
         <v>56</v>
       </c>
-      <c r="T195">
+      <c r="T195" s="8">
         <v>1E-3</v>
       </c>
-      <c r="U195">
+      <c r="U195" s="8">
         <v>-0.59</v>
       </c>
-      <c r="V195">
+      <c r="V195" s="8">
         <v>14</v>
       </c>
-      <c r="W195">
+      <c r="W195" s="8">
         <v>2.14</v>
       </c>
-      <c r="Z195">
+      <c r="Z195" s="8">
         <v>3.1</v>
       </c>
-      <c r="AA195">
+      <c r="AA195" s="8">
         <v>12</v>
       </c>
-      <c r="AB195">
+      <c r="AB195" s="8">
         <v>7.5</v>
       </c>
-      <c r="AE195">
+      <c r="AE195" s="8">
         <v>6.45</v>
       </c>
     </row>

--- a/Excel Sheets/meta analysis data.xlsx
+++ b/Excel Sheets/meta analysis data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\GitHub\meta-analysis\Excel Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29AB2AF-53D4-466F-AA55-5BFA3560B501}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E456097B-74DC-4349-BADC-53B2198C61E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{9EC5192A-F6BA-4C5C-823C-2BAF9610B730}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="502">
   <si>
     <t>Authors</t>
   </si>
@@ -1368,6 +1368,177 @@
   </si>
   <si>
     <t>unstriped black</t>
+  </si>
+  <si>
+    <t>Sowersby et al 2017</t>
+  </si>
+  <si>
+    <t>Amphilophus labiatus</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>Slagvold and Saetre 1991</t>
+  </si>
+  <si>
+    <t>Ficedula hypoleuca</t>
+  </si>
+  <si>
+    <t>Sheehan and Tibbetts 2009</t>
+  </si>
+  <si>
+    <t>Polistes fuscatus</t>
+  </si>
+  <si>
+    <t>Mandrillus sphinx</t>
+  </si>
+  <si>
+    <t>Setchell and Wickings 2005</t>
+  </si>
+  <si>
+    <t>dull red</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>Seehausen and Schluter 2004</t>
+  </si>
+  <si>
+    <t>Seddon and Hews 2017</t>
+  </si>
+  <si>
+    <t>Sceloporus occidentalis</t>
+  </si>
+  <si>
+    <t>Seddon and Hews 2016 - 1</t>
+  </si>
+  <si>
+    <t>Seddon and Hews 2016 - 2</t>
+  </si>
+  <si>
+    <t>Seddon and Hews 2016 - 3</t>
+  </si>
+  <si>
+    <t>Seddon and Hews 2016 - 4</t>
+  </si>
+  <si>
+    <t>Seddon and Hews 2016 - 5</t>
+  </si>
+  <si>
+    <t>Seddon and Hews 2016 - 6</t>
+  </si>
+  <si>
+    <t>Seddon and Hews 2016 - 7</t>
+  </si>
+  <si>
+    <t>chemosensory</t>
+  </si>
+  <si>
+    <t>reposition</t>
+  </si>
+  <si>
+    <t>head-bob bouts</t>
+  </si>
+  <si>
+    <t>fullshow bouts</t>
+  </si>
+  <si>
+    <t>charge</t>
+  </si>
+  <si>
+    <t>biting</t>
+  </si>
+  <si>
+    <t>rate of move toward</t>
+  </si>
+  <si>
+    <t>physical contact/retreat</t>
+  </si>
+  <si>
+    <t>Pelvicachromis pulcher</t>
+  </si>
+  <si>
+    <t>Seaver and Hurd 2017 - 1</t>
+  </si>
+  <si>
+    <t>Seaver and Hurd 2017 - 2</t>
+  </si>
+  <si>
+    <t>Seaver and Hurd 2017 - 3</t>
+  </si>
+  <si>
+    <t>Seaver and Hurd 2017 - 4</t>
+  </si>
+  <si>
+    <t>number of charges</t>
+  </si>
+  <si>
+    <t>number of lateral displays</t>
+  </si>
+  <si>
+    <t>number of tail beats</t>
+  </si>
+  <si>
+    <t>number of bites</t>
+  </si>
+  <si>
+    <t>Scaia et al 2018</t>
+  </si>
+  <si>
+    <t>Cichlasoma dimerus</t>
+  </si>
+  <si>
+    <t>Sacchi et al 2009</t>
+  </si>
+  <si>
+    <t>Podarcis muralis</t>
+  </si>
+  <si>
+    <t>Rudh et al 2013</t>
+  </si>
+  <si>
+    <t>Dendrobates pumilio</t>
+  </si>
+  <si>
+    <t>Rowland et al 1995</t>
+  </si>
+  <si>
+    <t>Rodriguez-Barreto et al 2019</t>
+  </si>
+  <si>
+    <t>lighter</t>
+  </si>
+  <si>
+    <t>darker</t>
+  </si>
+  <si>
+    <t>number of interactions</t>
+  </si>
+  <si>
+    <t>Rodrigues et al 2009</t>
+  </si>
+  <si>
+    <t>Apistogramma hippolytae</t>
+  </si>
+  <si>
+    <t>Robertson and Rosenblum 2010</t>
+  </si>
+  <si>
+    <t>Sceloporus undulatus</t>
+  </si>
+  <si>
+    <t>Renn et al 2012</t>
+  </si>
+  <si>
+    <t>no black</t>
+  </si>
+  <si>
+    <t>number of chases</t>
+  </si>
+  <si>
+    <t>Remy et al 2010</t>
   </si>
 </sst>
 </file>
@@ -1765,19 +1936,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A66D8A-A6D2-47D1-BD63-6DA0AC2C195D}">
-  <dimension ref="A1:AG245"/>
+  <dimension ref="A1:AG254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="S170" sqref="S170"/>
+      <selection pane="bottomLeft" activeCell="D169" sqref="D169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="14.36328125" customWidth="1"/>
     <col min="2" max="2" width="15.31640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.953125" customWidth="1"/>
+    <col min="3" max="3" width="34.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.40625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.6796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.04296875" bestFit="1" customWidth="1"/>
@@ -3285,7 +3456,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="161" spans="1:21" ht="16" x14ac:dyDescent="0.8">
+    <row r="161" spans="1:30" ht="16" x14ac:dyDescent="0.8">
       <c r="A161" s="4" t="s">
         <v>160</v>
       </c>
@@ -3293,7 +3464,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="162" spans="1:21" ht="16" x14ac:dyDescent="0.8">
+    <row r="162" spans="1:30" ht="16" x14ac:dyDescent="0.8">
       <c r="A162" s="1" t="s">
         <v>161</v>
       </c>
@@ -3301,7 +3472,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="163" spans="1:21" ht="16" x14ac:dyDescent="0.8">
+    <row r="163" spans="1:30" ht="16" x14ac:dyDescent="0.8">
       <c r="A163" s="4" t="s">
         <v>162</v>
       </c>
@@ -3309,7 +3480,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="164" spans="1:21" ht="16" x14ac:dyDescent="0.8">
+    <row r="164" spans="1:30" ht="16" x14ac:dyDescent="0.8">
       <c r="A164" s="1" t="s">
         <v>163</v>
       </c>
@@ -3317,7 +3488,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="165" spans="1:21" ht="16" x14ac:dyDescent="0.8">
+    <row r="165" spans="1:30" ht="16" x14ac:dyDescent="0.8">
       <c r="A165" s="1" t="s">
         <v>164</v>
       </c>
@@ -3325,7 +3496,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="166" spans="1:21" ht="16" x14ac:dyDescent="0.8">
+    <row r="166" spans="1:30" ht="16" x14ac:dyDescent="0.8">
       <c r="A166" s="1" t="s">
         <v>164</v>
       </c>
@@ -3333,7 +3504,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="167" spans="1:21" ht="16" x14ac:dyDescent="0.8">
+    <row r="167" spans="1:30" ht="16" x14ac:dyDescent="0.8">
       <c r="A167" s="1" t="s">
         <v>165</v>
       </c>
@@ -3341,7 +3512,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="168" spans="1:21" ht="16" x14ac:dyDescent="0.8">
+    <row r="168" spans="1:30" ht="16" x14ac:dyDescent="0.8">
       <c r="A168" s="1" t="s">
         <v>166</v>
       </c>
@@ -3349,7 +3520,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="169" spans="1:21" ht="16" x14ac:dyDescent="0.8">
+    <row r="169" spans="1:30" ht="16" x14ac:dyDescent="0.8">
       <c r="A169" s="1" t="s">
         <v>167</v>
       </c>
@@ -3357,7 +3528,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="170" spans="1:21" ht="16" x14ac:dyDescent="0.8">
+    <row r="170" spans="1:30" ht="16" x14ac:dyDescent="0.8">
       <c r="A170" s="1" t="s">
         <v>168</v>
       </c>
@@ -3404,47 +3575,236 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:21" ht="16" x14ac:dyDescent="0.8">
-      <c r="A171" s="1" t="s">
+    <row r="171" spans="1:30" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A171" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B171" s="1">
+      <c r="B171" s="7">
         <v>2010</v>
       </c>
-    </row>
-    <row r="172" spans="1:21" ht="16" x14ac:dyDescent="0.8">
+      <c r="C171" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="172" spans="1:30" ht="16" x14ac:dyDescent="0.8">
       <c r="A172" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B172" s="1">
         <v>2012</v>
       </c>
-    </row>
-    <row r="173" spans="1:21" ht="16" x14ac:dyDescent="0.8">
+      <c r="C172" t="s">
+        <v>498</v>
+      </c>
+      <c r="D172" t="s">
+        <v>416</v>
+      </c>
+      <c r="E172" t="s">
+        <v>499</v>
+      </c>
+      <c r="G172" t="s">
+        <v>256</v>
+      </c>
+      <c r="H172" t="s">
+        <v>455</v>
+      </c>
+      <c r="I172" t="s">
+        <v>314</v>
+      </c>
+      <c r="J172" t="s">
+        <v>259</v>
+      </c>
+      <c r="K172" t="s">
+        <v>327</v>
+      </c>
+      <c r="L172" t="s">
+        <v>427</v>
+      </c>
+      <c r="M172" t="s">
+        <v>262</v>
+      </c>
+      <c r="N172" t="s">
+        <v>500</v>
+      </c>
+      <c r="O172">
+        <v>36</v>
+      </c>
+      <c r="P172" t="s">
+        <v>419</v>
+      </c>
+      <c r="V172">
+        <v>21</v>
+      </c>
+      <c r="W172">
+        <v>0.84</v>
+      </c>
+      <c r="Y172">
+        <v>0.16</v>
+      </c>
+      <c r="AA172">
+        <v>15</v>
+      </c>
+      <c r="AB172">
+        <v>11.46</v>
+      </c>
+      <c r="AD172">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="173" spans="1:30" ht="16" x14ac:dyDescent="0.8">
       <c r="A173" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B173" s="1">
         <v>2010</v>
       </c>
-    </row>
-    <row r="174" spans="1:21" ht="16" x14ac:dyDescent="0.8">
-      <c r="A174" s="1" t="s">
+      <c r="C173" t="s">
+        <v>496</v>
+      </c>
+      <c r="D173" t="s">
+        <v>497</v>
+      </c>
+      <c r="E173" t="s">
+        <v>380</v>
+      </c>
+      <c r="G173" t="s">
+        <v>381</v>
+      </c>
+      <c r="H173" t="s">
+        <v>258</v>
+      </c>
+      <c r="J173" t="s">
+        <v>259</v>
+      </c>
+      <c r="K173" t="s">
+        <v>279</v>
+      </c>
+      <c r="L173" t="s">
+        <v>281</v>
+      </c>
+      <c r="M173" t="s">
+        <v>262</v>
+      </c>
+      <c r="N173" t="s">
+        <v>270</v>
+      </c>
+      <c r="O173">
+        <v>40</v>
+      </c>
+      <c r="P173" t="s">
+        <v>419</v>
+      </c>
+      <c r="V173">
+        <v>20</v>
+      </c>
+      <c r="W173">
+        <v>27.527999999999999</v>
+      </c>
+      <c r="Y173">
+        <v>3.964</v>
+      </c>
+      <c r="AA173">
+        <v>20</v>
+      </c>
+      <c r="AB173">
+        <v>17.913</v>
+      </c>
+      <c r="AD173">
+        <v>3.7759999999999998</v>
+      </c>
+    </row>
+    <row r="174" spans="1:30" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A174" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B174" s="1">
+      <c r="B174" s="7">
         <v>2009</v>
       </c>
-    </row>
-    <row r="175" spans="1:21" ht="16" x14ac:dyDescent="0.8">
+      <c r="C174" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="H174" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="J174" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="K174" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="L174" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="175" spans="1:30" ht="16" x14ac:dyDescent="0.8">
       <c r="A175" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B175" s="1">
         <v>2019</v>
       </c>
-    </row>
-    <row r="176" spans="1:21" ht="16" x14ac:dyDescent="0.8">
+      <c r="C175" t="s">
+        <v>490</v>
+      </c>
+      <c r="D175" t="s">
+        <v>378</v>
+      </c>
+      <c r="E175" t="s">
+        <v>491</v>
+      </c>
+      <c r="G175" t="s">
+        <v>492</v>
+      </c>
+      <c r="H175" t="s">
+        <v>258</v>
+      </c>
+      <c r="J175" t="s">
+        <v>259</v>
+      </c>
+      <c r="K175" t="s">
+        <v>260</v>
+      </c>
+      <c r="L175" t="s">
+        <v>427</v>
+      </c>
+      <c r="M175" t="s">
+        <v>262</v>
+      </c>
+      <c r="N175" t="s">
+        <v>493</v>
+      </c>
+      <c r="O175">
+        <v>120</v>
+      </c>
+      <c r="P175" t="s">
+        <v>419</v>
+      </c>
+      <c r="V175">
+        <v>60</v>
+      </c>
+      <c r="W175">
+        <v>28.63</v>
+      </c>
+      <c r="Y175">
+        <v>5.93</v>
+      </c>
+      <c r="AA175">
+        <v>60</v>
+      </c>
+      <c r="AB175">
+        <v>7.11</v>
+      </c>
+      <c r="AD175">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="176" spans="1:30" ht="16" x14ac:dyDescent="0.8">
       <c r="A176" s="1" t="s">
         <v>174</v>
       </c>
@@ -3506,124 +3866,643 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="16" x14ac:dyDescent="0.8">
-      <c r="A177" s="1" t="s">
+    <row r="177" spans="1:31" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A177" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B177" s="1">
+      <c r="B177" s="7">
         <v>1995</v>
       </c>
-    </row>
-    <row r="178" spans="1:20" ht="16" x14ac:dyDescent="0.8">
+      <c r="C177" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="D177" s="8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="178" spans="1:31" ht="16" x14ac:dyDescent="0.8">
       <c r="A178" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B178" s="1">
         <v>2013</v>
       </c>
-    </row>
-    <row r="179" spans="1:20" ht="16" x14ac:dyDescent="0.8">
-      <c r="A179" s="4" t="s">
+      <c r="C178" t="s">
+        <v>487</v>
+      </c>
+      <c r="D178" t="s">
+        <v>488</v>
+      </c>
+      <c r="E178" t="s">
+        <v>405</v>
+      </c>
+      <c r="G178" t="s">
+        <v>333</v>
+      </c>
+      <c r="H178" t="s">
+        <v>258</v>
+      </c>
+      <c r="J178" t="s">
+        <v>259</v>
+      </c>
+      <c r="K178" t="s">
+        <v>279</v>
+      </c>
+      <c r="L178" t="s">
+        <v>281</v>
+      </c>
+      <c r="M178" t="s">
+        <v>262</v>
+      </c>
+      <c r="N178" t="s">
+        <v>263</v>
+      </c>
+      <c r="O178">
+        <v>70</v>
+      </c>
+      <c r="P178" t="s">
+        <v>419</v>
+      </c>
+      <c r="V178">
+        <v>35</v>
+      </c>
+      <c r="W178">
+        <v>0.438</v>
+      </c>
+      <c r="Y178">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AA178">
+        <v>35</v>
+      </c>
+      <c r="AB178">
+        <v>0.745</v>
+      </c>
+      <c r="AD178">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:31" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A179" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B179" s="1">
+      <c r="B179" s="7">
         <v>2009</v>
       </c>
-    </row>
-    <row r="180" spans="1:20" ht="16" x14ac:dyDescent="0.8">
-      <c r="A180" s="1" t="s">
+      <c r="C179" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="E179" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="F179" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="G179" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="H179" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="J179" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="K179" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="L179" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="M179" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="180" spans="1:31" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A180" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B180" s="1">
+      <c r="B180" s="7">
         <v>2018</v>
       </c>
-    </row>
-    <row r="181" spans="1:20" ht="16" x14ac:dyDescent="0.8">
+      <c r="C180" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="K180" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="L180" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="O180" s="8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="181" spans="1:31" ht="16" x14ac:dyDescent="0.8">
       <c r="A181" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B181" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="182" spans="1:20" ht="16" x14ac:dyDescent="0.8">
+      <c r="C181" t="s">
+        <v>475</v>
+      </c>
+      <c r="D181" t="s">
+        <v>474</v>
+      </c>
+      <c r="E181" t="s">
+        <v>286</v>
+      </c>
+      <c r="G181" t="s">
+        <v>333</v>
+      </c>
+      <c r="H181" t="s">
+        <v>383</v>
+      </c>
+      <c r="J181" t="s">
+        <v>259</v>
+      </c>
+      <c r="K181" t="s">
+        <v>279</v>
+      </c>
+      <c r="L181" t="s">
+        <v>427</v>
+      </c>
+      <c r="M181" t="s">
+        <v>262</v>
+      </c>
+      <c r="N181" t="s">
+        <v>479</v>
+      </c>
+      <c r="O181">
+        <v>85</v>
+      </c>
+      <c r="P181" t="s">
+        <v>419</v>
+      </c>
+      <c r="V181">
+        <v>70</v>
+      </c>
+      <c r="W181">
+        <v>6.7030000000000003</v>
+      </c>
+      <c r="Z181">
+        <v>1.0580000000000001</v>
+      </c>
+      <c r="AA181">
+        <v>15</v>
+      </c>
+      <c r="AB181">
+        <v>9.9369999999999994</v>
+      </c>
+      <c r="AE181">
+        <v>3.2930000000000001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:31" ht="16" x14ac:dyDescent="0.8">
       <c r="A182" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B182" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="183" spans="1:20" ht="16" x14ac:dyDescent="0.8">
+      <c r="C182" t="s">
+        <v>476</v>
+      </c>
+      <c r="D182" t="s">
+        <v>474</v>
+      </c>
+      <c r="E182" t="s">
+        <v>286</v>
+      </c>
+      <c r="G182" t="s">
+        <v>333</v>
+      </c>
+      <c r="H182" t="s">
+        <v>383</v>
+      </c>
+      <c r="J182" t="s">
+        <v>259</v>
+      </c>
+      <c r="K182" t="s">
+        <v>279</v>
+      </c>
+      <c r="L182" t="s">
+        <v>427</v>
+      </c>
+      <c r="M182" t="s">
+        <v>262</v>
+      </c>
+      <c r="N182" t="s">
+        <v>480</v>
+      </c>
+      <c r="O182">
+        <v>85</v>
+      </c>
+      <c r="P182" t="s">
+        <v>419</v>
+      </c>
+      <c r="V182">
+        <v>70</v>
+      </c>
+      <c r="W182">
+        <v>3.468</v>
+      </c>
+      <c r="Z182">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="AA182">
+        <v>15</v>
+      </c>
+      <c r="AB182">
+        <v>1.7829999999999999</v>
+      </c>
+      <c r="AE182">
+        <v>0.43099999999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:31" ht="16" x14ac:dyDescent="0.8">
       <c r="A183" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B183" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C183" t="s">
+        <v>477</v>
+      </c>
+      <c r="D183" t="s">
+        <v>474</v>
+      </c>
+      <c r="E183" t="s">
+        <v>286</v>
+      </c>
+      <c r="G183" t="s">
+        <v>333</v>
+      </c>
+      <c r="H183" t="s">
+        <v>383</v>
+      </c>
+      <c r="J183" t="s">
+        <v>259</v>
+      </c>
+      <c r="K183" t="s">
+        <v>279</v>
+      </c>
+      <c r="L183" t="s">
+        <v>427</v>
+      </c>
+      <c r="M183" t="s">
+        <v>262</v>
+      </c>
+      <c r="N183" t="s">
+        <v>481</v>
+      </c>
+      <c r="O183">
+        <v>85</v>
+      </c>
+      <c r="P183" t="s">
+        <v>419</v>
+      </c>
+      <c r="V183">
+        <v>70</v>
+      </c>
+      <c r="W183">
+        <v>4.6449999999999996</v>
+      </c>
+      <c r="Z183">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="AA183">
+        <v>15</v>
+      </c>
+      <c r="AB183">
+        <v>9.7609999999999992</v>
+      </c>
+      <c r="AE183">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="184" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="A184" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B184" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C184" t="s">
+        <v>478</v>
+      </c>
+      <c r="D184" t="s">
+        <v>474</v>
+      </c>
+      <c r="E184" t="s">
+        <v>286</v>
+      </c>
+      <c r="G184" t="s">
+        <v>333</v>
+      </c>
+      <c r="H184" t="s">
+        <v>383</v>
+      </c>
+      <c r="J184" t="s">
+        <v>259</v>
+      </c>
+      <c r="K184" t="s">
+        <v>279</v>
+      </c>
+      <c r="L184" t="s">
+        <v>427</v>
+      </c>
+      <c r="M184" t="s">
+        <v>262</v>
+      </c>
+      <c r="N184" t="s">
+        <v>482</v>
+      </c>
+      <c r="O184">
+        <v>85</v>
+      </c>
+      <c r="P184" t="s">
+        <v>419</v>
+      </c>
+      <c r="V184">
+        <v>70</v>
+      </c>
+      <c r="W184">
+        <v>325.03800000000001</v>
+      </c>
+      <c r="Z184">
+        <v>42.573</v>
+      </c>
+      <c r="AA184">
+        <v>15</v>
+      </c>
+      <c r="AB184">
+        <v>457.50700000000001</v>
+      </c>
+      <c r="AE184">
+        <v>135.023</v>
+      </c>
+    </row>
+    <row r="185" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="A185" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B183" s="1">
+      <c r="B185" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C185" t="s">
+        <v>457</v>
+      </c>
+      <c r="D185" t="s">
+        <v>458</v>
+      </c>
+      <c r="E185" t="s">
+        <v>267</v>
+      </c>
+      <c r="G185" t="s">
+        <v>256</v>
+      </c>
+      <c r="H185" t="s">
+        <v>290</v>
+      </c>
+      <c r="I185" t="s">
+        <v>314</v>
+      </c>
+      <c r="J185" t="s">
+        <v>259</v>
+      </c>
+      <c r="K185" t="s">
+        <v>279</v>
+      </c>
+      <c r="L185" t="s">
+        <v>281</v>
+      </c>
+      <c r="M185" t="s">
+        <v>262</v>
+      </c>
+      <c r="N185" t="s">
+        <v>473</v>
+      </c>
+      <c r="O185">
+        <v>78</v>
+      </c>
+      <c r="P185" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q185">
+        <v>22.42</v>
+      </c>
+      <c r="R185">
+        <v>1</v>
+      </c>
+      <c r="S185">
+        <v>57</v>
+      </c>
+      <c r="T185">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="A186" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B186" s="1">
         <v>2016</v>
       </c>
-    </row>
-    <row r="184" spans="1:20" ht="16" x14ac:dyDescent="0.8">
-      <c r="A184" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B184" s="1">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="185" spans="1:20" ht="16" x14ac:dyDescent="0.8">
-      <c r="A185" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B185" s="1">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="186" spans="1:20" ht="16" x14ac:dyDescent="0.8">
-      <c r="A186" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B186" s="1">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="187" spans="1:20" ht="16" x14ac:dyDescent="0.8">
+      <c r="C186" t="s">
+        <v>459</v>
+      </c>
+      <c r="D186" t="s">
+        <v>458</v>
+      </c>
+      <c r="E186" t="s">
+        <v>267</v>
+      </c>
+      <c r="G186" t="s">
+        <v>256</v>
+      </c>
+      <c r="H186" t="s">
+        <v>383</v>
+      </c>
+      <c r="I186" t="s">
+        <v>314</v>
+      </c>
+      <c r="J186" t="s">
+        <v>259</v>
+      </c>
+      <c r="K186" t="s">
+        <v>279</v>
+      </c>
+      <c r="L186" t="s">
+        <v>281</v>
+      </c>
+      <c r="M186" t="s">
+        <v>262</v>
+      </c>
+      <c r="N186" t="s">
+        <v>466</v>
+      </c>
+      <c r="O186">
+        <v>30</v>
+      </c>
+      <c r="P186" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q186">
+        <v>2.08</v>
+      </c>
+      <c r="R186">
+        <v>14</v>
+      </c>
+      <c r="T186">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:31" ht="16" x14ac:dyDescent="0.8">
       <c r="A187" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B187" s="1">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="188" spans="1:20" ht="16" x14ac:dyDescent="0.8">
+        <v>2016</v>
+      </c>
+      <c r="C187" t="s">
+        <v>460</v>
+      </c>
+      <c r="D187" t="s">
+        <v>458</v>
+      </c>
+      <c r="E187" t="s">
+        <v>267</v>
+      </c>
+      <c r="G187" t="s">
+        <v>256</v>
+      </c>
+      <c r="H187" t="s">
+        <v>383</v>
+      </c>
+      <c r="I187" t="s">
+        <v>314</v>
+      </c>
+      <c r="J187" t="s">
+        <v>259</v>
+      </c>
+      <c r="K187" t="s">
+        <v>279</v>
+      </c>
+      <c r="L187" t="s">
+        <v>281</v>
+      </c>
+      <c r="M187" t="s">
+        <v>262</v>
+      </c>
+      <c r="N187" t="s">
+        <v>467</v>
+      </c>
+      <c r="O187">
+        <v>30</v>
+      </c>
+      <c r="P187" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q187">
+        <v>3.2210000000000001</v>
+      </c>
+      <c r="R187">
+        <v>14</v>
+      </c>
+      <c r="T187">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:31" ht="16" x14ac:dyDescent="0.8">
       <c r="A188" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B188" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="189" spans="1:20" ht="16" x14ac:dyDescent="0.8">
+        <v>2016</v>
+      </c>
+      <c r="C188" t="s">
+        <v>461</v>
+      </c>
+      <c r="D188" t="s">
+        <v>458</v>
+      </c>
+      <c r="E188" t="s">
+        <v>267</v>
+      </c>
+      <c r="G188" t="s">
+        <v>256</v>
+      </c>
+      <c r="H188" t="s">
+        <v>383</v>
+      </c>
+      <c r="I188" t="s">
+        <v>314</v>
+      </c>
+      <c r="J188" t="s">
+        <v>259</v>
+      </c>
+      <c r="K188" t="s">
+        <v>279</v>
+      </c>
+      <c r="L188" t="s">
+        <v>281</v>
+      </c>
+      <c r="M188" t="s">
+        <v>262</v>
+      </c>
+      <c r="N188" t="s">
+        <v>468</v>
+      </c>
+      <c r="O188">
+        <v>30</v>
+      </c>
+      <c r="P188" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q188">
+        <v>2.5</v>
+      </c>
+      <c r="R188">
+        <v>14</v>
+      </c>
+      <c r="T188">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:31" ht="16" x14ac:dyDescent="0.8">
       <c r="A189" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B189" s="1">
-        <v>2006</v>
+        <v>2016</v>
       </c>
       <c r="C189" t="s">
-        <v>439</v>
+        <v>462</v>
       </c>
       <c r="D189" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="E189" t="s">
         <v>267</v>
       </c>
       <c r="G189" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="H189" t="s">
         <v>383</v>
       </c>
+      <c r="I189" t="s">
+        <v>314</v>
+      </c>
       <c r="J189" t="s">
         <v>259</v>
       </c>
@@ -3631,725 +4510,743 @@
         <v>279</v>
       </c>
       <c r="L189" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="M189" t="s">
         <v>262</v>
       </c>
       <c r="N189" t="s">
-        <v>441</v>
+        <v>469</v>
+      </c>
+      <c r="O189">
+        <v>30</v>
       </c>
       <c r="P189" t="s">
-        <v>271</v>
+        <v>425</v>
       </c>
       <c r="Q189">
-        <v>22.46</v>
+        <v>2.42</v>
       </c>
       <c r="R189">
-        <v>1</v>
-      </c>
-      <c r="S189">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="T189">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="190" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
-      <c r="A190" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="B190" s="7">
-        <v>2006</v>
-      </c>
-      <c r="C190" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="D190" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="E190" s="8" t="s">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="A190" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B190" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C190" t="s">
+        <v>463</v>
+      </c>
+      <c r="D190" t="s">
+        <v>458</v>
+      </c>
+      <c r="E190" t="s">
         <v>267</v>
       </c>
-      <c r="G190" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="H190" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="J190" s="8" t="s">
+      <c r="G190" t="s">
+        <v>256</v>
+      </c>
+      <c r="H190" t="s">
+        <v>383</v>
+      </c>
+      <c r="I190" t="s">
+        <v>314</v>
+      </c>
+      <c r="J190" t="s">
         <v>259</v>
       </c>
-      <c r="K190" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="L190" s="8" t="s">
+      <c r="K190" t="s">
+        <v>279</v>
+      </c>
+      <c r="L190" t="s">
         <v>281</v>
       </c>
-      <c r="M190" s="8" t="s">
+      <c r="M190" t="s">
         <v>262</v>
       </c>
-      <c r="N190" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="P190" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q190" s="8">
-        <v>2E-3</v>
-      </c>
-      <c r="R190" s="8">
-        <v>1</v>
-      </c>
-      <c r="S190" s="8">
-        <v>28</v>
-      </c>
-      <c r="T190" s="8">
-        <v>0.96899999999999997</v>
-      </c>
-    </row>
-    <row r="191" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
-      <c r="A191" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B191" s="7">
-        <v>2012</v>
-      </c>
-      <c r="C191" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="D191" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="H191" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="192" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
-      <c r="A192" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B192" s="7">
-        <v>2005</v>
-      </c>
-      <c r="C192" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="D192" s="8" t="s">
-        <v>284</v>
+      <c r="N190" t="s">
+        <v>470</v>
+      </c>
+      <c r="O190">
+        <v>30</v>
+      </c>
+      <c r="P190" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q190">
+        <v>2.2130000000000001</v>
+      </c>
+      <c r="R190">
+        <v>14</v>
+      </c>
+      <c r="T190">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="A191" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B191" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C191" t="s">
+        <v>464</v>
+      </c>
+      <c r="D191" t="s">
+        <v>458</v>
+      </c>
+      <c r="E191" t="s">
+        <v>267</v>
+      </c>
+      <c r="G191" t="s">
+        <v>256</v>
+      </c>
+      <c r="H191" t="s">
+        <v>383</v>
+      </c>
+      <c r="I191" t="s">
+        <v>314</v>
+      </c>
+      <c r="J191" t="s">
+        <v>259</v>
+      </c>
+      <c r="K191" t="s">
+        <v>279</v>
+      </c>
+      <c r="L191" t="s">
+        <v>281</v>
+      </c>
+      <c r="M191" t="s">
+        <v>262</v>
+      </c>
+      <c r="N191" t="s">
+        <v>471</v>
+      </c>
+      <c r="O191">
+        <v>30</v>
+      </c>
+      <c r="P191" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q191">
+        <v>2.04</v>
+      </c>
+      <c r="R191">
+        <v>14</v>
+      </c>
+      <c r="T191">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="A192" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B192" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C192" t="s">
+        <v>465</v>
+      </c>
+      <c r="D192" t="s">
+        <v>458</v>
+      </c>
+      <c r="E192" t="s">
+        <v>267</v>
+      </c>
+      <c r="G192" t="s">
+        <v>256</v>
+      </c>
+      <c r="H192" t="s">
+        <v>383</v>
+      </c>
+      <c r="I192" t="s">
+        <v>314</v>
+      </c>
+      <c r="J192" t="s">
+        <v>259</v>
+      </c>
+      <c r="K192" t="s">
+        <v>279</v>
+      </c>
+      <c r="L192" t="s">
+        <v>281</v>
+      </c>
+      <c r="M192" t="s">
+        <v>262</v>
+      </c>
+      <c r="N192" t="s">
+        <v>472</v>
+      </c>
+      <c r="O192">
+        <v>30</v>
+      </c>
+      <c r="P192" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q192">
+        <v>0.42</v>
+      </c>
+      <c r="R192">
+        <v>14</v>
+      </c>
+      <c r="T192">
+        <v>0.68100000000000005</v>
       </c>
     </row>
     <row r="193" spans="1:31" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
       <c r="A193" s="7" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B193" s="7">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="D193" s="8" t="s">
-        <v>434</v>
+        <v>456</v>
       </c>
     </row>
     <row r="194" spans="1:31" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
       <c r="A194" s="7" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B194" s="7">
-        <v>1992</v>
+        <v>2005</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>431</v>
+        <v>453</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>432</v>
+        <v>452</v>
+      </c>
+      <c r="E194" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="G194" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="H194" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="J194" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="K194" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="L194" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="M194" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="O194" s="8">
+        <v>19</v>
       </c>
     </row>
     <row r="195" spans="1:31" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
       <c r="A195" s="7" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B195" s="7">
-        <v>1995</v>
+        <v>2009</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>428</v>
+        <v>450</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="E195" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="G195" s="8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="196" spans="1:31" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A196" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B196" s="7">
+        <v>1991</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="D196" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="L196" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="197" spans="1:31" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A197" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B197" s="7">
+        <v>2017</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="E197" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="G197" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="L197" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="198" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="A198" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B198" s="1">
+        <v>2006</v>
+      </c>
+      <c r="C198" t="s">
+        <v>439</v>
+      </c>
+      <c r="D198" t="s">
+        <v>440</v>
+      </c>
+      <c r="E198" t="s">
+        <v>267</v>
+      </c>
+      <c r="G198" t="s">
+        <v>287</v>
+      </c>
+      <c r="H198" t="s">
+        <v>383</v>
+      </c>
+      <c r="J198" t="s">
+        <v>259</v>
+      </c>
+      <c r="K198" t="s">
+        <v>279</v>
+      </c>
+      <c r="L198" t="s">
+        <v>261</v>
+      </c>
+      <c r="M198" t="s">
+        <v>262</v>
+      </c>
+      <c r="N198" t="s">
+        <v>441</v>
+      </c>
+      <c r="P198" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q198">
+        <v>22.46</v>
+      </c>
+      <c r="R198">
+        <v>1</v>
+      </c>
+      <c r="S198">
+        <v>31</v>
+      </c>
+      <c r="T198">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:31" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A199" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B199" s="7">
+        <v>2006</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="D199" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E199" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="G199" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="H195" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="J195" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="K195" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="L195" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="M195" s="8" t="s">
+      <c r="H199" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="J199" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="K199" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="L199" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="M199" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="N195" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="P195" s="8" t="s">
+      <c r="N199" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="P199" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="Q195" s="8">
-        <v>60.9</v>
-      </c>
-      <c r="R195" s="8">
+      <c r="Q199" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="R199" s="8">
         <v>1</v>
       </c>
-      <c r="S195" s="8">
-        <v>56</v>
-      </c>
-      <c r="T195" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="U195" s="8">
-        <v>-0.59</v>
-      </c>
-      <c r="V195" s="8">
-        <v>14</v>
-      </c>
-      <c r="W195" s="8">
-        <v>2.14</v>
-      </c>
-      <c r="Z195" s="8">
-        <v>3.1</v>
-      </c>
-      <c r="AA195" s="8">
-        <v>12</v>
-      </c>
-      <c r="AB195" s="8">
-        <v>7.5</v>
-      </c>
-      <c r="AE195" s="8">
-        <v>6.45</v>
-      </c>
-    </row>
-    <row r="196" spans="1:31" ht="16" x14ac:dyDescent="0.8">
-      <c r="A196" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B196" s="1">
-        <v>2002</v>
-      </c>
-      <c r="C196" t="s">
-        <v>420</v>
-      </c>
-      <c r="D196" t="s">
-        <v>421</v>
-      </c>
-      <c r="E196" t="s">
-        <v>423</v>
-      </c>
-      <c r="G196" t="s">
-        <v>381</v>
-      </c>
-      <c r="H196" t="s">
-        <v>379</v>
-      </c>
-      <c r="J196" t="s">
-        <v>422</v>
-      </c>
-      <c r="K196" t="s">
-        <v>260</v>
-      </c>
-      <c r="L196" t="s">
-        <v>427</v>
-      </c>
-      <c r="M196" t="s">
-        <v>424</v>
-      </c>
-      <c r="N196" t="s">
-        <v>426</v>
-      </c>
-      <c r="O196">
-        <v>7</v>
-      </c>
-      <c r="P196" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q196">
-        <v>-2.4500000000000002</v>
-      </c>
-      <c r="T196">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="197" spans="1:31" ht="16" x14ac:dyDescent="0.8">
-      <c r="A197" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B197" s="1">
+      <c r="S199" s="8">
+        <v>28</v>
+      </c>
+      <c r="T199" s="8">
+        <v>0.96899999999999997</v>
+      </c>
+    </row>
+    <row r="200" spans="1:31" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A200" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B200" s="7">
+        <v>2012</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="D200" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="H200" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="201" spans="1:31" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A201" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B201" s="7">
+        <v>2005</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="D201" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="202" spans="1:31" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A202" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B202" s="7">
         <v>2016</v>
       </c>
-      <c r="C197" t="s">
-        <v>417</v>
-      </c>
-      <c r="D197" t="s">
-        <v>418</v>
-      </c>
-      <c r="E197" t="s">
-        <v>286</v>
-      </c>
-      <c r="G197" t="s">
-        <v>346</v>
-      </c>
-      <c r="H197" t="s">
-        <v>288</v>
-      </c>
-      <c r="J197" t="s">
-        <v>259</v>
-      </c>
-      <c r="K197" t="s">
-        <v>279</v>
-      </c>
-      <c r="L197" t="s">
-        <v>261</v>
-      </c>
-      <c r="M197" t="s">
-        <v>262</v>
-      </c>
-      <c r="N197" t="s">
-        <v>263</v>
-      </c>
-      <c r="O197">
-        <v>76</v>
-      </c>
-      <c r="P197" t="s">
-        <v>419</v>
-      </c>
-      <c r="V197">
-        <v>41</v>
-      </c>
-      <c r="W197">
-        <v>3.6</v>
-      </c>
-      <c r="Y197">
-        <v>0.4</v>
-      </c>
-      <c r="AA197">
-        <v>35</v>
-      </c>
-      <c r="AB197">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="AD197">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="198" spans="1:31" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
-      <c r="A198" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="B198" s="7">
-        <v>2012</v>
-      </c>
-      <c r="C198" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="D198" s="8" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="199" spans="1:31" ht="16" x14ac:dyDescent="0.8">
-      <c r="A199" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B199" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C199" t="s">
-        <v>409</v>
-      </c>
-      <c r="D199" t="s">
-        <v>325</v>
-      </c>
-      <c r="E199" t="s">
-        <v>333</v>
-      </c>
-      <c r="G199" t="s">
-        <v>256</v>
-      </c>
-      <c r="H199" t="s">
-        <v>258</v>
-      </c>
-      <c r="J199" t="s">
-        <v>259</v>
-      </c>
-      <c r="K199" t="s">
-        <v>279</v>
-      </c>
-      <c r="L199" t="s">
-        <v>261</v>
-      </c>
-      <c r="M199" t="s">
-        <v>262</v>
-      </c>
-      <c r="N199" t="s">
-        <v>411</v>
-      </c>
-      <c r="P199" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q199">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="R199">
-        <v>2</v>
-      </c>
-      <c r="T199">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="200" spans="1:31" ht="16" x14ac:dyDescent="0.8">
-      <c r="A200" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B200" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C200" t="s">
-        <v>410</v>
-      </c>
-      <c r="D200" t="s">
-        <v>325</v>
-      </c>
-      <c r="E200" t="s">
-        <v>333</v>
-      </c>
-      <c r="G200" t="s">
-        <v>256</v>
-      </c>
-      <c r="H200" t="s">
-        <v>258</v>
-      </c>
-      <c r="J200" t="s">
-        <v>259</v>
-      </c>
-      <c r="K200" t="s">
-        <v>279</v>
-      </c>
-      <c r="L200" t="s">
-        <v>261</v>
-      </c>
-      <c r="M200" t="s">
-        <v>262</v>
-      </c>
-      <c r="N200" t="s">
-        <v>323</v>
-      </c>
-      <c r="P200" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q200">
-        <v>0.46</v>
-      </c>
-      <c r="R200">
-        <v>1</v>
-      </c>
-      <c r="T200">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="201" spans="1:31" ht="16" x14ac:dyDescent="0.8">
-      <c r="A201" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B201" s="1">
-        <v>2015</v>
-      </c>
-      <c r="C201" t="s">
-        <v>412</v>
-      </c>
-      <c r="D201" t="s">
-        <v>325</v>
-      </c>
-      <c r="E201" t="s">
-        <v>333</v>
-      </c>
-      <c r="G201" t="s">
-        <v>256</v>
-      </c>
-      <c r="H201" t="s">
-        <v>258</v>
-      </c>
-      <c r="J201" t="s">
-        <v>259</v>
-      </c>
-      <c r="K201" t="s">
-        <v>279</v>
-      </c>
-      <c r="L201" t="s">
-        <v>261</v>
-      </c>
-      <c r="M201" t="s">
-        <v>262</v>
-      </c>
-      <c r="N201" t="s">
-        <v>414</v>
-      </c>
-      <c r="P201" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q201">
-        <v>25.55</v>
-      </c>
-      <c r="R201">
-        <v>1</v>
-      </c>
-      <c r="S201">
-        <v>9.6</v>
-      </c>
-      <c r="T201">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="202" spans="1:31" ht="16" x14ac:dyDescent="0.8">
-      <c r="A202" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B202" s="1">
-        <v>2015</v>
-      </c>
-      <c r="C202" t="s">
-        <v>413</v>
-      </c>
-      <c r="D202" t="s">
-        <v>325</v>
-      </c>
-      <c r="E202" t="s">
-        <v>333</v>
-      </c>
-      <c r="G202" t="s">
-        <v>256</v>
-      </c>
-      <c r="H202" t="s">
-        <v>258</v>
-      </c>
-      <c r="J202" t="s">
-        <v>259</v>
-      </c>
-      <c r="K202" t="s">
-        <v>327</v>
-      </c>
-      <c r="L202" t="s">
-        <v>261</v>
-      </c>
-      <c r="M202" t="s">
-        <v>262</v>
-      </c>
-      <c r="N202" t="s">
-        <v>414</v>
-      </c>
-      <c r="P202" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q202">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="R202">
-        <v>1</v>
-      </c>
-      <c r="S202">
-        <v>4.8</v>
-      </c>
-      <c r="T202">
-        <v>7.6999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:31" ht="16" x14ac:dyDescent="0.8">
-      <c r="A203" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B203" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C203" t="s">
-        <v>403</v>
-      </c>
-      <c r="D203" t="s">
-        <v>404</v>
-      </c>
-      <c r="E203" t="s">
-        <v>267</v>
-      </c>
-      <c r="G203" t="s">
-        <v>405</v>
-      </c>
-      <c r="H203" t="s">
-        <v>383</v>
-      </c>
-      <c r="J203" t="s">
-        <v>259</v>
-      </c>
-      <c r="K203" t="s">
-        <v>279</v>
-      </c>
-      <c r="L203" t="s">
-        <v>261</v>
-      </c>
-      <c r="M203" t="s">
-        <v>262</v>
-      </c>
-      <c r="N203" t="s">
-        <v>263</v>
-      </c>
-      <c r="P203" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q203">
-        <v>0.317</v>
-      </c>
-      <c r="R203">
-        <v>1</v>
-      </c>
-      <c r="S203">
-        <v>29</v>
-      </c>
-      <c r="T203">
-        <v>0.57999999999999996</v>
+      <c r="C202" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="D202" s="8" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="203" spans="1:31" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A203" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B203" s="7">
+        <v>1992</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="D203" s="8" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="204" spans="1:31" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
       <c r="A204" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B204" s="7">
-        <v>2013</v>
+        <v>1995</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>400</v>
+        <v>428</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>401</v>
+        <v>429</v>
       </c>
       <c r="E204" s="8" t="s">
-        <v>285</v>
+        <v>430</v>
       </c>
       <c r="G204" s="8" t="s">
-        <v>402</v>
+        <v>286</v>
       </c>
       <c r="H204" s="8" t="s">
         <v>258</v>
       </c>
+      <c r="J204" s="8" t="s">
+        <v>260</v>
+      </c>
       <c r="K204" s="8" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="205" spans="1:31" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
-      <c r="A205" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B205" s="7">
-        <v>2003</v>
-      </c>
-      <c r="C205" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="D205" s="8" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="206" spans="1:31" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
-      <c r="A206" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="B206" s="7">
-        <v>2013</v>
-      </c>
-      <c r="C206" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="D206" s="8" t="s">
-        <v>397</v>
+        <v>279</v>
+      </c>
+      <c r="L204" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="M204" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="N204" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="P204" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q204" s="8">
+        <v>60.9</v>
+      </c>
+      <c r="R204" s="8">
+        <v>1</v>
+      </c>
+      <c r="S204" s="8">
+        <v>56</v>
+      </c>
+      <c r="T204" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="U204" s="8">
+        <v>-0.59</v>
+      </c>
+      <c r="V204" s="8">
+        <v>14</v>
+      </c>
+      <c r="W204" s="8">
+        <v>2.14</v>
+      </c>
+      <c r="Z204" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="AA204" s="8">
+        <v>12</v>
+      </c>
+      <c r="AB204" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="AE204" s="8">
+        <v>6.45</v>
+      </c>
+    </row>
+    <row r="205" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="A205" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B205" s="1">
+        <v>2002</v>
+      </c>
+      <c r="C205" t="s">
+        <v>420</v>
+      </c>
+      <c r="D205" t="s">
+        <v>421</v>
+      </c>
+      <c r="E205" t="s">
+        <v>423</v>
+      </c>
+      <c r="G205" t="s">
+        <v>381</v>
+      </c>
+      <c r="H205" t="s">
+        <v>379</v>
+      </c>
+      <c r="J205" t="s">
+        <v>422</v>
+      </c>
+      <c r="K205" t="s">
+        <v>260</v>
+      </c>
+      <c r="L205" t="s">
+        <v>427</v>
+      </c>
+      <c r="M205" t="s">
+        <v>424</v>
+      </c>
+      <c r="N205" t="s">
+        <v>426</v>
+      </c>
+      <c r="O205">
+        <v>7</v>
+      </c>
+      <c r="P205" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q205">
+        <v>-2.4500000000000002</v>
+      </c>
+      <c r="T205">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="206" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="A206" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B206" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C206" t="s">
+        <v>417</v>
+      </c>
+      <c r="D206" t="s">
+        <v>418</v>
+      </c>
+      <c r="E206" t="s">
+        <v>286</v>
+      </c>
+      <c r="G206" t="s">
+        <v>346</v>
+      </c>
+      <c r="H206" t="s">
+        <v>288</v>
+      </c>
+      <c r="J206" t="s">
+        <v>259</v>
+      </c>
+      <c r="K206" t="s">
+        <v>279</v>
+      </c>
+      <c r="L206" t="s">
+        <v>261</v>
+      </c>
+      <c r="M206" t="s">
+        <v>262</v>
+      </c>
+      <c r="N206" t="s">
+        <v>263</v>
+      </c>
+      <c r="O206">
+        <v>76</v>
+      </c>
+      <c r="P206" t="s">
+        <v>419</v>
+      </c>
+      <c r="V206">
+        <v>41</v>
+      </c>
+      <c r="W206">
+        <v>3.6</v>
+      </c>
+      <c r="Y206">
+        <v>0.4</v>
+      </c>
+      <c r="AA206">
+        <v>35</v>
+      </c>
+      <c r="AB206">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AD206">
+        <v>0.5</v>
       </c>
     </row>
     <row r="207" spans="1:31" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
       <c r="A207" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B207" s="7">
-        <v>2003</v>
+        <v>2012</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="208" spans="1:31" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
-      <c r="A208" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B208" s="7">
-        <v>2010</v>
-      </c>
-      <c r="C208" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="D208" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="E208" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="G208" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="H208" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="L208" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="208" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="A208" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B208" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C208" t="s">
+        <v>409</v>
+      </c>
+      <c r="D208" t="s">
+        <v>325</v>
+      </c>
+      <c r="E208" t="s">
+        <v>333</v>
+      </c>
+      <c r="G208" t="s">
+        <v>256</v>
+      </c>
+      <c r="H208" t="s">
+        <v>258</v>
+      </c>
+      <c r="J208" t="s">
+        <v>259</v>
+      </c>
+      <c r="K208" t="s">
+        <v>279</v>
+      </c>
+      <c r="L208" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="209" spans="1:33" ht="16" x14ac:dyDescent="0.8">
+      <c r="M208" t="s">
+        <v>262</v>
+      </c>
+      <c r="N208" t="s">
+        <v>411</v>
+      </c>
+      <c r="P208" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q208">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="R208">
+        <v>2</v>
+      </c>
+      <c r="T208">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="209" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A209" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B209" s="1">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="C209" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="D209" t="s">
-        <v>382</v>
+        <v>325</v>
       </c>
       <c r="E209" t="s">
-        <v>287</v>
-      </c>
-      <c r="F209" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="G209" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="H209" t="s">
-        <v>383</v>
+        <v>258</v>
       </c>
       <c r="J209" t="s">
         <v>259</v>
       </c>
       <c r="K209" t="s">
-        <v>327</v>
+        <v>279</v>
       </c>
       <c r="L209" t="s">
         <v>261</v>
@@ -4358,57 +5255,48 @@
         <v>262</v>
       </c>
       <c r="N209" t="s">
-        <v>384</v>
-      </c>
-      <c r="O209">
-        <v>238</v>
+        <v>323</v>
       </c>
       <c r="P209" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="Q209">
-        <v>0.16</v>
+        <v>0.46</v>
       </c>
       <c r="R209">
         <v>1</v>
       </c>
-      <c r="S209">
-        <v>233</v>
-      </c>
       <c r="T209">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="210" spans="1:33" ht="16" x14ac:dyDescent="0.8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A210" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B210" s="1">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="C210" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="D210" t="s">
-        <v>382</v>
+        <v>325</v>
       </c>
       <c r="E210" t="s">
-        <v>287</v>
-      </c>
-      <c r="F210" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="G210" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="H210" t="s">
-        <v>383</v>
+        <v>258</v>
       </c>
       <c r="J210" t="s">
         <v>259</v>
       </c>
       <c r="K210" t="s">
-        <v>327</v>
+        <v>279</v>
       </c>
       <c r="L210" t="s">
         <v>261</v>
@@ -4417,48 +5305,45 @@
         <v>262</v>
       </c>
       <c r="N210" t="s">
-        <v>387</v>
-      </c>
-      <c r="O210">
-        <v>238</v>
+        <v>414</v>
       </c>
       <c r="P210" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="Q210">
-        <v>3.95</v>
+        <v>25.55</v>
       </c>
       <c r="R210">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="S210">
+        <v>9.6</v>
       </c>
       <c r="T210">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="211" spans="1:33" ht="16" x14ac:dyDescent="0.8">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A211" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B211" s="1">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="C211" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="D211" t="s">
-        <v>382</v>
+        <v>325</v>
       </c>
       <c r="E211" t="s">
-        <v>287</v>
-      </c>
-      <c r="F211" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="G211" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="H211" t="s">
-        <v>383</v>
+        <v>258</v>
       </c>
       <c r="J211" t="s">
         <v>259</v>
@@ -4473,566 +5358,605 @@
         <v>262</v>
       </c>
       <c r="N211" t="s">
-        <v>389</v>
-      </c>
-      <c r="O211">
-        <v>231</v>
+        <v>414</v>
       </c>
       <c r="P211" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="Q211">
-        <v>16.18</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="R211">
         <v>1</v>
       </c>
+      <c r="S211">
+        <v>4.8</v>
+      </c>
       <c r="T211">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="212" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
-      <c r="A212" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="B212" s="7">
-        <v>2003</v>
-      </c>
-      <c r="C212" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="D212" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="E212" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="G212" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="H212" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="213" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:20" ht="16" x14ac:dyDescent="0.8">
+      <c r="A212" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B212" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C212" t="s">
+        <v>403</v>
+      </c>
+      <c r="D212" t="s">
+        <v>404</v>
+      </c>
+      <c r="E212" t="s">
+        <v>267</v>
+      </c>
+      <c r="G212" t="s">
+        <v>405</v>
+      </c>
+      <c r="H212" t="s">
+        <v>383</v>
+      </c>
+      <c r="J212" t="s">
+        <v>259</v>
+      </c>
+      <c r="K212" t="s">
+        <v>279</v>
+      </c>
+      <c r="L212" t="s">
+        <v>261</v>
+      </c>
+      <c r="M212" t="s">
+        <v>262</v>
+      </c>
+      <c r="N212" t="s">
+        <v>263</v>
+      </c>
+      <c r="P212" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q212">
+        <v>0.317</v>
+      </c>
+      <c r="R212">
+        <v>1</v>
+      </c>
+      <c r="S212">
+        <v>29</v>
+      </c>
+      <c r="T212">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="213" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
       <c r="A213" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B213" s="7">
-        <v>1994</v>
+        <v>2013</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="E213" s="8" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="G213" s="8" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="H213" s="8" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="214" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="K213" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
       <c r="A214" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B214" s="7">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>370</v>
+        <v>398</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="E214" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="F214" s="8" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A215" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B215" s="7">
+        <v>2013</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="D215" s="8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A216" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B216" s="7">
+        <v>2003</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D216" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A217" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B217" s="7">
+        <v>2010</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="D217" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="E217" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="G217" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="H217" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="L217" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20" ht="16" x14ac:dyDescent="0.8">
+      <c r="A218" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B218" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C218" t="s">
+        <v>385</v>
+      </c>
+      <c r="D218" t="s">
+        <v>382</v>
+      </c>
+      <c r="E218" t="s">
+        <v>287</v>
+      </c>
+      <c r="F218" t="s">
         <v>372</v>
       </c>
-      <c r="G214" s="8" t="s">
+      <c r="G218" t="s">
         <v>286</v>
       </c>
-      <c r="H214" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="I214" s="8" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="215" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
-      <c r="A215" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B215" s="7">
-        <v>1992</v>
-      </c>
-      <c r="C215" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="D215" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="E215" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="G215" s="8" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="216" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
-      <c r="A216" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B216" s="7">
-        <v>2015</v>
-      </c>
-      <c r="C216" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="D216" s="8" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="217" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
-      <c r="A217" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B217" s="7">
-        <v>2018</v>
-      </c>
-      <c r="C217" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="D217" s="8" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="218" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
-      <c r="A218" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="B218" s="7">
-        <v>1999</v>
-      </c>
-      <c r="C218" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="D218" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="H218" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="J218" s="8" t="s">
+      <c r="H218" t="s">
+        <v>383</v>
+      </c>
+      <c r="J218" t="s">
         <v>259</v>
       </c>
-      <c r="K218" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="L218" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="M218" s="8" t="s">
+      <c r="K218" t="s">
+        <v>327</v>
+      </c>
+      <c r="L218" t="s">
+        <v>261</v>
+      </c>
+      <c r="M218" t="s">
         <v>262</v>
       </c>
-      <c r="N218" s="8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="219" spans="1:33" ht="16" x14ac:dyDescent="0.8">
+      <c r="N218" t="s">
+        <v>384</v>
+      </c>
+      <c r="O218">
+        <v>238</v>
+      </c>
+      <c r="P218" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q218">
+        <v>0.16</v>
+      </c>
+      <c r="R218">
+        <v>1</v>
+      </c>
+      <c r="S218">
+        <v>233</v>
+      </c>
+      <c r="T218">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20" ht="16" x14ac:dyDescent="0.8">
       <c r="A219" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B219" s="1">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="C219" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="D219" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="E219" t="s">
-        <v>356</v>
+        <v>287</v>
+      </c>
+      <c r="F219" t="s">
+        <v>372</v>
       </c>
       <c r="G219" t="s">
-        <v>357</v>
+        <v>286</v>
       </c>
       <c r="H219" t="s">
-        <v>288</v>
+        <v>383</v>
       </c>
       <c r="J219" t="s">
         <v>259</v>
       </c>
       <c r="K219" t="s">
-        <v>279</v>
+        <v>327</v>
       </c>
       <c r="L219" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="M219" t="s">
         <v>262</v>
       </c>
       <c r="N219" t="s">
+        <v>387</v>
+      </c>
+      <c r="O219">
+        <v>238</v>
+      </c>
+      <c r="P219" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q219">
+        <v>3.95</v>
+      </c>
+      <c r="R219">
+        <v>2</v>
+      </c>
+      <c r="T219">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20" ht="16" x14ac:dyDescent="0.8">
+      <c r="A220" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B220" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C220" t="s">
+        <v>388</v>
+      </c>
+      <c r="D220" t="s">
+        <v>382</v>
+      </c>
+      <c r="E220" t="s">
+        <v>287</v>
+      </c>
+      <c r="F220" t="s">
+        <v>372</v>
+      </c>
+      <c r="G220" t="s">
+        <v>286</v>
+      </c>
+      <c r="H220" t="s">
+        <v>383</v>
+      </c>
+      <c r="J220" t="s">
+        <v>259</v>
+      </c>
+      <c r="K220" t="s">
+        <v>327</v>
+      </c>
+      <c r="L220" t="s">
+        <v>261</v>
+      </c>
+      <c r="M220" t="s">
+        <v>262</v>
+      </c>
+      <c r="N220" t="s">
+        <v>389</v>
+      </c>
+      <c r="O220">
+        <v>231</v>
+      </c>
+      <c r="P220" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q220">
+        <v>16.18</v>
+      </c>
+      <c r="R220">
+        <v>1</v>
+      </c>
+      <c r="T220">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A221" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B221" s="7">
+        <v>2003</v>
+      </c>
+      <c r="C221" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="D221" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="E221" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="G221" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="H221" s="8" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="222" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A222" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B222" s="7">
+        <v>1994</v>
+      </c>
+      <c r="C222" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="D222" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="E222" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="G222" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="H222" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="223" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A223" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B223" s="7">
+        <v>2009</v>
+      </c>
+      <c r="C223" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="D223" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="E223" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F223" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="G223" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="H223" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="I223" s="8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="224" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A224" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B224" s="7">
+        <v>1992</v>
+      </c>
+      <c r="C224" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D224" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="E224" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="G224" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="225" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A225" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B225" s="7">
+        <v>2015</v>
+      </c>
+      <c r="C225" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="D225" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="226" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A226" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B226" s="7">
+        <v>2018</v>
+      </c>
+      <c r="C226" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="D226" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="227" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A227" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B227" s="7">
+        <v>1999</v>
+      </c>
+      <c r="C227" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="D227" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="H227" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="J227" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="K227" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="L227" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="M227" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="N227" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="228" spans="1:33" ht="16" x14ac:dyDescent="0.8">
+      <c r="A228" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B228" s="1">
+        <v>2006</v>
+      </c>
+      <c r="C228" t="s">
+        <v>353</v>
+      </c>
+      <c r="D228" t="s">
+        <v>355</v>
+      </c>
+      <c r="E228" t="s">
+        <v>356</v>
+      </c>
+      <c r="G228" t="s">
+        <v>357</v>
+      </c>
+      <c r="H228" t="s">
+        <v>288</v>
+      </c>
+      <c r="J228" t="s">
+        <v>259</v>
+      </c>
+      <c r="K228" t="s">
+        <v>279</v>
+      </c>
+      <c r="L228" t="s">
+        <v>281</v>
+      </c>
+      <c r="M228" t="s">
+        <v>262</v>
+      </c>
+      <c r="N228" t="s">
         <v>358</v>
       </c>
-      <c r="O219">
+      <c r="O228">
         <v>72</v>
       </c>
-      <c r="P219" t="s">
+      <c r="P228" t="s">
         <v>324</v>
       </c>
-      <c r="Q219">
+      <c r="Q228">
         <v>0.34</v>
       </c>
-      <c r="T219">
+      <c r="T228">
         <v>2E-3</v>
       </c>
-      <c r="Y219">
+      <c r="Y228">
         <v>0.11</v>
       </c>
-      <c r="AF219">
+      <c r="AF228">
         <v>0.8</v>
       </c>
-      <c r="AG219" t="s">
+      <c r="AG228" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="220" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
-      <c r="A220" s="7" t="s">
+    <row r="229" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A229" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B220" s="7">
+      <c r="B229" s="7">
         <v>2015</v>
       </c>
-      <c r="C220" s="8" t="s">
+      <c r="C229" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="D220" s="8" t="s">
+      <c r="D229" s="8" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="221" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
-      <c r="A221" s="7" t="s">
+    <row r="230" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A230" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B221" s="7">
+      <c r="B230" s="7">
         <v>2016</v>
       </c>
-      <c r="C221" s="8" t="s">
+      <c r="C230" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="D221" s="8" t="s">
+      <c r="D230" s="8" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="222" spans="1:33" ht="16" x14ac:dyDescent="0.8">
-      <c r="A222" s="1" t="s">
+    <row r="231" spans="1:33" ht="16" x14ac:dyDescent="0.8">
+      <c r="A231" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B222" s="1">
+      <c r="B231" s="1">
         <v>2012</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C231" t="s">
         <v>349</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D231" t="s">
         <v>350</v>
       </c>
-      <c r="E222" t="s">
+      <c r="E231" t="s">
         <v>333</v>
       </c>
-      <c r="G222" t="s">
+      <c r="G231" t="s">
         <v>256</v>
       </c>
-      <c r="H222" t="s">
+      <c r="H231" t="s">
         <v>297</v>
-      </c>
-      <c r="I222" t="s">
-        <v>269</v>
-      </c>
-      <c r="J222" t="s">
-        <v>259</v>
-      </c>
-      <c r="K222" t="s">
-        <v>260</v>
-      </c>
-      <c r="L222" t="s">
-        <v>261</v>
-      </c>
-      <c r="M222" t="s">
-        <v>262</v>
-      </c>
-      <c r="N222" t="s">
-        <v>263</v>
-      </c>
-      <c r="O222">
-        <v>40</v>
-      </c>
-      <c r="P222" t="s">
-        <v>419</v>
-      </c>
-      <c r="V222">
-        <v>20</v>
-      </c>
-      <c r="W222">
-        <v>2.1030000000000002</v>
-      </c>
-      <c r="Y222">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="AA222">
-        <v>20</v>
-      </c>
-      <c r="AB222">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="AD222">
-        <v>0.222</v>
-      </c>
-    </row>
-    <row r="223" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
-      <c r="A223" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="B223" s="7">
-        <v>2001</v>
-      </c>
-      <c r="C223" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="D223" s="8" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="224" spans="1:33" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.8">
-      <c r="A224" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="B224" s="9">
-        <v>2018</v>
-      </c>
-      <c r="C224" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="D224" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="E224" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="G224" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="H224" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="J224" s="10" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="225" spans="1:31" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
-      <c r="A225" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="B225" s="7">
-        <v>2019</v>
-      </c>
-      <c r="C225" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="D225" s="8" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="226" spans="1:31" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
-      <c r="A226" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="B226" s="7">
-        <v>2009</v>
-      </c>
-      <c r="C226" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="D226" s="8" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="227" spans="1:31" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
-      <c r="A227" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="B227" s="7">
-        <v>2009</v>
-      </c>
-      <c r="C227" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="D227" s="8" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="228" spans="1:31" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
-      <c r="A228" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="B228" s="7">
-        <v>2017</v>
-      </c>
-      <c r="C228" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="D228" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="229" spans="1:31" ht="16" x14ac:dyDescent="0.8">
-      <c r="A229" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B229" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C229" t="s">
-        <v>283</v>
-      </c>
-      <c r="D229" t="s">
-        <v>284</v>
-      </c>
-      <c r="E229" t="s">
-        <v>285</v>
-      </c>
-      <c r="F229" t="s">
-        <v>286</v>
-      </c>
-      <c r="G229" t="s">
-        <v>287</v>
-      </c>
-      <c r="H229" t="s">
-        <v>288</v>
-      </c>
-      <c r="I229" t="s">
-        <v>269</v>
-      </c>
-      <c r="J229" t="s">
-        <v>259</v>
-      </c>
-      <c r="K229" t="s">
-        <v>279</v>
-      </c>
-      <c r="L229" t="s">
-        <v>281</v>
-      </c>
-      <c r="M229" t="s">
-        <v>262</v>
-      </c>
-      <c r="N229" t="s">
-        <v>263</v>
-      </c>
-      <c r="O229">
-        <v>34</v>
-      </c>
-      <c r="P229" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q229">
-        <v>2.94</v>
-      </c>
-      <c r="R229">
-        <v>3</v>
-      </c>
-      <c r="S229">
-        <v>28.5</v>
-      </c>
-      <c r="T229">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="230" spans="1:31" ht="16" x14ac:dyDescent="0.8">
-      <c r="A230" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B230" s="1">
-        <v>2015</v>
-      </c>
-      <c r="C230" t="s">
-        <v>334</v>
-      </c>
-      <c r="D230" t="s">
-        <v>325</v>
-      </c>
-      <c r="E230" t="s">
-        <v>332</v>
-      </c>
-      <c r="G230" t="s">
-        <v>333</v>
-      </c>
-      <c r="H230" t="s">
-        <v>288</v>
-      </c>
-      <c r="I230" t="s">
-        <v>269</v>
-      </c>
-      <c r="J230" t="s">
-        <v>259</v>
-      </c>
-      <c r="K230" t="s">
-        <v>327</v>
-      </c>
-      <c r="L230" t="s">
-        <v>261</v>
-      </c>
-      <c r="M230" t="s">
-        <v>326</v>
-      </c>
-      <c r="N230" t="s">
-        <v>328</v>
-      </c>
-      <c r="P230" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q230">
-        <v>0.25</v>
-      </c>
-      <c r="R230">
-        <v>1</v>
-      </c>
-      <c r="S230">
-        <v>39</v>
-      </c>
-      <c r="T230" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="231" spans="1:31" ht="16" x14ac:dyDescent="0.8">
-      <c r="A231" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B231" s="1">
-        <v>2015</v>
-      </c>
-      <c r="C231" t="s">
-        <v>335</v>
-      </c>
-      <c r="D231" t="s">
-        <v>325</v>
-      </c>
-      <c r="E231" t="s">
-        <v>332</v>
-      </c>
-      <c r="G231" t="s">
-        <v>333</v>
-      </c>
-      <c r="H231" t="s">
-        <v>288</v>
       </c>
       <c r="I231" t="s">
         <v>269</v>
@@ -5041,351 +5965,165 @@
         <v>259</v>
       </c>
       <c r="K231" t="s">
-        <v>327</v>
+        <v>260</v>
       </c>
       <c r="L231" t="s">
         <v>261</v>
       </c>
       <c r="M231" t="s">
-        <v>326</v>
+        <v>262</v>
       </c>
       <c r="N231" t="s">
-        <v>337</v>
+        <v>263</v>
+      </c>
+      <c r="O231">
+        <v>40</v>
       </c>
       <c r="P231" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q231">
-        <v>1.46</v>
-      </c>
-      <c r="R231">
-        <v>1</v>
-      </c>
-      <c r="S231">
-        <v>39</v>
-      </c>
-      <c r="T231" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="232" spans="1:31" ht="16" x14ac:dyDescent="0.8">
-      <c r="A232" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B232" s="1">
-        <v>2015</v>
-      </c>
-      <c r="C232" t="s">
-        <v>336</v>
-      </c>
-      <c r="D232" t="s">
-        <v>325</v>
-      </c>
-      <c r="E232" t="s">
-        <v>332</v>
-      </c>
-      <c r="G232" t="s">
+        <v>419</v>
+      </c>
+      <c r="V231">
+        <v>20</v>
+      </c>
+      <c r="W231">
+        <v>2.1030000000000002</v>
+      </c>
+      <c r="Y231">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="AA231">
+        <v>20</v>
+      </c>
+      <c r="AB231">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="AD231">
+        <v>0.222</v>
+      </c>
+    </row>
+    <row r="232" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A232" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B232" s="7">
+        <v>2001</v>
+      </c>
+      <c r="C232" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D232" s="8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="233" spans="1:33" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A233" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B233" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C233" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="D233" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="E233" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="H232" t="s">
-        <v>288</v>
-      </c>
-      <c r="I232" t="s">
-        <v>269</v>
-      </c>
-      <c r="J232" t="s">
+      <c r="G233" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="H233" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="J233" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="K232" t="s">
-        <v>327</v>
-      </c>
-      <c r="L232" t="s">
-        <v>261</v>
-      </c>
-      <c r="M232" t="s">
-        <v>326</v>
-      </c>
-      <c r="N232" t="s">
-        <v>338</v>
-      </c>
-      <c r="P232" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q232">
-        <v>0.02</v>
-      </c>
-      <c r="R232">
-        <v>1</v>
-      </c>
-      <c r="S232">
-        <v>39</v>
-      </c>
-      <c r="T232" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="233" spans="1:31" ht="16" x14ac:dyDescent="0.8">
-      <c r="A233" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B233" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C233" t="s">
-        <v>329</v>
-      </c>
-      <c r="D233" t="s">
-        <v>325</v>
-      </c>
-      <c r="E233" t="s">
-        <v>321</v>
-      </c>
-      <c r="G233" t="s">
-        <v>322</v>
-      </c>
-      <c r="H233" t="s">
-        <v>288</v>
-      </c>
-      <c r="I233" t="s">
-        <v>269</v>
-      </c>
-      <c r="J233" t="s">
-        <v>259</v>
-      </c>
-      <c r="K233" t="s">
-        <v>327</v>
-      </c>
-      <c r="L233" t="s">
-        <v>261</v>
-      </c>
-      <c r="M233" t="s">
-        <v>326</v>
-      </c>
-      <c r="N233" t="s">
-        <v>328</v>
-      </c>
-      <c r="O233">
-        <v>43</v>
-      </c>
-      <c r="P233" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q233">
-        <v>0.127</v>
-      </c>
-      <c r="R233">
-        <v>1</v>
-      </c>
-      <c r="S233">
-        <v>38</v>
-      </c>
-      <c r="T233">
-        <v>0.127</v>
-      </c>
-    </row>
-    <row r="234" spans="1:31" ht="16" x14ac:dyDescent="0.8">
-      <c r="A234" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B234" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C234" t="s">
-        <v>330</v>
-      </c>
-      <c r="D234" t="s">
-        <v>325</v>
-      </c>
-      <c r="E234" t="s">
-        <v>321</v>
-      </c>
-      <c r="G234" t="s">
-        <v>322</v>
-      </c>
-      <c r="H234" t="s">
-        <v>331</v>
-      </c>
-      <c r="I234" t="s">
-        <v>269</v>
-      </c>
-      <c r="J234" t="s">
-        <v>259</v>
-      </c>
-      <c r="K234" t="s">
-        <v>327</v>
-      </c>
-      <c r="L234" t="s">
-        <v>261</v>
-      </c>
-      <c r="M234" t="s">
-        <v>326</v>
-      </c>
-      <c r="N234" t="s">
-        <v>328</v>
-      </c>
-      <c r="O234">
-        <v>43</v>
-      </c>
-      <c r="P234" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q234">
-        <v>3.9E-2</v>
-      </c>
-      <c r="R234">
-        <v>1</v>
-      </c>
-      <c r="S234">
-        <v>38</v>
-      </c>
-      <c r="T234">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="235" spans="1:31" ht="16" x14ac:dyDescent="0.8">
-      <c r="A235" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B235" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C235" t="s">
-        <v>317</v>
-      </c>
-      <c r="D235" t="s">
-        <v>316</v>
-      </c>
-      <c r="E235" t="s">
-        <v>321</v>
-      </c>
-      <c r="G235" t="s">
-        <v>322</v>
-      </c>
-      <c r="H235" t="s">
-        <v>258</v>
-      </c>
-      <c r="I235" t="s">
-        <v>269</v>
-      </c>
-      <c r="J235" t="s">
-        <v>259</v>
-      </c>
-      <c r="K235" t="s">
-        <v>279</v>
-      </c>
-      <c r="L235" t="s">
-        <v>261</v>
-      </c>
-      <c r="M235" t="s">
-        <v>262</v>
-      </c>
-      <c r="N235" t="s">
-        <v>323</v>
-      </c>
-      <c r="O235">
-        <v>44</v>
-      </c>
-      <c r="P235" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q235">
-        <v>82.51</v>
-      </c>
-      <c r="Y235">
-        <v>35.15</v>
-      </c>
-    </row>
-    <row r="236" spans="1:31" ht="16" x14ac:dyDescent="0.8">
-      <c r="A236" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B236" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C236" t="s">
-        <v>318</v>
-      </c>
-      <c r="D236" t="s">
-        <v>316</v>
-      </c>
-      <c r="E236" t="s">
-        <v>319</v>
-      </c>
-      <c r="G236" t="s">
-        <v>320</v>
-      </c>
-      <c r="H236" t="s">
-        <v>290</v>
-      </c>
-      <c r="I236" t="s">
-        <v>314</v>
-      </c>
-      <c r="J236" t="s">
-        <v>259</v>
-      </c>
-      <c r="K236" t="s">
-        <v>279</v>
-      </c>
-      <c r="L236" t="s">
-        <v>261</v>
-      </c>
-      <c r="M236" t="s">
-        <v>262</v>
-      </c>
-      <c r="N236" t="s">
-        <v>323</v>
-      </c>
-      <c r="O236">
-        <v>44</v>
-      </c>
-      <c r="P236" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q236">
-        <v>-35.130000000000003</v>
-      </c>
-      <c r="Y236">
-        <v>16.28</v>
-      </c>
-    </row>
-    <row r="237" spans="1:31" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+    </row>
+    <row r="234" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A234" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B234" s="7">
+        <v>2019</v>
+      </c>
+      <c r="C234" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="D234" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="235" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A235" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B235" s="7">
+        <v>2009</v>
+      </c>
+      <c r="C235" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D235" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="236" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A236" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B236" s="7">
+        <v>2009</v>
+      </c>
+      <c r="C236" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="D236" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="237" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
       <c r="A237" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B237" s="7">
         <v>2017</v>
       </c>
       <c r="C237" s="8" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="238" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="238" spans="1:33" ht="16" x14ac:dyDescent="0.8">
       <c r="A238" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B238" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C238" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="D238" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="E238" t="s">
-        <v>267</v>
+        <v>285</v>
+      </c>
+      <c r="F238" t="s">
+        <v>286</v>
       </c>
       <c r="G238" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="H238" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="I238" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="J238" t="s">
         <v>259</v>
@@ -5400,476 +6138,941 @@
         <v>262</v>
       </c>
       <c r="N238" t="s">
+        <v>263</v>
+      </c>
+      <c r="O238">
+        <v>34</v>
+      </c>
+      <c r="P238" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q238">
+        <v>2.94</v>
+      </c>
+      <c r="R238">
+        <v>3</v>
+      </c>
+      <c r="S238">
+        <v>28.5</v>
+      </c>
+      <c r="T238">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="239" spans="1:33" ht="16" x14ac:dyDescent="0.8">
+      <c r="A239" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B239" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C239" t="s">
+        <v>334</v>
+      </c>
+      <c r="D239" t="s">
+        <v>325</v>
+      </c>
+      <c r="E239" t="s">
+        <v>332</v>
+      </c>
+      <c r="G239" t="s">
+        <v>333</v>
+      </c>
+      <c r="H239" t="s">
+        <v>288</v>
+      </c>
+      <c r="I239" t="s">
+        <v>269</v>
+      </c>
+      <c r="J239" t="s">
+        <v>259</v>
+      </c>
+      <c r="K239" t="s">
+        <v>327</v>
+      </c>
+      <c r="L239" t="s">
+        <v>261</v>
+      </c>
+      <c r="M239" t="s">
+        <v>326</v>
+      </c>
+      <c r="N239" t="s">
+        <v>328</v>
+      </c>
+      <c r="P239" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q239">
+        <v>0.25</v>
+      </c>
+      <c r="R239">
+        <v>1</v>
+      </c>
+      <c r="S239">
+        <v>39</v>
+      </c>
+      <c r="T239" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="240" spans="1:33" ht="16" x14ac:dyDescent="0.8">
+      <c r="A240" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B240" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C240" t="s">
+        <v>335</v>
+      </c>
+      <c r="D240" t="s">
+        <v>325</v>
+      </c>
+      <c r="E240" t="s">
+        <v>332</v>
+      </c>
+      <c r="G240" t="s">
+        <v>333</v>
+      </c>
+      <c r="H240" t="s">
+        <v>288</v>
+      </c>
+      <c r="I240" t="s">
+        <v>269</v>
+      </c>
+      <c r="J240" t="s">
+        <v>259</v>
+      </c>
+      <c r="K240" t="s">
+        <v>327</v>
+      </c>
+      <c r="L240" t="s">
+        <v>261</v>
+      </c>
+      <c r="M240" t="s">
+        <v>326</v>
+      </c>
+      <c r="N240" t="s">
+        <v>337</v>
+      </c>
+      <c r="P240" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q240">
+        <v>1.46</v>
+      </c>
+      <c r="R240">
+        <v>1</v>
+      </c>
+      <c r="S240">
+        <v>39</v>
+      </c>
+      <c r="T240" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="241" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="A241" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B241" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C241" t="s">
+        <v>336</v>
+      </c>
+      <c r="D241" t="s">
+        <v>325</v>
+      </c>
+      <c r="E241" t="s">
+        <v>332</v>
+      </c>
+      <c r="G241" t="s">
+        <v>333</v>
+      </c>
+      <c r="H241" t="s">
+        <v>288</v>
+      </c>
+      <c r="I241" t="s">
+        <v>269</v>
+      </c>
+      <c r="J241" t="s">
+        <v>259</v>
+      </c>
+      <c r="K241" t="s">
+        <v>327</v>
+      </c>
+      <c r="L241" t="s">
+        <v>261</v>
+      </c>
+      <c r="M241" t="s">
+        <v>326</v>
+      </c>
+      <c r="N241" t="s">
+        <v>338</v>
+      </c>
+      <c r="P241" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q241">
+        <v>0.02</v>
+      </c>
+      <c r="R241">
+        <v>1</v>
+      </c>
+      <c r="S241">
+        <v>39</v>
+      </c>
+      <c r="T241" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="242" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="A242" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B242" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C242" t="s">
+        <v>329</v>
+      </c>
+      <c r="D242" t="s">
+        <v>325</v>
+      </c>
+      <c r="E242" t="s">
+        <v>321</v>
+      </c>
+      <c r="G242" t="s">
+        <v>322</v>
+      </c>
+      <c r="H242" t="s">
+        <v>288</v>
+      </c>
+      <c r="I242" t="s">
+        <v>269</v>
+      </c>
+      <c r="J242" t="s">
+        <v>259</v>
+      </c>
+      <c r="K242" t="s">
+        <v>327</v>
+      </c>
+      <c r="L242" t="s">
+        <v>261</v>
+      </c>
+      <c r="M242" t="s">
+        <v>326</v>
+      </c>
+      <c r="N242" t="s">
+        <v>328</v>
+      </c>
+      <c r="O242">
+        <v>43</v>
+      </c>
+      <c r="P242" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q242">
+        <v>0.127</v>
+      </c>
+      <c r="R242">
+        <v>1</v>
+      </c>
+      <c r="S242">
+        <v>38</v>
+      </c>
+      <c r="T242">
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="243" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="A243" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B243" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C243" t="s">
+        <v>330</v>
+      </c>
+      <c r="D243" t="s">
+        <v>325</v>
+      </c>
+      <c r="E243" t="s">
+        <v>321</v>
+      </c>
+      <c r="G243" t="s">
+        <v>322</v>
+      </c>
+      <c r="H243" t="s">
+        <v>331</v>
+      </c>
+      <c r="I243" t="s">
+        <v>269</v>
+      </c>
+      <c r="J243" t="s">
+        <v>259</v>
+      </c>
+      <c r="K243" t="s">
+        <v>327</v>
+      </c>
+      <c r="L243" t="s">
+        <v>261</v>
+      </c>
+      <c r="M243" t="s">
+        <v>326</v>
+      </c>
+      <c r="N243" t="s">
+        <v>328</v>
+      </c>
+      <c r="O243">
+        <v>43</v>
+      </c>
+      <c r="P243" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q243">
+        <v>3.9E-2</v>
+      </c>
+      <c r="R243">
+        <v>1</v>
+      </c>
+      <c r="S243">
+        <v>38</v>
+      </c>
+      <c r="T243">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="244" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="A244" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B244" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C244" t="s">
+        <v>317</v>
+      </c>
+      <c r="D244" t="s">
+        <v>316</v>
+      </c>
+      <c r="E244" t="s">
+        <v>321</v>
+      </c>
+      <c r="G244" t="s">
+        <v>322</v>
+      </c>
+      <c r="H244" t="s">
+        <v>258</v>
+      </c>
+      <c r="I244" t="s">
+        <v>269</v>
+      </c>
+      <c r="J244" t="s">
+        <v>259</v>
+      </c>
+      <c r="K244" t="s">
+        <v>279</v>
+      </c>
+      <c r="L244" t="s">
+        <v>261</v>
+      </c>
+      <c r="M244" t="s">
+        <v>262</v>
+      </c>
+      <c r="N244" t="s">
+        <v>323</v>
+      </c>
+      <c r="O244">
+        <v>44</v>
+      </c>
+      <c r="P244" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q244">
+        <v>82.51</v>
+      </c>
+      <c r="Y244">
+        <v>35.15</v>
+      </c>
+    </row>
+    <row r="245" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="A245" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B245" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C245" t="s">
+        <v>318</v>
+      </c>
+      <c r="D245" t="s">
+        <v>316</v>
+      </c>
+      <c r="E245" t="s">
+        <v>319</v>
+      </c>
+      <c r="G245" t="s">
+        <v>320</v>
+      </c>
+      <c r="H245" t="s">
+        <v>290</v>
+      </c>
+      <c r="I245" t="s">
+        <v>314</v>
+      </c>
+      <c r="J245" t="s">
+        <v>259</v>
+      </c>
+      <c r="K245" t="s">
+        <v>279</v>
+      </c>
+      <c r="L245" t="s">
+        <v>261</v>
+      </c>
+      <c r="M245" t="s">
+        <v>262</v>
+      </c>
+      <c r="N245" t="s">
+        <v>323</v>
+      </c>
+      <c r="O245">
+        <v>44</v>
+      </c>
+      <c r="P245" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q245">
+        <v>-35.130000000000003</v>
+      </c>
+      <c r="Y245">
+        <v>16.28</v>
+      </c>
+    </row>
+    <row r="246" spans="1:31" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+      <c r="A246" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B246" s="7">
+        <v>2017</v>
+      </c>
+      <c r="C246" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="D246" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="247" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="A247" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B247" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C247" t="s">
+        <v>306</v>
+      </c>
+      <c r="D247" t="s">
+        <v>295</v>
+      </c>
+      <c r="E247" t="s">
+        <v>267</v>
+      </c>
+      <c r="G247" t="s">
+        <v>296</v>
+      </c>
+      <c r="H247" t="s">
+        <v>297</v>
+      </c>
+      <c r="I247" t="s">
+        <v>314</v>
+      </c>
+      <c r="J247" t="s">
+        <v>259</v>
+      </c>
+      <c r="K247" t="s">
+        <v>279</v>
+      </c>
+      <c r="L247" t="s">
+        <v>281</v>
+      </c>
+      <c r="M247" t="s">
+        <v>262</v>
+      </c>
+      <c r="N247" t="s">
         <v>298</v>
       </c>
-      <c r="P238" t="s">
+      <c r="P247" t="s">
         <v>419</v>
       </c>
-      <c r="V238">
+      <c r="V247">
         <v>10</v>
       </c>
-      <c r="W238">
+      <c r="W247">
         <v>23.515999999999998</v>
       </c>
-      <c r="Z238">
+      <c r="Z247">
         <f>39.858/(1.35*1.5)</f>
         <v>19.682962962962957</v>
       </c>
-      <c r="AA238">
+      <c r="AA247">
         <v>9</v>
       </c>
-      <c r="AB238">
+      <c r="AB247">
         <v>1.7330000000000001</v>
       </c>
-      <c r="AE238">
+      <c r="AE247">
         <f>14.356/(1.5*1.35)</f>
         <v>7.0893827160493812</v>
       </c>
     </row>
-    <row r="239" spans="1:31" ht="16" x14ac:dyDescent="0.8">
-      <c r="A239" s="1" t="s">
+    <row r="248" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="A248" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B239" s="1">
+      <c r="B248" s="1">
         <v>2015</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C248" t="s">
         <v>307</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D248" t="s">
         <v>295</v>
       </c>
-      <c r="E239" t="s">
+      <c r="E248" t="s">
         <v>267</v>
       </c>
-      <c r="G239" t="s">
+      <c r="G248" t="s">
         <v>296</v>
       </c>
-      <c r="H239" t="s">
+      <c r="H248" t="s">
         <v>297</v>
       </c>
-      <c r="I239" t="s">
+      <c r="I248" t="s">
         <v>314</v>
       </c>
-      <c r="J239" t="s">
+      <c r="J248" t="s">
         <v>259</v>
       </c>
-      <c r="K239" t="s">
+      <c r="K248" t="s">
         <v>279</v>
       </c>
-      <c r="L239" t="s">
+      <c r="L248" t="s">
         <v>281</v>
       </c>
-      <c r="M239" t="s">
+      <c r="M248" t="s">
         <v>262</v>
       </c>
-      <c r="N239" t="s">
+      <c r="N248" t="s">
         <v>299</v>
       </c>
-      <c r="P239" t="s">
+      <c r="P248" t="s">
         <v>419</v>
       </c>
-      <c r="V239">
+      <c r="V248">
         <v>10</v>
       </c>
-      <c r="W239">
+      <c r="W248">
         <v>0</v>
       </c>
-      <c r="Z239">
+      <c r="Z248">
         <f>0.5/(1.35*1.5)</f>
         <v>0.24691358024691354</v>
       </c>
-      <c r="AA239">
+      <c r="AA248">
         <v>9</v>
       </c>
-      <c r="AB239">
+      <c r="AB248">
         <v>0</v>
       </c>
-      <c r="AE239">
+      <c r="AE248">
         <f>1/(1.5*1.35)</f>
         <v>0.49382716049382708</v>
       </c>
     </row>
-    <row r="240" spans="1:31" ht="16" x14ac:dyDescent="0.8">
-      <c r="A240" s="1" t="s">
+    <row r="249" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="A249" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B240" s="1">
+      <c r="B249" s="1">
         <v>2015</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C249" t="s">
         <v>308</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D249" t="s">
         <v>295</v>
       </c>
-      <c r="E240" t="s">
+      <c r="E249" t="s">
         <v>267</v>
       </c>
-      <c r="G240" t="s">
+      <c r="G249" t="s">
         <v>296</v>
       </c>
-      <c r="H240" t="s">
+      <c r="H249" t="s">
         <v>297</v>
       </c>
-      <c r="I240" t="s">
+      <c r="I249" t="s">
         <v>314</v>
       </c>
-      <c r="J240" t="s">
+      <c r="J249" t="s">
         <v>259</v>
       </c>
-      <c r="K240" t="s">
+      <c r="K249" t="s">
         <v>279</v>
       </c>
-      <c r="L240" t="s">
+      <c r="L249" t="s">
         <v>281</v>
       </c>
-      <c r="M240" t="s">
+      <c r="M249" t="s">
         <v>262</v>
       </c>
-      <c r="N240" t="s">
+      <c r="N249" t="s">
         <v>300</v>
       </c>
-      <c r="P240" t="s">
+      <c r="P249" t="s">
         <v>419</v>
       </c>
-      <c r="V240">
+      <c r="V249">
         <v>10</v>
       </c>
-      <c r="W240">
+      <c r="W249">
         <v>20.846</v>
       </c>
-      <c r="Z240">
+      <c r="Z249">
         <f>83.81/(1.35*1.5)</f>
         <v>41.38765432098765</v>
       </c>
-      <c r="AA240">
+      <c r="AA249">
         <v>9</v>
       </c>
-      <c r="AB240">
+      <c r="AB249">
         <v>16.172000000000001</v>
       </c>
-      <c r="AE240">
+      <c r="AE249">
         <f>39.139/(1.5*1.35)</f>
         <v>19.3279012345679</v>
       </c>
     </row>
-    <row r="241" spans="1:31" ht="16" x14ac:dyDescent="0.8">
-      <c r="A241" s="1" t="s">
+    <row r="250" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="A250" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B241" s="1">
+      <c r="B250" s="1">
         <v>2015</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C250" t="s">
         <v>309</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D250" t="s">
         <v>295</v>
       </c>
-      <c r="E241" t="s">
+      <c r="E250" t="s">
         <v>267</v>
       </c>
-      <c r="G241" t="s">
+      <c r="G250" t="s">
         <v>296</v>
       </c>
-      <c r="H241" t="s">
+      <c r="H250" t="s">
         <v>297</v>
       </c>
-      <c r="I241" t="s">
+      <c r="I250" t="s">
         <v>314</v>
       </c>
-      <c r="J241" t="s">
+      <c r="J250" t="s">
         <v>259</v>
       </c>
-      <c r="K241" t="s">
+      <c r="K250" t="s">
         <v>279</v>
       </c>
-      <c r="L241" t="s">
+      <c r="L250" t="s">
         <v>281</v>
       </c>
-      <c r="M241" t="s">
+      <c r="M250" t="s">
         <v>262</v>
       </c>
-      <c r="N241" t="s">
+      <c r="N250" t="s">
         <v>301</v>
       </c>
-      <c r="P241" t="s">
+      <c r="P250" t="s">
         <v>419</v>
       </c>
-      <c r="V241">
+      <c r="V250">
         <v>10</v>
       </c>
-      <c r="W241">
+      <c r="W250">
         <v>7.5650000000000004</v>
       </c>
-      <c r="Z241">
+      <c r="Z250">
         <f>18.414/(1.35*1.5)</f>
         <v>9.0933333333333319</v>
       </c>
-      <c r="AA241">
+      <c r="AA250">
         <v>9</v>
       </c>
-      <c r="AB241">
+      <c r="AB250">
         <v>11.342000000000001</v>
       </c>
-      <c r="AE241">
+      <c r="AE250">
         <f>23.17/(1.5*1.35)</f>
         <v>11.441975308641974</v>
       </c>
     </row>
-    <row r="242" spans="1:31" ht="16" x14ac:dyDescent="0.8">
-      <c r="A242" s="1" t="s">
+    <row r="251" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="A251" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B242" s="1">
+      <c r="B251" s="1">
         <v>2015</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C251" t="s">
         <v>310</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D251" t="s">
         <v>295</v>
       </c>
-      <c r="E242" t="s">
+      <c r="E251" t="s">
         <v>267</v>
       </c>
-      <c r="G242" t="s">
+      <c r="G251" t="s">
         <v>296</v>
       </c>
-      <c r="H242" t="s">
+      <c r="H251" t="s">
         <v>297</v>
       </c>
-      <c r="I242" t="s">
+      <c r="I251" t="s">
         <v>314</v>
       </c>
-      <c r="J242" t="s">
+      <c r="J251" t="s">
         <v>259</v>
       </c>
-      <c r="K242" t="s">
+      <c r="K251" t="s">
         <v>279</v>
       </c>
-      <c r="L242" t="s">
+      <c r="L251" t="s">
         <v>281</v>
       </c>
-      <c r="M242" t="s">
+      <c r="M251" t="s">
         <v>262</v>
       </c>
-      <c r="N242" t="s">
+      <c r="N251" t="s">
         <v>302</v>
       </c>
-      <c r="P242" t="s">
+      <c r="P251" t="s">
         <v>419</v>
       </c>
-      <c r="V242">
+      <c r="V251">
         <v>10</v>
       </c>
-      <c r="W242">
+      <c r="W251">
         <v>10.154</v>
       </c>
-      <c r="Z242">
+      <c r="Z251">
         <f>0.615/(1.35*1.5)</f>
         <v>0.30370370370370364</v>
       </c>
-      <c r="AA242">
+      <c r="AA251">
         <v>9</v>
       </c>
-      <c r="AB242">
+      <c r="AB251">
         <v>10.154999999999999</v>
       </c>
-      <c r="AE242">
+      <c r="AE251">
         <f>1.692/(1.5*1.35)</f>
         <v>0.83555555555555538</v>
       </c>
     </row>
-    <row r="243" spans="1:31" ht="16" x14ac:dyDescent="0.8">
-      <c r="A243" s="1" t="s">
+    <row r="252" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="A252" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B243" s="1">
+      <c r="B252" s="1">
         <v>2015</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C252" t="s">
         <v>311</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D252" t="s">
         <v>295</v>
       </c>
-      <c r="E243" t="s">
+      <c r="E252" t="s">
         <v>267</v>
       </c>
-      <c r="G243" t="s">
+      <c r="G252" t="s">
         <v>296</v>
       </c>
-      <c r="H243" t="s">
+      <c r="H252" t="s">
         <v>297</v>
       </c>
-      <c r="I243" t="s">
+      <c r="I252" t="s">
         <v>314</v>
       </c>
-      <c r="J243" t="s">
+      <c r="J252" t="s">
         <v>259</v>
       </c>
-      <c r="K243" t="s">
+      <c r="K252" t="s">
         <v>279</v>
       </c>
-      <c r="L243" t="s">
+      <c r="L252" t="s">
         <v>281</v>
       </c>
-      <c r="M243" t="s">
+      <c r="M252" t="s">
         <v>262</v>
       </c>
-      <c r="N243" t="s">
+      <c r="N252" t="s">
         <v>303</v>
       </c>
-      <c r="P243" t="s">
+      <c r="P252" t="s">
         <v>419</v>
       </c>
-      <c r="V243">
+      <c r="V252">
         <v>10</v>
       </c>
-      <c r="W243">
+      <c r="W252">
         <v>7.1680000000000001</v>
       </c>
-      <c r="Z243">
+      <c r="Z252">
         <f>8.924/(1.35*1.5)</f>
         <v>4.4069135802469122</v>
       </c>
-      <c r="AA243">
+      <c r="AA252">
         <v>9</v>
       </c>
-      <c r="AB243">
+      <c r="AB252">
         <v>6.0469999999999997</v>
       </c>
-      <c r="AE243">
+      <c r="AE252">
         <f>8.144/(1.5*1.35)</f>
         <v>4.0217283950617277</v>
       </c>
     </row>
-    <row r="244" spans="1:31" ht="16" x14ac:dyDescent="0.8">
-      <c r="A244" s="1" t="s">
+    <row r="253" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="A253" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B244" s="1">
+      <c r="B253" s="1">
         <v>2015</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C253" t="s">
         <v>312</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D253" t="s">
         <v>295</v>
       </c>
-      <c r="E244" t="s">
+      <c r="E253" t="s">
         <v>267</v>
       </c>
-      <c r="G244" t="s">
+      <c r="G253" t="s">
         <v>296</v>
       </c>
-      <c r="H244" t="s">
+      <c r="H253" t="s">
         <v>297</v>
       </c>
-      <c r="I244" t="s">
+      <c r="I253" t="s">
         <v>314</v>
       </c>
-      <c r="J244" t="s">
+      <c r="J253" t="s">
         <v>259</v>
       </c>
-      <c r="K244" t="s">
+      <c r="K253" t="s">
         <v>279</v>
       </c>
-      <c r="L244" t="s">
+      <c r="L253" t="s">
         <v>281</v>
       </c>
-      <c r="M244" t="s">
+      <c r="M253" t="s">
         <v>262</v>
       </c>
-      <c r="N244" t="s">
+      <c r="N253" t="s">
         <v>304</v>
       </c>
-      <c r="P244" t="s">
+      <c r="P253" t="s">
         <v>419</v>
       </c>
-      <c r="V244">
+      <c r="V253">
         <v>10</v>
       </c>
-      <c r="W244">
+      <c r="W253">
         <v>0.78200000000000003</v>
       </c>
-      <c r="Z244">
+      <c r="Z253">
         <f>1.318/(1.35*1.5)</f>
         <v>0.65086419753086411</v>
       </c>
-      <c r="AA244">
+      <c r="AA253">
         <v>9</v>
       </c>
-      <c r="AB244">
+      <c r="AB253">
         <v>0.97699999999999998</v>
       </c>
-      <c r="AE244">
+      <c r="AE253">
         <f>2.194/(1.5*1.35)</f>
         <v>1.0834567901234566</v>
       </c>
     </row>
-    <row r="245" spans="1:31" ht="16" x14ac:dyDescent="0.8">
-      <c r="A245" s="1" t="s">
+    <row r="254" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="A254" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B245" s="1">
+      <c r="B254" s="1">
         <v>2015</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C254" t="s">
         <v>313</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D254" t="s">
         <v>295</v>
       </c>
-      <c r="E245" t="s">
+      <c r="E254" t="s">
         <v>267</v>
       </c>
-      <c r="G245" t="s">
+      <c r="G254" t="s">
         <v>296</v>
       </c>
-      <c r="H245" t="s">
+      <c r="H254" t="s">
         <v>297</v>
       </c>
-      <c r="I245" t="s">
+      <c r="I254" t="s">
         <v>314</v>
       </c>
-      <c r="J245" t="s">
+      <c r="J254" t="s">
         <v>259</v>
       </c>
-      <c r="K245" t="s">
+      <c r="K254" t="s">
         <v>279</v>
       </c>
-      <c r="L245" t="s">
+      <c r="L254" t="s">
         <v>281</v>
       </c>
-      <c r="M245" t="s">
+      <c r="M254" t="s">
         <v>262</v>
       </c>
-      <c r="N245" t="s">
+      <c r="N254" t="s">
         <v>305</v>
       </c>
-      <c r="P245" t="s">
+      <c r="P254" t="s">
         <v>419</v>
       </c>
-      <c r="V245">
+      <c r="V254">
         <v>10</v>
       </c>
-      <c r="W245">
+      <c r="W254">
         <v>0.247</v>
       </c>
-      <c r="Z245">
+      <c r="Z254">
         <f>0.431/(1.35*1.5)</f>
         <v>0.21283950617283948</v>
       </c>
-      <c r="AA245">
+      <c r="AA254">
         <v>9</v>
       </c>
-      <c r="AB245">
+      <c r="AB254">
         <v>0.35399999999999998</v>
       </c>
-      <c r="AE245">
+      <c r="AE254">
         <f>1.277/(1.5*1.35)</f>
         <v>0.63061728395061711</v>
       </c>
